--- a/The Lemon Taco spreadsheet edition.xlsx
+++ b/The Lemon Taco spreadsheet edition.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="386">
   <si>
     <t>name</t>
   </si>
@@ -1170,6 +1170,12 @@
   </si>
   <si>
     <t>adds 8(I think) modifiers to the tool</t>
+  </si>
+  <si>
+    <t>vacuous</t>
+  </si>
+  <si>
+    <t>hopper &amp; ender pearl</t>
   </si>
 </sst>
 </file>
@@ -5890,7 +5896,7 @@
   <dimension ref="A1:Q113"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A119" sqref="A119:XFD119"/>
@@ -11148,10 +11154,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11734,7 +11740,7 @@
         <v>450</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -11866,6 +11872,20 @@
         <v>36</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>373</v>
       </c>
     </row>

--- a/The Lemon Taco spreadsheet edition.xlsx
+++ b/The Lemon Taco spreadsheet edition.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="390">
   <si>
     <t>name</t>
   </si>
@@ -1157,9 +1157,6 @@
     <t>obsidian &amp; ender pearl</t>
   </si>
   <si>
-    <t>stackable</t>
-  </si>
-  <si>
     <t>increases durability by 500 and increases mining level to 3 if the current level is lower than 3</t>
   </si>
   <si>
@@ -1176,6 +1173,21 @@
   </si>
   <si>
     <t>hopper &amp; ender pearl</t>
+  </si>
+  <si>
+    <t>usable</t>
+  </si>
+  <si>
+    <t>crooked</t>
+  </si>
+  <si>
+    <t>bone crook</t>
+  </si>
+  <si>
+    <t>diamond hammer</t>
+  </si>
+  <si>
+    <t>smashing</t>
   </si>
 </sst>
 </file>
@@ -5896,7 +5908,7 @@
   <dimension ref="A1:Q113"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A119" sqref="A119:XFD119"/>
@@ -11154,10 +11166,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11166,7 +11178,7 @@
     <col min="2" max="2" width="58" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -11579,10 +11591,10 @@
         <v>346</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -11641,7 +11653,7 @@
         <v>371</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>361</v>
@@ -11672,7 +11684,7 @@
         <v>85</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>85</v>
@@ -11790,7 +11802,7 @@
         <v>355</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>366</v>
@@ -11877,16 +11889,44 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>373</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/The Lemon Taco spreadsheet edition.xlsx
+++ b/The Lemon Taco spreadsheet edition.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="397">
   <si>
     <t>name</t>
   </si>
@@ -1188,6 +1188,27 @@
   </si>
   <si>
     <t>smashing</t>
+  </si>
+  <si>
+    <t>will set attacked enemies on fire, the level indicates the duration</t>
+  </si>
+  <si>
+    <t>gives attacked enemies a weakness effect, the level indicates the duration</t>
+  </si>
+  <si>
+    <t>gives attacked enemies a poison effect, the level indicates the duration</t>
+  </si>
+  <si>
+    <t>gives attacked enemies a slowness effect, the level indicates the duration</t>
+  </si>
+  <si>
+    <t>gives attacked enemies a wither effect, the level indicates the duration</t>
+  </si>
+  <si>
+    <t>rubracium dust</t>
+  </si>
+  <si>
+    <t>whetstone powder</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1288,6 +1309,9 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11169,13 +11193,13 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="51.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -11464,29 +11488,41 @@
       <c r="A31" s="1" t="s">
         <v>302</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>303</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>304</v>
       </c>
+      <c r="B33" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>227</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>77</v>
@@ -11503,9 +11539,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>231</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>81</v>
@@ -11670,7 +11709,7 @@
         <v>348</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>50</v>
+        <v>395</v>
       </c>
       <c r="D53" s="1">
         <v>50</v>
@@ -11713,17 +11752,17 @@
         <v>375</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="D56" s="16">
+        <v>1</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>375</v>
       </c>
     </row>
@@ -11760,7 +11799,7 @@
         <v>352</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>52</v>
+        <v>396</v>
       </c>
       <c r="D59" s="1">
         <v>72</v>

--- a/The Lemon Taco spreadsheet edition.xlsx
+++ b/The Lemon Taco spreadsheet edition.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="oregen" sheetId="1" r:id="rId1"/>
     <sheet name="toolmaterial stats" sheetId="2" r:id="rId2"/>
     <sheet name="lemonades" sheetId="3" r:id="rId3"/>
-    <sheet name="ore dictionary" sheetId="4" r:id="rId4"/>
-    <sheet name="explanation" sheetId="5" r:id="rId5"/>
+    <sheet name="explanation" sheetId="5" r:id="rId4"/>
+    <sheet name="ore dictionary" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="397">
   <si>
     <t>name</t>
   </si>
@@ -1142,9 +1142,6 @@
     <t>multiple</t>
   </si>
   <si>
-    <t>increases durability by 50%</t>
-  </si>
-  <si>
     <t>single</t>
   </si>
   <si>
@@ -1166,9 +1163,6 @@
     <t>items per modifier</t>
   </si>
   <si>
-    <t>adds 8(I think) modifiers to the tool</t>
-  </si>
-  <si>
     <t>vacuous</t>
   </si>
   <si>
@@ -1209,6 +1203,12 @@
   </si>
   <si>
     <t>whetstone powder</t>
+  </si>
+  <si>
+    <t>adds 5 modifiers to the tool</t>
+  </si>
+  <si>
+    <t>increases durability by 50% and increases mining level to 2 if the current level is lower than 2</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1310,8 +1310,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1929,11 +1932,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B97" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A104" sqref="A104:XFD104"/>
+      <selection pane="bottomRight" activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,6 +2070,9 @@
       <c r="M4" t="s">
         <v>246</v>
       </c>
+      <c r="N4" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2109,6 +2115,9 @@
       <c r="M5" t="s">
         <v>246</v>
       </c>
+      <c r="N5" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2151,6 +2160,9 @@
       <c r="M6" t="s">
         <v>246</v>
       </c>
+      <c r="N6" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2187,6 +2199,9 @@
       <c r="M7" t="s">
         <v>246</v>
       </c>
+      <c r="N7" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2229,6 +2244,9 @@
       <c r="M8" t="s">
         <v>246</v>
       </c>
+      <c r="N8" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2271,6 +2289,9 @@
       <c r="M9" t="s">
         <v>246</v>
       </c>
+      <c r="N9" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2313,6 +2334,9 @@
       <c r="M10" t="s">
         <v>246</v>
       </c>
+      <c r="N10" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2355,6 +2379,9 @@
       <c r="M11" t="s">
         <v>246</v>
       </c>
+      <c r="N11" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2391,6 +2418,9 @@
       <c r="M12" t="s">
         <v>246</v>
       </c>
+      <c r="N12" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2427,6 +2457,9 @@
       <c r="M13" t="s">
         <v>246</v>
       </c>
+      <c r="N13" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2466,6 +2499,9 @@
       <c r="M14" t="s">
         <v>246</v>
       </c>
+      <c r="N14" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2505,6 +2541,9 @@
       <c r="M15" t="s">
         <v>245</v>
       </c>
+      <c r="N15" t="s">
+        <v>246</v>
+      </c>
       <c r="O15" t="s">
         <v>288</v>
       </c>
@@ -2547,6 +2586,9 @@
       <c r="M16" t="s">
         <v>246</v>
       </c>
+      <c r="N16" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2586,6 +2628,9 @@
       <c r="M17" t="s">
         <v>246</v>
       </c>
+      <c r="N17" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2628,6 +2673,9 @@
       <c r="M18" t="s">
         <v>246</v>
       </c>
+      <c r="N18" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2667,6 +2715,9 @@
       <c r="M19" t="s">
         <v>246</v>
       </c>
+      <c r="N19" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2706,6 +2757,9 @@
       <c r="M20" t="s">
         <v>246</v>
       </c>
+      <c r="N20" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2745,6 +2799,9 @@
       <c r="M21" t="s">
         <v>246</v>
       </c>
+      <c r="N21" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2784,6 +2841,9 @@
       <c r="M22" t="s">
         <v>246</v>
       </c>
+      <c r="N22" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2823,6 +2883,9 @@
       <c r="M23" t="s">
         <v>246</v>
       </c>
+      <c r="N23" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2862,6 +2925,9 @@
       <c r="M24" t="s">
         <v>246</v>
       </c>
+      <c r="N24" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2901,6 +2967,9 @@
       <c r="M25" t="s">
         <v>246</v>
       </c>
+      <c r="N25" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2940,6 +3009,9 @@
       <c r="M26" t="s">
         <v>246</v>
       </c>
+      <c r="N26" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2979,6 +3051,9 @@
       <c r="M27" t="s">
         <v>246</v>
       </c>
+      <c r="N27" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -3015,6 +3090,9 @@
       <c r="M28" t="s">
         <v>246</v>
       </c>
+      <c r="N28" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -3051,6 +3129,9 @@
       <c r="M29" t="s">
         <v>246</v>
       </c>
+      <c r="N29" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -3087,6 +3168,9 @@
       <c r="M30" t="s">
         <v>246</v>
       </c>
+      <c r="N30" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -3126,6 +3210,9 @@
       <c r="M31" t="s">
         <v>246</v>
       </c>
+      <c r="N31" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="32" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
@@ -3162,7 +3249,7 @@
       <c r="L32" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="11" t="s">
         <v>246</v>
       </c>
       <c r="N32" s="11" t="s">
@@ -3172,7 +3259,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -3210,8 +3297,11 @@
       <c r="M33" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -3249,8 +3339,11 @@
       <c r="M34" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -3288,8 +3381,11 @@
       <c r="M35" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -3327,8 +3423,11 @@
       <c r="M36" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -3366,8 +3465,11 @@
       <c r="M37" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -3405,8 +3507,11 @@
       <c r="M38" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -3444,8 +3549,11 @@
       <c r="M39" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -3483,8 +3591,11 @@
       <c r="M40" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -3522,8 +3633,11 @@
       <c r="M41" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -3561,8 +3675,11 @@
       <c r="M42" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -3600,8 +3717,11 @@
       <c r="M43" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -3639,8 +3759,11 @@
       <c r="M44" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -3678,8 +3801,11 @@
       <c r="M45" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -3717,8 +3843,11 @@
       <c r="M46" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -3756,8 +3885,11 @@
       <c r="M47" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -3795,6 +3927,9 @@
       <c r="M48" t="s">
         <v>246</v>
       </c>
+      <c r="N48" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -3834,6 +3969,9 @@
       <c r="M49" t="s">
         <v>246</v>
       </c>
+      <c r="N49" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -3873,6 +4011,9 @@
       <c r="M50" t="s">
         <v>246</v>
       </c>
+      <c r="N50" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -3912,6 +4053,9 @@
       <c r="M51" t="s">
         <v>246</v>
       </c>
+      <c r="N51" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -4068,6 +4212,9 @@
       <c r="M55" t="s">
         <v>246</v>
       </c>
+      <c r="N55" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -4107,6 +4254,9 @@
       <c r="M56" t="s">
         <v>246</v>
       </c>
+      <c r="N56" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -4146,6 +4296,9 @@
       <c r="M57" t="s">
         <v>246</v>
       </c>
+      <c r="N57" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -5587,7 +5740,7 @@
         <v>3</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J95" t="s">
         <v>57</v>
@@ -5602,7 +5755,7 @@
         <v>246</v>
       </c>
       <c r="N95" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
@@ -5629,7 +5782,7 @@
         <v>3</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J96" t="s">
         <v>57</v>
@@ -5644,7 +5797,7 @@
         <v>246</v>
       </c>
       <c r="N96" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -5671,7 +5824,7 @@
         <v>3</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J97" t="s">
         <v>57</v>
@@ -5686,7 +5839,7 @@
         <v>246</v>
       </c>
       <c r="N97" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -5713,7 +5866,7 @@
         <v>3</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J98" t="s">
         <v>57</v>
@@ -5728,7 +5881,7 @@
         <v>246</v>
       </c>
       <c r="N98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -11076,11 +11229,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11123,51 +11276,51 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>140</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>141</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>142</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>143</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>144</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>287</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B13" t="s">
         <v>103</v>
       </c>
     </row>
@@ -11177,6 +11330,792 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>5</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>6</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>7</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="D49" s="16">
+        <v>1</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="D50" s="16">
+        <v>1</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D51" s="16">
+        <v>1</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D52" s="16">
+        <v>1</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="D53" s="16">
+        <v>50</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="16">
+        <v>1</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="16">
+        <v>1</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D56" s="17">
+        <v>1</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="D57" s="16">
+        <v>1</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="16">
+        <v>450</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="D59" s="16">
+        <v>72</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="D60" s="16">
+        <v>25</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="D61" s="16">
+        <v>1</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="D62" s="16">
+        <v>1</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="D63" s="16">
+        <v>1</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="D64" s="16">
+        <v>10</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="D65" s="16">
+        <v>1</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="D66" s="16">
+        <v>4</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="D67" s="16">
+        <v>36</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="D68" s="16">
+        <v>1</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D69" s="16">
+        <v>1</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D70" s="16">
+        <v>1</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11186,790 +12125,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E70"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D53" s="1">
-        <v>50</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="D56" s="16">
-        <v>1</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D58" s="1">
-        <v>450</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D59" s="1">
-        <v>72</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D60" s="1">
-        <v>25</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D64" s="1">
-        <v>10</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D65" s="1">
-        <v>1</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D66" s="1">
-        <v>4</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D67" s="1">
-        <v>36</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D68" s="1">
-        <v>1</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/The Lemon Taco spreadsheet edition.xlsx
+++ b/The Lemon Taco spreadsheet edition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="oregen" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,12 @@
     <sheet name="ore dictionary" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="399">
   <si>
     <t>name</t>
   </si>
@@ -1209,6 +1210,12 @@
   </si>
   <si>
     <t>increases durability by 50% and increases mining level to 2 if the current level is lower than 2</t>
+  </si>
+  <si>
+    <t>spooky</t>
+  </si>
+  <si>
+    <t>exhausting</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1328,333 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="73">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC7A15D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4FAFC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAA9672"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFD57B00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFAFFDFF"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD4FAFC"/>
+          <bgColor rgb="FFD4FAFC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC7A15D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD4FAFC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAA9672"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="180">
+          <stop position="0">
+            <color rgb="FFD57B00"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFAFFDFF"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD4FAFC"/>
+          <bgColor rgb="FFD4FAFC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1618,7 +1951,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Simple" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Simple" pivot="0" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="34"/>
+      <tableStyleElement type="secondRowStripe" dxfId="72"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1932,7 +2265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1941,20 +2274,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -5959,55 +6292,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O60:O91">
-    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="15" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="16" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="6" operator="equal">
       <formula>"rock"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="7" operator="equal">
       <formula>"gem"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="8" operator="equal">
       <formula>"metal, fantasy"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="9" operator="equal">
       <formula>"metal, nether"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="10" operator="equal">
       <formula>"metal, ender"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="11" operator="equal">
       <formula>"metal, precious"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="12" operator="equal">
       <formula>"metal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="13" operator="equal">
       <formula>"fruit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="14" operator="equal">
       <formula>"utility"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21:O22 M1:N1048576">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6082,34 +6415,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q113"/>
+  <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A119" sqref="A119:XFD119"/>
+      <selection pane="bottomRight" activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" customWidth="1"/>
-    <col min="17" max="17" width="63.28515625" customWidth="1"/>
+    <col min="17" max="17" width="63.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -10876,9 +11209,51 @@
         <v>245</v>
       </c>
     </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>397</v>
+      </c>
+      <c r="E114" t="s">
+        <v>235</v>
+      </c>
+      <c r="M114" s="9">
+        <f t="shared" ref="M114:M115" si="5">C114*B114/2250+(C114-1)/2.33+0+0+F114/5+G114/9+H114/3-I114/200+J114/5.8-K114/50-L114/1000</f>
+        <v>-0.42918454935622319</v>
+      </c>
+      <c r="N114" t="s">
+        <v>245</v>
+      </c>
+      <c r="O114" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>398</v>
+      </c>
+      <c r="E115" t="s">
+        <v>235</v>
+      </c>
+      <c r="M115" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.42918454935622319</v>
+      </c>
+      <c r="N115" t="s">
+        <v>245</v>
+      </c>
+      <c r="O115" t="s">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L6 L8:L63 L65:L1048576">
-    <cfRule type="dataBar" priority="80">
+  <conditionalFormatting sqref="L1:L6 L8:L63 L65:L113 L116:L1048576">
+    <cfRule type="dataBar" priority="140">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10891,8 +11266,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88:F1048576 F1:F86">
-    <cfRule type="dataBar" priority="94">
+  <conditionalFormatting sqref="F88:F113 F1:F86 F116:F1048576">
+    <cfRule type="dataBar" priority="154">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10905,8 +11280,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88:H1048576 H1:H86">
-    <cfRule type="dataBar" priority="98">
+  <conditionalFormatting sqref="H88:H113 H1:H86 H116:H1048576">
+    <cfRule type="dataBar" priority="158">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10919,8 +11294,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J88:J1048576 J1:J63 J65:J86">
-    <cfRule type="dataBar" priority="102">
+  <conditionalFormatting sqref="J88:J113 J1:J63 J65:J86 J116:J1048576">
+    <cfRule type="dataBar" priority="162">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10933,8 +11308,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G88:G1048576 G1:G86">
-    <cfRule type="dataBar" priority="107">
+  <conditionalFormatting sqref="G88:G113 G1:G86 G116:G1048576">
+    <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10947,61 +11322,61 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+  <conditionalFormatting sqref="N1:N113 N116:N1048576">
+    <cfRule type="cellIs" dxfId="56" priority="81" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="82" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:P7 O8 Q8 O9:P1048576">
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+  <conditionalFormatting sqref="O1:P7 O8 Q8 O9:P113 O116:P1048576">
+    <cfRule type="cellIs" dxfId="54" priority="79" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="80" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="dire">
+  <conditionalFormatting sqref="D1:D113 D116:D1048576">
+    <cfRule type="containsText" dxfId="52" priority="61" operator="containsText" text="dire">
       <formula>NOT(ISERROR(SEARCH("dire",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="skullfire">
+    <cfRule type="containsText" dxfId="51" priority="62" operator="containsText" text="skullfire">
       <formula>NOT(ISERROR(SEARCH("skullfire",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="cosmic">
+    <cfRule type="containsText" dxfId="50" priority="63" operator="containsText" text="cosmic">
       <formula>NOT(ISERROR(SEARCH("cosmic",D1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="70" operator="equal">
       <formula>"supermassive"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="reinforced">
+    <cfRule type="containsText" dxfId="48" priority="71" operator="containsText" text="reinforced">
       <formula>NOT(ISERROR(SEARCH("reinforced",D1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="72" operator="equal">
       <formula>"none"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="stonebound">
+    <cfRule type="containsText" dxfId="46" priority="73" operator="containsText" text="stonebound">
       <formula>NOT(ISERROR(SEARCH("stonebound",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+  <conditionalFormatting sqref="E1:E113 E116:E1048576">
+    <cfRule type="cellIs" dxfId="45" priority="74" operator="equal">
       <formula>"part builder, part cast"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="75" operator="equal">
       <formula>"dire crafting table"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="76" operator="equal">
       <formula>"part builder"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="77" operator="equal">
       <formula>"part cast"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C88:C1048576 C1:C86">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="C88:C113 C1:C86 C116:C1048576">
+    <cfRule type="dataBar" priority="68">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11013,12 +11388,12 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="69" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M88:M1048576 M1:M86">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="M88:M113 M1:M86 M116:M1048576">
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11031,21 +11406,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+  <conditionalFormatting sqref="J1:J113 J116:J1048576">
+    <cfRule type="cellIs" dxfId="40" priority="65" operator="equal">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+  <conditionalFormatting sqref="L1:L113 L116:L1048576">
+    <cfRule type="cellIs" dxfId="39" priority="64" operator="equal">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I84:I1048576 I1:I82">
-    <cfRule type="cellIs" dxfId="0" priority="201" operator="equal">
+  <conditionalFormatting sqref="I84:I113 I1:I82 I116:I1048576">
+    <cfRule type="cellIs" dxfId="38" priority="261" operator="equal">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="202">
+    <cfRule type="dataBar" priority="262">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11058,8 +11433,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:K1048576 K1:K82">
-    <cfRule type="dataBar" priority="207">
+  <conditionalFormatting sqref="K84:K113 K1:K82 K116:K1048576">
+    <cfRule type="dataBar" priority="267">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11071,7 +11446,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="208">
+    <cfRule type="dataBar" priority="268">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11084,8 +11459,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88:B1048576 B84:B86 B1:B82">
-    <cfRule type="dataBar" priority="213">
+  <conditionalFormatting sqref="B88:B113 B84:B86 B1:B82 B116:B1048576">
+    <cfRule type="dataBar" priority="273">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11094,6 +11469,448 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{C6B9336F-76F8-422A-8114-E315282FDD2F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L114">
+    <cfRule type="dataBar" priority="51">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8475AB2E-3FC0-454F-AB54-FCCE3694268F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F114">
+    <cfRule type="dataBar" priority="52">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F32456CC-2488-4F95-ACC0-C5A236E7249D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H114">
+    <cfRule type="dataBar" priority="53">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3EED116B-D6ED-49BB-B65D-C1877FBA9B2C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J114">
+    <cfRule type="dataBar" priority="54">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{66C75076-9D21-42A1-9645-CC34C554AC9B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G114">
+    <cfRule type="dataBar" priority="55">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B7915F92-8E61-4158-A713-0651886A1FAD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N114">
+    <cfRule type="cellIs" dxfId="37" priority="49" operator="equal">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="50" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O114:P114">
+    <cfRule type="cellIs" dxfId="35" priority="47" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
+      <formula>"yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114">
+    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="dire">
+      <formula>NOT(ISERROR(SEARCH("dire",D114)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="skullfire">
+      <formula>NOT(ISERROR(SEARCH("skullfire",D114)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="cosmic">
+      <formula>NOT(ISERROR(SEARCH("cosmic",D114)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="39" operator="equal">
+      <formula>"supermassive"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="40" operator="containsText" text="reinforced">
+      <formula>NOT(ISERROR(SEARCH("reinforced",D114)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
+      <formula>"none"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="42" operator="containsText" text="stonebound">
+      <formula>NOT(ISERROR(SEARCH("stonebound",D114)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="26" priority="43" operator="equal">
+      <formula>"part builder, part cast"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="44" operator="equal">
+      <formula>"dire crafting table"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="45" operator="equal">
+      <formula>"part builder"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="46" operator="equal">
+      <formula>"part cast"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="dataBar" priority="37">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BB950044-A805-4F51-9435-2FB0007BE827}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="38" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M114">
+    <cfRule type="dataBar" priority="36">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6958E9BB-21F8-4B4E-B404-E193F043649A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J114">
+    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
+      <formula>1.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L114">
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
+      <formula>0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I114">
+    <cfRule type="cellIs" dxfId="19" priority="56" operator="equal">
+      <formula>40</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B0FCAFD5-8860-4BA4-BD73-10B37415A488}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K114">
+    <cfRule type="dataBar" priority="58">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A951C96D-9A8C-4746-95CC-2144C0788FA0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="59">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{17D643F4-9E29-42F7-8EAF-EAC6766DF215}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B114">
+    <cfRule type="dataBar" priority="60">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AFD0DD04-5B68-4BF6-A96D-61AE36FC19F0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L115">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{994C38A8-D798-435B-80F1-4F44F88B04D3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F115">
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D62091D4-B2DA-462C-96E8-EA545ADD80CB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H115">
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2A39306C-DCD4-425E-A242-6F3835177A2A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J115">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0992EF59-F171-447E-8E29-81B9E7D02E4A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G115">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CA0621EA-877C-45E7-9303-88BABDFD61E9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N115">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O115:P115">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>"yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="dire">
+      <formula>NOT(ISERROR(SEARCH("dire",D115)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="skullfire">
+      <formula>NOT(ISERROR(SEARCH("skullfire",D115)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="cosmic">
+      <formula>NOT(ISERROR(SEARCH("cosmic",D115)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"supermassive"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="reinforced">
+      <formula>NOT(ISERROR(SEARCH("reinforced",D115)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"none"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="stonebound">
+      <formula>NOT(ISERROR(SEARCH("stonebound",D115)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+      <formula>"part builder, part cast"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+      <formula>"dire crafting table"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+      <formula>"part builder"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
+      <formula>"part cast"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EA8A0C45-9EC0-4854-BA8A-A807A6C10DB4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M115">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A81131EA-8DD6-4B93-9762-C375747B647E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J115">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>1.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L115">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I115">
+    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+      <formula>40</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5B6FC56E-E658-4920-A5D2-A7F76A155DF0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K115">
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3116A062-2CAA-496C-B33E-E0E790A99AF8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2DAA01CF-710B-4D0B-8E86-70D6104EDE3D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B115">
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{17BC3CAB-B273-4DD6-9223-47AE88046362}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -11112,7 +11929,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L1:L6 L8:L63 L65:L1048576</xm:sqref>
+          <xm:sqref>L1:L6 L8:L63 L65:L113 L116:L1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{820A0882-06F2-4B14-B9FB-9FA79AAF1278}">
@@ -11123,7 +11940,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F88:F1048576 F1:F86</xm:sqref>
+          <xm:sqref>F88:F113 F1:F86 F116:F1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7873A36C-220C-4368-B136-3626FE516F15}">
@@ -11134,7 +11951,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H88:H1048576 H1:H86</xm:sqref>
+          <xm:sqref>H88:H113 H1:H86 H116:H1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{45F3CC12-6630-4EB2-B8A9-BFFADE8AA892}">
@@ -11145,7 +11962,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J88:J1048576 J1:J63 J65:J86</xm:sqref>
+          <xm:sqref>J88:J113 J1:J63 J65:J86 J116:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{37E283D3-36E4-4CAA-B5BB-FA7109F09680}">
@@ -11156,7 +11973,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G88:G1048576 G1:G86</xm:sqref>
+          <xm:sqref>G88:G113 G1:G86 G116:G1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4F4D3FE2-A666-405B-8F4F-F44A87CC1BA3}">
@@ -11166,7 +11983,7 @@
               <x14:negativeFillColor rgb="FFC00000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C88:C1048576 C1:C86</xm:sqref>
+          <xm:sqref>C88:C113 C1:C86 C116:C1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{93719E4B-6F9F-44BD-94E0-15B6B2AC544C}">
@@ -11178,7 +11995,7 @@
               <x14:negativeBorderColor rgb="FFFF0000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M88:M1048576 M1:M86</xm:sqref>
+          <xm:sqref>M88:M113 M1:M86 M116:M1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{07996D23-76D8-4AB7-A1B6-93F8F2B2D02D}">
@@ -11189,7 +12006,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I84:I1048576 I1:I82</xm:sqref>
+          <xm:sqref>I84:I113 I1:I82 I116:I1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5B934DB6-0548-4A24-B9F8-7FB71437DB09}">
@@ -11208,7 +12025,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K84:K1048576 K1:K82</xm:sqref>
+          <xm:sqref>K84:K113 K1:K82 K116:K1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C6B9336F-76F8-422A-8114-E315282FDD2F}">
@@ -11219,7 +12036,243 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B88:B1048576 B84:B86 B1:B82</xm:sqref>
+          <xm:sqref>B88:B113 B84:B86 B1:B82 B116:B1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8475AB2E-3FC0-454F-AB54-FCCE3694268F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L114</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F32456CC-2488-4F95-ACC0-C5A236E7249D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F114</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3EED116B-D6ED-49BB-B65D-C1877FBA9B2C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H114</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{66C75076-9D21-42A1-9645-CC34C554AC9B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J114</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B7915F92-8E61-4158-A713-0651886A1FAD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G114</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BB950044-A805-4F51-9435-2FB0007BE827}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFC00000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C114</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6958E9BB-21F8-4B4E-B404-E193F043649A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M114</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B0FCAFD5-8860-4BA4-BD73-10B37415A488}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I114</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A951C96D-9A8C-4746-95CC-2144C0788FA0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{17D643F4-9E29-42F7-8EAF-EAC6766DF215}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K114</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AFD0DD04-5B68-4BF6-A96D-61AE36FC19F0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B114</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{994C38A8-D798-435B-80F1-4F44F88B04D3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L115</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D62091D4-B2DA-462C-96E8-EA545ADD80CB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F115</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2A39306C-DCD4-425E-A242-6F3835177A2A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H115</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0992EF59-F171-447E-8E29-81B9E7D02E4A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J115</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CA0621EA-877C-45E7-9303-88BABDFD61E9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G115</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EA8A0C45-9EC0-4854-BA8A-A807A6C10DB4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFC00000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C115</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A81131EA-8DD6-4B93-9762-C375747B647E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M115</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5B6FC56E-E658-4920-A5D2-A7F76A155DF0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I115</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3116A062-2CAA-496C-B33E-E0E790A99AF8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{2DAA01CF-710B-4D0B-8E86-70D6104EDE3D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K115</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{17BC3CAB-B273-4DD6-9223-47AE88046362}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B115</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -11238,8 +12291,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11337,17 +12390,17 @@
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="18.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.75" style="16" customWidth="1"/>
+    <col min="3" max="3" width="51.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>254</v>
       </c>
@@ -11355,7 +12408,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>-1</v>
       </c>
@@ -11363,7 +12416,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>0</v>
       </c>
@@ -11371,7 +12424,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -11379,7 +12432,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>2</v>
       </c>
@@ -11387,7 +12440,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>3</v>
       </c>
@@ -11395,7 +12448,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>4</v>
       </c>
@@ -11403,7 +12456,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>5</v>
       </c>
@@ -11411,7 +12464,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>6</v>
       </c>
@@ -11419,7 +12472,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>7</v>
       </c>
@@ -11427,7 +12480,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>156</v>
       </c>
@@ -11438,7 +12491,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>299</v>
       </c>
@@ -11449,7 +12502,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>300</v>
       </c>
@@ -11460,7 +12513,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>301</v>
       </c>
@@ -11471,7 +12524,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>212</v>
       </c>
@@ -11482,7 +12535,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>213</v>
       </c>
@@ -11493,7 +12546,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>215</v>
       </c>
@@ -11504,7 +12557,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>232</v>
       </c>
@@ -11515,7 +12568,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>315</v>
       </c>
@@ -11526,7 +12579,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>291</v>
       </c>
@@ -11537,7 +12590,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>297</v>
       </c>
@@ -11548,7 +12601,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>233</v>
       </c>
@@ -11559,7 +12612,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>305</v>
       </c>
@@ -11570,7 +12623,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>306</v>
       </c>
@@ -11581,7 +12634,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>307</v>
       </c>
@@ -11592,7 +12645,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>320</v>
       </c>
@@ -11603,7 +12656,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>319</v>
       </c>
@@ -11614,7 +12667,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>342</v>
       </c>
@@ -11625,7 +12678,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>302</v>
       </c>
@@ -11636,7 +12689,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>303</v>
       </c>
@@ -11647,7 +12700,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>304</v>
       </c>
@@ -11658,7 +12711,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>227</v>
       </c>
@@ -11669,7 +12722,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>229</v>
       </c>
@@ -11680,7 +12733,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>231</v>
       </c>
@@ -11691,7 +12744,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>239</v>
       </c>
@@ -11699,7 +12752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>294</v>
       </c>
@@ -11707,7 +12760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>248</v>
       </c>
@@ -11715,7 +12768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>295</v>
       </c>
@@ -11723,7 +12776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>240</v>
       </c>
@@ -11731,12 +12784,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C42" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>251</v>
       </c>
@@ -11744,7 +12797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>241</v>
       </c>
@@ -11752,7 +12805,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>249</v>
       </c>
@@ -11760,7 +12813,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>345</v>
       </c>
@@ -11777,7 +12830,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>347</v>
       </c>
@@ -11794,7 +12847,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>347</v>
       </c>
@@ -11811,7 +12864,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>347</v>
       </c>
@@ -11828,7 +12881,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>371</v>
       </c>
@@ -11845,7 +12898,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>348</v>
       </c>
@@ -11859,7 +12912,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>85</v>
       </c>
@@ -11876,7 +12929,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>86</v>
       </c>
@@ -11907,7 +12960,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>350</v>
       </c>
@@ -11921,7 +12974,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>351</v>
       </c>
@@ -11935,7 +12988,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>352</v>
       </c>
@@ -11949,7 +13002,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>353</v>
       </c>
@@ -11963,7 +13016,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>354</v>
       </c>
@@ -11977,7 +13030,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>355</v>
       </c>
@@ -11994,7 +13047,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>301</v>
       </c>
@@ -12011,7 +13064,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>356</v>
       </c>
@@ -12025,7 +13078,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>376</v>
       </c>
@@ -12039,7 +13092,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>357</v>
       </c>
@@ -12053,7 +13106,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>23</v>
       </c>
@@ -12067,7 +13120,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>381</v>
       </c>
@@ -12081,7 +13134,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>387</v>
       </c>
@@ -12095,7 +13148,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>384</v>
       </c>

--- a/The Lemon Taco spreadsheet edition.xlsx
+++ b/The Lemon Taco spreadsheet edition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="oregen" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,11 @@
     <sheet name="ore dictionary" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="415">
   <si>
     <t>name</t>
   </si>
@@ -1216,6 +1215,54 @@
   </si>
   <si>
     <t>exhausting</t>
+  </si>
+  <si>
+    <t>red mint</t>
+  </si>
+  <si>
+    <t>green mint</t>
+  </si>
+  <si>
+    <t>minty</t>
+  </si>
+  <si>
+    <t>green mint, red mint</t>
+  </si>
+  <si>
+    <t>spearminty</t>
+  </si>
+  <si>
+    <t>pepperminty</t>
+  </si>
+  <si>
+    <t>no known effect</t>
+  </si>
+  <si>
+    <t>smites the player when using the tool</t>
+  </si>
+  <si>
+    <t>randomly drops out of the inventory</t>
+  </si>
+  <si>
+    <t>no damage can be dealt to mobs with this anywhere in the inventory</t>
+  </si>
+  <si>
+    <t>makes random mob noises</t>
+  </si>
+  <si>
+    <t>plays cool music</t>
+  </si>
+  <si>
+    <t>teleports the player when used</t>
+  </si>
+  <si>
+    <t>tells the player a lie when used</t>
+  </si>
+  <si>
+    <t>thanks the player for being used</t>
+  </si>
+  <si>
+    <t>has a chance of crashing when used</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1375,47 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="77">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1951,7 +2038,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Simple" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Simple" pivot="0" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="72"/>
+      <tableStyleElement type="secondRowStripe" dxfId="76"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2266,10 +2353,10 @@
   <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O29" sqref="O29"/>
+      <selection pane="bottomRight" activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6292,55 +6379,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O60:O91">
-    <cfRule type="cellIs" dxfId="71" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="15" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="16" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="69" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="6" operator="equal">
       <formula>"rock"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="7" operator="equal">
       <formula>"gem"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="8" operator="equal">
       <formula>"metal, fantasy"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="9" operator="equal">
       <formula>"metal, nether"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="10" operator="equal">
       <formula>"metal, ender"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="11" operator="equal">
       <formula>"metal, precious"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="12" operator="equal">
       <formula>"metal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="13" operator="equal">
       <formula>"fruit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="14" operator="equal">
       <formula>"utility"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21:O22 M1:N1048576">
-    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6415,13 +6502,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q115"/>
+  <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D116" sqref="D116"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6533,7 +6620,7 @@
         <v>0.5</v>
       </c>
       <c r="M2" s="9">
-        <f t="shared" ref="M2:M33" si="0">C2*B2/2250+(C2-1)/2.33+0+0+F2/5+G2/9+H2/3-I2/200+J2/5.8-K2/50-L2/1000</f>
+        <f t="shared" ref="M2:M35" si="0">C2*B2/2250+(C2-1)/2.33+0+0+F2/5+G2/9+H2/3-I2/200+J2/5.8-K2/50-L2/1000</f>
         <v>0.65249693486590044</v>
       </c>
       <c r="N2" t="s">
@@ -6884,47 +6971,35 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10">
-        <v>375</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
+        <v>399</v>
+      </c>
+      <c r="B10" s="1">
+        <v>38</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>404</v>
       </c>
       <c r="E10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F10">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="2">
-        <v>28</v>
-      </c>
-      <c r="J10" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="L10" s="4">
         <v>0</v>
       </c>
       <c r="M10" s="9">
         <f t="shared" si="0"/>
-        <v>1.5789224803907058</v>
+        <v>-0.42118454935622318</v>
       </c>
       <c r="N10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O10" t="s">
         <v>246</v>
@@ -6932,47 +7007,35 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11">
-        <v>900</v>
-      </c>
-      <c r="C11">
-        <v>1.5</v>
+        <v>400</v>
+      </c>
+      <c r="B11" s="1">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>403</v>
       </c>
       <c r="E11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F11">
-        <v>0.53</v>
+        <v>0.04</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I11" s="2">
-        <v>21</v>
-      </c>
-      <c r="J11" s="2">
-        <v>4</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="L11" s="4">
         <v>0</v>
       </c>
       <c r="M11" s="9">
         <f t="shared" si="0"/>
-        <v>1.6675141137585714</v>
+        <v>-0.42118454935622318</v>
       </c>
       <c r="N11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O11" t="s">
         <v>246</v>
@@ -6980,44 +7043,44 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="B12">
-        <v>135</v>
+        <v>375</v>
       </c>
       <c r="C12">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F12">
-        <v>1.75</v>
+        <v>0.35</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I12" s="2">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J12" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="K12" s="2">
-        <v>2.7</v>
+        <v>0.22</v>
       </c>
       <c r="L12" s="4">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M12" s="9">
         <f t="shared" si="0"/>
-        <v>1.6042015966980745</v>
+        <v>1.5789224803907058</v>
       </c>
       <c r="N12" t="s">
         <v>246</v>
@@ -7028,44 +7091,44 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13">
-        <v>188</v>
+        <v>900</v>
       </c>
       <c r="C13">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F13">
-        <v>2.1</v>
+        <v>0.53</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I13" s="2">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J13" s="2">
-        <v>5.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="K13" s="2">
-        <v>3.2</v>
+        <v>0.22</v>
       </c>
       <c r="L13" s="4">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="M13" s="9">
-        <f>C13*B13/2250+(C13-1)/2.33+0+0+F13/5+G13/9+H13/3-I13/200+J13/5.8-K13/50-L13/1000</f>
-        <v>2.0285472546988306</v>
+        <f t="shared" si="0"/>
+        <v>1.6675141137585714</v>
       </c>
       <c r="N13" t="s">
         <v>246</v>
@@ -7076,44 +7139,44 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="1">
-        <v>285</v>
+        <v>94</v>
+      </c>
+      <c r="B14">
+        <v>135</v>
       </c>
       <c r="C14">
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E14" t="s">
         <v>235</v>
       </c>
       <c r="F14">
-        <v>2.2799999999999998</v>
+        <v>1.75</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J14" s="2">
-        <v>5.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K14" s="2">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="L14" s="4">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M14" s="9">
         <f t="shared" si="0"/>
-        <v>2.2258256392547651</v>
+        <v>1.6042015966980745</v>
       </c>
       <c r="N14" t="s">
         <v>246</v>
@@ -7124,3142 +7187,3142 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B15">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="C15">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="D15" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E15" t="s">
         <v>235</v>
       </c>
       <c r="F15">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="2">
         <v>1.5</v>
       </c>
       <c r="I15" s="2">
+        <v>45</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K15" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M15" s="9">
+        <f>C15*B15/2250+(C15-1)/2.33+0+0+F15/5+G15/9+H15/3-I15/200+J15/5.8-K15/50-L15/1000</f>
+        <v>2.0285472546988306</v>
+      </c>
+      <c r="N15" t="s">
+        <v>246</v>
+      </c>
+      <c r="O15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="1">
+        <v>285</v>
+      </c>
+      <c r="C16">
+        <v>1.25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>54</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="0"/>
+        <v>2.2258256392547651</v>
+      </c>
+      <c r="N16" t="s">
+        <v>246</v>
+      </c>
+      <c r="O16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17">
+        <v>169</v>
+      </c>
+      <c r="C17">
+        <v>0.8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17">
+        <v>2.63</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="2">
         <v>40</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J17" s="2">
         <v>1.2</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K17" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L17" s="4">
         <v>0.5</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M17" s="9">
         <f t="shared" si="0"/>
         <v>1.2850929751862268</v>
       </c>
-      <c r="N15" t="s">
-        <v>246</v>
-      </c>
-      <c r="O15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="N17" t="s">
+        <v>246</v>
+      </c>
+      <c r="O17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>179</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>225</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>1.35</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>211</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E18" t="s">
         <v>235</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>2.1</v>
       </c>
-      <c r="G16">
+      <c r="G18">
         <v>4</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H18" s="2">
         <v>1.5</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I18" s="2">
         <v>40</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J18" s="2">
         <v>1.2</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K18" s="2">
         <v>3</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L18" s="4">
         <v>0.5</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M18" s="9">
         <f t="shared" si="0"/>
         <v>1.5960555884432606</v>
       </c>
-      <c r="N16" t="s">
-        <v>246</v>
-      </c>
-      <c r="O16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="N18" t="s">
+        <v>246</v>
+      </c>
+      <c r="O18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>178</v>
       </c>
-      <c r="B17">
+      <c r="B19">
         <v>386</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>0.9</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
         <v>218</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
         <v>235</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <v>1.75</v>
       </c>
-      <c r="G17">
+      <c r="G19">
         <v>4</v>
       </c>
-      <c r="H17" s="2">
-        <v>2</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2">
         <v>40</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J19" s="2">
         <v>1.2</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K19" s="2">
         <v>7.9</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L19" s="4">
         <v>0.25</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M19" s="9">
         <f t="shared" si="0"/>
         <v>1.4212392078996268</v>
       </c>
-      <c r="N17" t="s">
-        <v>246</v>
-      </c>
-      <c r="O17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="N19" t="s">
+        <v>246</v>
+      </c>
+      <c r="O19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>170</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B20" s="1">
         <v>300</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>1.3</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>218</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
         <v>235</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <v>2.4500000000000002</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <v>5</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H20" s="2">
         <v>1.5</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I20" s="2">
         <v>60</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J20" s="2">
         <v>5.5</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K20" s="2">
         <v>3.6</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L20" s="4">
         <v>0.9</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M20" s="9">
         <f t="shared" si="0"/>
         <v>2.4230201157647211</v>
       </c>
-      <c r="N18" t="s">
-        <v>246</v>
-      </c>
-      <c r="O18" t="s">
-        <v>246</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="N20" t="s">
+        <v>246</v>
+      </c>
+      <c r="O20" t="s">
+        <v>246</v>
+      </c>
+      <c r="P20" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B21" s="1">
         <v>188</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>1.2</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>211</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E21" t="s">
         <v>235</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <v>2.68</v>
       </c>
-      <c r="G19">
+      <c r="G21">
         <v>5</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H21" s="2">
         <v>1</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I21" s="2">
         <v>40</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J21" s="2">
         <v>1.2</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K21" s="2">
         <v>6.3</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L21" s="4">
         <v>0.25</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M21" s="9">
         <f t="shared" si="0"/>
         <v>1.4916390171509379</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N21" t="s">
         <v>245</v>
       </c>
-      <c r="O19" t="s">
-        <v>246</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="O21" t="s">
+        <v>246</v>
+      </c>
+      <c r="P21" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>176</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B22" s="1">
         <v>500</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>1.35</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>216</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E22" t="s">
         <v>235</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <v>2.73</v>
       </c>
-      <c r="G20">
+      <c r="G22">
         <v>5</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H22" s="2">
         <v>1.5</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I22" s="2">
         <v>42</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J22" s="2">
         <v>5.2</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K22" s="2">
         <v>3</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L22" s="4">
         <v>0.5</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M22" s="9">
         <f t="shared" si="0"/>
         <v>2.6778218719681646</v>
       </c>
-      <c r="N20" t="s">
-        <v>246</v>
-      </c>
-      <c r="O20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="N22" t="s">
+        <v>246</v>
+      </c>
+      <c r="O22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>87</v>
       </c>
-      <c r="B21">
+      <c r="B23">
         <v>768</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>1.5</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>211</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
         <v>234</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <v>1.75</v>
       </c>
-      <c r="G21">
+      <c r="G23">
         <v>5</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I23" s="2">
         <v>40</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J23" s="2">
         <v>1.2</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K23" s="2">
         <v>2.1</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L23" s="4">
         <v>0.25</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M23" s="9">
         <f t="shared" si="0"/>
         <v>1.9301277152911382</v>
       </c>
-      <c r="N21" t="s">
-        <v>246</v>
-      </c>
-      <c r="O21" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q21" t="s">
+      <c r="N23" t="s">
+        <v>246</v>
+      </c>
+      <c r="O23" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q23" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>174</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B24" s="1">
         <v>67</v>
       </c>
-      <c r="C22">
+      <c r="C24">
         <v>0.8</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>214</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E24" t="s">
         <v>236</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G22">
+      <c r="G24">
         <v>6</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H24" s="2">
         <v>1</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I24" s="2">
         <v>109</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J24" s="2">
         <v>1</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K24" s="2">
         <v>2.4</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L24" s="4">
         <v>1</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M24" s="9">
         <f t="shared" si="0"/>
         <v>0.97239910545442576</v>
       </c>
-      <c r="N22" t="s">
-        <v>246</v>
-      </c>
-      <c r="O22" t="s">
-        <v>246</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="N24" t="s">
+        <v>246</v>
+      </c>
+      <c r="O24" t="s">
+        <v>246</v>
+      </c>
+      <c r="P24" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>175</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B25" s="1">
         <v>413</v>
       </c>
-      <c r="C23">
+      <c r="C25">
         <v>1.3</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
         <v>218</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E25" t="s">
         <v>235</v>
       </c>
-      <c r="F23">
+      <c r="F25">
         <v>2.77</v>
       </c>
-      <c r="G23">
+      <c r="G25">
         <v>6</v>
       </c>
-      <c r="H23" s="2">
-        <v>2</v>
-      </c>
-      <c r="I23" s="2">
+      <c r="H25" s="2">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2">
         <v>45</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J25" s="2">
         <v>5</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K25" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L25" s="4">
         <v>0.7</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M25" s="9">
         <f t="shared" si="0"/>
         <v>2.869079885879664</v>
       </c>
-      <c r="N23" t="s">
-        <v>246</v>
-      </c>
-      <c r="O23" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="N25" t="s">
+        <v>246</v>
+      </c>
+      <c r="O25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>191</v>
       </c>
-      <c r="B24">
+      <c r="B26">
         <v>1392</v>
       </c>
-      <c r="C24">
+      <c r="C26">
         <v>3</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>211</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E26" t="s">
         <v>235</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <v>3.12</v>
       </c>
-      <c r="G24">
+      <c r="G26">
         <v>7</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H26" s="2">
         <v>2.5</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I26" s="2">
         <v>54</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J26" s="2">
         <v>5.8</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K26" s="2">
         <v>13.5</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L26" s="4">
         <v>0.5</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M26" s="9">
         <f t="shared" si="0"/>
         <v>5.4089802098235582</v>
       </c>
-      <c r="N24" t="s">
-        <v>246</v>
-      </c>
-      <c r="O24" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="N26" t="s">
+        <v>246</v>
+      </c>
+      <c r="O26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>171</v>
       </c>
-      <c r="B25">
+      <c r="B27">
         <v>11</v>
       </c>
-      <c r="C25">
+      <c r="C27">
         <v>0.2</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>211</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>235</v>
       </c>
-      <c r="F25">
+      <c r="F27">
         <v>2.63</v>
       </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I27" s="2">
         <v>40</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J27" s="2">
         <v>1.2</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K27" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L27" s="4">
         <v>1</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M27" s="9">
         <f t="shared" si="0"/>
         <v>0.57108224557249276</v>
       </c>
-      <c r="N25" t="s">
-        <v>246</v>
-      </c>
-      <c r="O25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="N27" t="s">
+        <v>246</v>
+      </c>
+      <c r="O27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B28" s="1">
         <v>19</v>
       </c>
-      <c r="C26">
+      <c r="C28">
         <v>0.2</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>211</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E28" t="s">
         <v>235</v>
       </c>
-      <c r="F26">
+      <c r="F28">
         <v>2.98</v>
       </c>
-      <c r="G26">
+      <c r="G28">
         <v>3</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H28" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I28" s="2">
         <v>40</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J28" s="2">
         <v>1.2</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K28" s="2">
         <v>10.4</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L28" s="4">
         <v>1</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M28" s="9">
         <f t="shared" si="0"/>
         <v>0.71890446779471484</v>
       </c>
-      <c r="N26" t="s">
-        <v>246</v>
-      </c>
-      <c r="O26" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="N28" t="s">
+        <v>246</v>
+      </c>
+      <c r="O28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B29" s="1">
         <v>37</v>
       </c>
-      <c r="C27">
+      <c r="C29">
         <v>0.4</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>211</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E29" t="s">
         <v>235</v>
       </c>
-      <c r="F27">
+      <c r="F29">
         <v>3.12</v>
       </c>
-      <c r="G27">
+      <c r="G29">
         <v>3</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H29" s="2">
         <v>1</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I29" s="2">
         <v>36</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J29" s="2">
         <v>3.2</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K29" s="2">
         <v>12.5</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L29" s="4">
         <v>1.4</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M29" s="9">
         <f t="shared" si="0"/>
         <v>1.1600578527617449</v>
       </c>
-      <c r="N27" t="s">
-        <v>246</v>
-      </c>
-      <c r="O27" t="s">
-        <v>246</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="N29" t="s">
+        <v>246</v>
+      </c>
+      <c r="O29" t="s">
+        <v>246</v>
+      </c>
+      <c r="P29" t="s">
         <v>290</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q29" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B30" s="1">
         <v>75</v>
       </c>
-      <c r="C28">
+      <c r="C30">
         <v>0.75</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>211</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E30" t="s">
         <v>235</v>
       </c>
-      <c r="F28">
+      <c r="F30">
         <v>3.33</v>
       </c>
-      <c r="G28">
+      <c r="G30">
         <v>4</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H30" s="2">
         <v>1</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I30" s="2">
         <v>40</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J30" s="2">
         <v>1.2</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K30" s="2">
         <v>11.4</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L30" s="4">
         <v>1</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M30" s="9">
         <f t="shared" si="0"/>
         <v>1.1393781921628598</v>
       </c>
-      <c r="N28" t="s">
-        <v>246</v>
-      </c>
-      <c r="O28" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="N30" t="s">
+        <v>246</v>
+      </c>
+      <c r="O30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>201</v>
       </c>
-      <c r="B29">
+      <c r="B31">
         <v>75</v>
       </c>
-      <c r="C29">
+      <c r="C31">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>211</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E31" t="s">
         <v>235</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>3.72</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>5</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H31" s="2">
         <v>1</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M31" s="9">
         <f t="shared" si="0"/>
         <v>1.666222222222222</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N31" t="s">
         <v>245</v>
       </c>
-      <c r="O29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="O31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B32" s="1">
         <v>75</v>
       </c>
-      <c r="C30">
+      <c r="C32">
         <v>0.75</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>211</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E32" t="s">
         <v>235</v>
       </c>
-      <c r="F30">
+      <c r="F32">
         <v>5.55</v>
       </c>
-      <c r="G30">
+      <c r="G32">
         <v>6</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H32" s="2">
         <v>1</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I32" s="2">
         <v>40</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J32" s="2">
         <v>1.2</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K32" s="2">
         <v>21.4</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L32" s="4">
         <v>1</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M32" s="9">
         <f t="shared" si="0"/>
         <v>1.6056004143850826</v>
       </c>
-      <c r="N30" t="s">
-        <v>246</v>
-      </c>
-      <c r="O30" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="N32" t="s">
+        <v>246</v>
+      </c>
+      <c r="O32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>103</v>
       </c>
-      <c r="B31">
+      <c r="B33">
         <v>92</v>
       </c>
-      <c r="C31">
+      <c r="C33">
         <v>1.2</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" t="s">
         <v>220</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E33" t="s">
         <v>234</v>
       </c>
-      <c r="F31">
+      <c r="F33">
         <v>1.6</v>
       </c>
-      <c r="G31">
+      <c r="G33">
         <v>0</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H33" s="2">
         <v>0.5</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I33" s="2">
         <v>80</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J33" s="2">
         <v>1</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K33" s="2">
         <v>1.5</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L33" s="4">
         <v>1.3</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M33" s="9">
         <f t="shared" si="0"/>
         <v>0.36268403630802609</v>
       </c>
-      <c r="N31" t="s">
-        <v>246</v>
-      </c>
-      <c r="O31" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="N33" t="s">
+        <v>246</v>
+      </c>
+      <c r="O33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>196</v>
       </c>
-      <c r="B32">
+      <c r="B34">
         <v>23</v>
       </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
         <v>211</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E34" t="s">
         <v>234</v>
       </c>
-      <c r="F32">
+      <c r="F34">
         <v>1.05</v>
       </c>
-      <c r="G32">
+      <c r="G34">
         <v>1</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H34" s="2">
         <v>0.5</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I34" s="2">
         <v>40</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J34" s="2">
         <v>1.2</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K34" s="2">
         <v>6.3</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L34" s="4">
         <v>0.25</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M34" s="9">
         <f t="shared" si="0"/>
         <v>0.81805332330258329</v>
       </c>
-      <c r="N32" t="s">
-        <v>246</v>
-      </c>
-      <c r="O32" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="N34" t="s">
+        <v>246</v>
+      </c>
+      <c r="O34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>194</v>
       </c>
-      <c r="B33">
+      <c r="B35">
         <v>98</v>
       </c>
-      <c r="C33">
+      <c r="C35">
         <v>1.5</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>211</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>234</v>
       </c>
-      <c r="F33">
+      <c r="F35">
         <v>1.4</v>
       </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35" s="2">
         <v>0.5</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I35" s="2">
         <v>40</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J35" s="2">
         <v>1.2</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K35" s="2">
         <v>6.3</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L35" s="4">
         <v>0.25</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M35" s="9">
         <f t="shared" si="0"/>
         <v>0.82946104862447179</v>
       </c>
-      <c r="N33" t="s">
-        <v>246</v>
-      </c>
-      <c r="O33" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="N35" t="s">
+        <v>246</v>
+      </c>
+      <c r="O35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>52</v>
       </c>
-      <c r="B34">
+      <c r="B36">
         <v>76</v>
       </c>
-      <c r="C34">
+      <c r="C36">
         <v>0.7</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>211</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E36" t="s">
         <v>234</v>
       </c>
-      <c r="F34">
+      <c r="F36">
         <v>1.93</v>
       </c>
-      <c r="G34">
+      <c r="G36">
         <v>3</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H36" s="2">
         <v>1.5</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I36" s="2">
         <v>40</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J36" s="2">
         <v>1.2</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K36" s="2">
         <v>6.3</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L36" s="4">
         <v>0.25</v>
       </c>
-      <c r="M34" s="9">
-        <f t="shared" ref="M34:M60" si="1">C34*B34/2250+(C34-1)/2.33+0+0+F34/5+G34/9+H34/3-I34/200+J34/5.8-K34/50-L34/1000</f>
+      <c r="M36" s="9">
+        <f t="shared" ref="M36:M62" si="1">C36*B36/2250+(C36-1)/2.33+0+0+F36/5+G36/9+H36/3-I36/200+J36/5.8-K36/50-L36/1000</f>
         <v>0.99486896469504882</v>
       </c>
-      <c r="N34" t="s">
-        <v>246</v>
-      </c>
-      <c r="O34" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="N36" t="s">
+        <v>246</v>
+      </c>
+      <c r="O36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>72</v>
       </c>
-      <c r="B35">
+      <c r="B37">
         <v>150</v>
       </c>
-      <c r="C35">
+      <c r="C37">
         <v>0.3</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D37" t="s">
         <v>221</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E37" t="s">
         <v>235</v>
       </c>
-      <c r="F35">
+      <c r="F37">
         <v>1.4</v>
       </c>
-      <c r="G35">
+      <c r="G37">
         <v>3</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H37" s="2">
         <v>1.5</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I37" s="2">
         <v>40</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J37" s="2">
         <v>1.2</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K37" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L37" s="4">
         <v>1</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M37" s="9">
         <f t="shared" si="1"/>
         <v>0.65480070050811501</v>
       </c>
-      <c r="N35" t="s">
-        <v>246</v>
-      </c>
-      <c r="O35" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="N37" t="s">
+        <v>246</v>
+      </c>
+      <c r="O37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>73</v>
       </c>
-      <c r="B36">
+      <c r="B38">
         <v>225</v>
       </c>
-      <c r="C36">
+      <c r="C38">
         <v>1.2</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>222</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E38" t="s">
         <v>235</v>
       </c>
-      <c r="F36">
+      <c r="F38">
         <v>1.4</v>
       </c>
-      <c r="G36">
+      <c r="G38">
         <v>3</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H38" s="2">
         <v>1.5</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I38" s="2">
         <v>40</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J38" s="2">
         <v>1.2</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K38" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L38" s="4">
         <v>0.25</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M38" s="9">
         <f t="shared" si="1"/>
         <v>1.1618167949287159</v>
       </c>
-      <c r="N36" t="s">
-        <v>246</v>
-      </c>
-      <c r="O36" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="N38" t="s">
+        <v>246</v>
+      </c>
+      <c r="O38" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>195</v>
       </c>
-      <c r="B37">
+      <c r="B39">
         <v>188</v>
       </c>
-      <c r="C37">
+      <c r="C39">
         <v>1.66</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>211</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E39" t="s">
         <v>234</v>
       </c>
-      <c r="F37">
+      <c r="F39">
         <v>2.1</v>
       </c>
-      <c r="G37">
+      <c r="G39">
         <v>3</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H39" s="2">
         <v>1</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I39" s="2">
         <v>40</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J39" s="2">
         <v>1.2</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K39" s="2">
         <v>6.5</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L39" s="4">
         <v>0.25</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M39" s="9">
         <f t="shared" si="1"/>
         <v>1.3852772431881337</v>
       </c>
-      <c r="N37" t="s">
-        <v>246</v>
-      </c>
-      <c r="O37" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="N39" t="s">
+        <v>246</v>
+      </c>
+      <c r="O39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>223</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B40" s="1">
         <v>300</v>
       </c>
-      <c r="C38">
+      <c r="C40">
         <v>1.3</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>225</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E40" t="s">
         <v>235</v>
       </c>
-      <c r="F38">
+      <c r="F40">
         <v>2.1</v>
       </c>
-      <c r="G38">
+      <c r="G40">
         <v>4</v>
       </c>
-      <c r="H38" s="2">
-        <v>2</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="H40" s="2">
+        <v>2</v>
+      </c>
+      <c r="I40" s="2">
         <v>40</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J40" s="2">
         <v>1.2</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K40" s="2">
         <v>8.6</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L40" s="4">
         <v>0.25</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M40" s="9">
         <f t="shared" si="1"/>
         <v>1.6678463609754492</v>
       </c>
-      <c r="N38" t="s">
-        <v>246</v>
-      </c>
-      <c r="O38" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="N40" t="s">
+        <v>246</v>
+      </c>
+      <c r="O40" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>193</v>
       </c>
-      <c r="B39">
+      <c r="B41">
         <v>263</v>
       </c>
-      <c r="C39">
+      <c r="C41">
         <v>1.84</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D41" t="s">
         <v>211</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E41" t="s">
         <v>234</v>
       </c>
-      <c r="F39">
+      <c r="F41">
         <v>2.4500000000000002</v>
       </c>
-      <c r="G39">
+      <c r="G41">
         <v>4</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H41" s="2">
         <v>1.5</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I41" s="2">
         <v>40</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J41" s="2">
         <v>1.2</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K41" s="2">
         <v>6.5</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L41" s="4">
         <v>0.25</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M41" s="9">
         <f t="shared" si="1"/>
         <v>1.8866815731833657</v>
       </c>
-      <c r="N39" t="s">
-        <v>246</v>
-      </c>
-      <c r="O39" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="N41" t="s">
+        <v>246</v>
+      </c>
+      <c r="O41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>243</v>
       </c>
-      <c r="C40">
+      <c r="C42">
         <v>1.9</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D42" t="s">
         <v>221</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M42" s="9">
         <f t="shared" si="1"/>
         <v>0.38626609442060084</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N42" t="s">
         <v>245</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O42" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>75</v>
       </c>
-      <c r="B41">
+      <c r="B43">
         <v>83</v>
       </c>
-      <c r="C41">
+      <c r="C43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D43" t="s">
         <v>211</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E43" t="s">
         <v>235</v>
       </c>
-      <c r="F41">
+      <c r="F43">
         <v>3.89</v>
       </c>
-      <c r="G41">
+      <c r="G43">
         <v>5</v>
       </c>
-      <c r="H41" s="2">
-        <v>2</v>
-      </c>
-      <c r="I41" s="2">
+      <c r="H43" s="2">
+        <v>2</v>
+      </c>
+      <c r="I43" s="2">
         <v>40</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J43" s="2">
         <v>1.2</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K43" s="2">
         <v>8.4</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L43" s="4">
         <v>1</v>
       </c>
-      <c r="M41" s="9">
+      <c r="M43" s="9">
         <f t="shared" si="1"/>
         <v>1.9216150066597606</v>
       </c>
-      <c r="N41" t="s">
-        <v>246</v>
-      </c>
-      <c r="O41" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="N43" t="s">
+        <v>246</v>
+      </c>
+      <c r="O43" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>76</v>
       </c>
-      <c r="B42">
+      <c r="B44">
         <v>225</v>
       </c>
-      <c r="C42">
+      <c r="C44">
         <v>0.8</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>226</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E44" t="s">
         <v>235</v>
       </c>
-      <c r="F42">
+      <c r="F44">
         <v>2.4500000000000002</v>
       </c>
-      <c r="G42">
+      <c r="G44">
         <v>5</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H44" s="2">
         <v>1.5</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I44" s="2">
         <v>40</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J44" s="2">
         <v>1.2</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K44" s="2">
         <v>7.9</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L44" s="4">
         <v>0.25</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M44" s="9">
         <f t="shared" si="1"/>
         <v>1.388365197408449</v>
       </c>
-      <c r="N42" t="s">
-        <v>246</v>
-      </c>
-      <c r="O42" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="N44" t="s">
+        <v>246</v>
+      </c>
+      <c r="O44" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>77</v>
       </c>
-      <c r="B43">
+      <c r="B45">
         <v>375</v>
       </c>
-      <c r="C43">
+      <c r="C45">
         <v>1.4</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D45" t="s">
         <v>227</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E45" t="s">
         <v>235</v>
       </c>
-      <c r="F43">
+      <c r="F45">
         <v>2.4700000000000002</v>
       </c>
-      <c r="G43">
+      <c r="G45">
         <v>6</v>
       </c>
-      <c r="H43" s="2">
-        <v>2</v>
-      </c>
-      <c r="I43" s="2">
+      <c r="H45" s="2">
+        <v>2</v>
+      </c>
+      <c r="I45" s="2">
         <v>40</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J45" s="2">
         <v>1.2</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K45" s="2">
         <v>9</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L45" s="4">
         <v>0.25</v>
       </c>
-      <c r="M43" s="9">
+      <c r="M45" s="9">
         <f t="shared" si="1"/>
         <v>2.0589870381332935</v>
       </c>
-      <c r="N43" t="s">
-        <v>246</v>
-      </c>
-      <c r="O43" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="N45" t="s">
+        <v>246</v>
+      </c>
+      <c r="O45" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>181</v>
       </c>
-      <c r="B44">
+      <c r="B46">
         <v>675</v>
       </c>
-      <c r="C44">
+      <c r="C46">
         <v>0.81</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D46" t="s">
         <v>228</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E46" t="s">
         <v>235</v>
       </c>
-      <c r="F44">
+      <c r="F46">
         <v>2.8</v>
       </c>
-      <c r="G44">
+      <c r="G46">
         <v>7</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H46" s="2">
         <v>1.5</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I46" s="2">
         <v>40</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J46" s="2">
         <v>1.2</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K46" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L46" s="4">
         <v>0.25</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M46" s="9">
         <f t="shared" si="1"/>
         <v>1.8398792651242333</v>
       </c>
-      <c r="N44" t="s">
-        <v>246</v>
-      </c>
-      <c r="O44" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="N46" t="s">
+        <v>246</v>
+      </c>
+      <c r="O46" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>79</v>
       </c>
-      <c r="B45">
+      <c r="B47">
         <v>750</v>
       </c>
-      <c r="C45">
+      <c r="C47">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D47" t="s">
         <v>211</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E47" t="s">
         <v>235</v>
       </c>
-      <c r="F45">
+      <c r="F47">
         <v>1.75</v>
       </c>
-      <c r="G45">
+      <c r="G47">
         <v>7</v>
       </c>
-      <c r="H45" s="2">
-        <v>2</v>
-      </c>
-      <c r="I45" s="2">
+      <c r="H47" s="2">
+        <v>2</v>
+      </c>
+      <c r="I47" s="2">
         <v>40</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J47" s="2">
         <v>1.2</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K47" s="2">
         <v>8.6</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L47" s="4">
         <v>0.25</v>
       </c>
-      <c r="M45" s="9">
+      <c r="M47" s="9">
         <f t="shared" si="1"/>
         <v>2.038676117770871</v>
       </c>
-      <c r="N45" t="s">
-        <v>246</v>
-      </c>
-      <c r="O45" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="N47" t="s">
+        <v>246</v>
+      </c>
+      <c r="O47" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>83</v>
       </c>
-      <c r="B46">
+      <c r="B48">
         <v>455</v>
       </c>
-      <c r="C46">
+      <c r="C48">
         <v>2.1</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D48" t="s">
         <v>219</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E48" t="s">
         <v>235</v>
       </c>
-      <c r="F46">
+      <c r="F48">
         <v>2.8</v>
       </c>
-      <c r="G46">
+      <c r="G48">
         <v>7</v>
       </c>
-      <c r="H46" s="2">
-        <v>2</v>
-      </c>
-      <c r="I46" s="2">
+      <c r="H48" s="2">
+        <v>2</v>
+      </c>
+      <c r="I48" s="2">
         <v>64</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J48" s="2">
         <v>3.6</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K48" s="2">
         <v>1.25</v>
       </c>
-      <c r="L46" s="4">
-        <v>2</v>
-      </c>
-      <c r="M46" s="9">
+      <c r="L48" s="4">
+        <v>2</v>
+      </c>
+      <c r="M48" s="9">
         <f t="shared" si="1"/>
         <v>3.1749037705753707</v>
       </c>
-      <c r="N46" t="s">
+      <c r="N48" t="s">
         <v>245</v>
       </c>
-      <c r="O46" t="s">
+      <c r="O48" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>197</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B49" s="1">
         <v>188</v>
       </c>
-      <c r="C47">
+      <c r="C49">
         <v>0.5</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D49" t="s">
         <v>211</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E49" t="s">
         <v>235</v>
       </c>
-      <c r="F47">
+      <c r="F49">
         <v>3.68</v>
       </c>
-      <c r="G47">
+      <c r="G49">
         <v>7</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H49" s="2">
         <v>2.5</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I49" s="2">
         <v>40</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J49" s="2">
         <v>1.2</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K49" s="2">
         <v>6.3</v>
       </c>
-      <c r="L47" s="4">
+      <c r="L49" s="4">
         <v>0.25</v>
       </c>
-      <c r="M47" s="9">
+      <c r="M49" s="9">
         <f t="shared" si="1"/>
         <v>2.0549431659349158</v>
       </c>
-      <c r="N47" t="s">
-        <v>246</v>
-      </c>
-      <c r="O47" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="N49" t="s">
+        <v>246</v>
+      </c>
+      <c r="O49" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>202</v>
       </c>
-      <c r="B48">
+      <c r="B50">
         <v>450</v>
       </c>
-      <c r="C48">
+      <c r="C50">
         <v>1.6</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D50" t="s">
         <v>247</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E50" t="s">
         <v>235</v>
       </c>
-      <c r="F48">
+      <c r="F50">
         <v>2.8</v>
       </c>
-      <c r="G48">
+      <c r="G50">
         <v>8</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H50" s="2">
         <v>1</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M50" s="9">
         <f t="shared" si="1"/>
         <v>2.3597329518359564</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N50" t="s">
         <v>245</v>
       </c>
-      <c r="O48" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="O50" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>182</v>
       </c>
-      <c r="B49">
+      <c r="B51">
         <v>675</v>
       </c>
-      <c r="C49">
+      <c r="C51">
         <v>1</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D51" t="s">
         <v>229</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E51" t="s">
         <v>235</v>
       </c>
-      <c r="F49">
+      <c r="F51">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G49">
+      <c r="G51">
         <v>8</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H51" s="2">
         <v>1.5</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I51" s="2">
         <v>40</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J51" s="2">
         <v>1.2</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K51" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L51" s="4">
         <v>0.25</v>
       </c>
-      <c r="M49" s="9">
+      <c r="M51" s="9">
         <f t="shared" si="1"/>
         <v>2.4995354406130263</v>
       </c>
-      <c r="N49" t="s">
-        <v>246</v>
-      </c>
-      <c r="O49" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="N51" t="s">
+        <v>246</v>
+      </c>
+      <c r="O51" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>80</v>
       </c>
-      <c r="B50">
+      <c r="B52">
         <v>1125</v>
       </c>
-      <c r="C50">
+      <c r="C52">
         <v>0.7</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
         <v>230</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E52" t="s">
         <v>235</v>
       </c>
-      <c r="F50">
+      <c r="F52">
         <v>3.5</v>
       </c>
-      <c r="G50">
+      <c r="G52">
         <v>8</v>
       </c>
-      <c r="H50" s="2">
-        <v>2</v>
-      </c>
-      <c r="I50" s="2">
+      <c r="H52" s="2">
+        <v>2</v>
+      </c>
+      <c r="I52" s="2">
         <v>40</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J52" s="2">
         <v>1.2</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K52" s="2">
         <v>9.6</v>
       </c>
-      <c r="L50" s="4">
+      <c r="L52" s="4">
         <v>0.25</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M52" s="9">
         <f t="shared" si="1"/>
         <v>2.291446742472826</v>
       </c>
-      <c r="N50" t="s">
-        <v>246</v>
-      </c>
-      <c r="O50" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="N52" t="s">
+        <v>246</v>
+      </c>
+      <c r="O52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>82</v>
       </c>
-      <c r="B51">
+      <c r="B53">
         <v>600</v>
       </c>
-      <c r="C51">
+      <c r="C53">
         <v>1.75</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D53" t="s">
         <v>218</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E53" t="s">
         <v>235</v>
       </c>
-      <c r="F51">
+      <c r="F53">
         <v>3.85</v>
       </c>
-      <c r="G51">
+      <c r="G53">
         <v>8</v>
       </c>
-      <c r="H51" s="2">
-        <v>2</v>
-      </c>
-      <c r="I51" s="2">
+      <c r="H53" s="2">
+        <v>2</v>
+      </c>
+      <c r="I53" s="2">
         <v>45</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J53" s="2">
         <v>5.3</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K53" s="2">
         <v>3</v>
       </c>
-      <c r="L51" s="4">
-        <v>2</v>
-      </c>
-      <c r="M51" s="9">
+      <c r="L53" s="4">
+        <v>2</v>
+      </c>
+      <c r="M53" s="9">
         <f t="shared" si="1"/>
         <v>3.7409037376876655</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N53" t="s">
         <v>245</v>
       </c>
-      <c r="O51" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="O53" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>200</v>
       </c>
-      <c r="B52">
+      <c r="B54">
         <v>617</v>
       </c>
-      <c r="C52">
+      <c r="C54">
         <v>1.6</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D54" t="s">
         <v>218</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E54" t="s">
         <v>235</v>
       </c>
-      <c r="F52">
+      <c r="F54">
         <v>3.85</v>
       </c>
-      <c r="G52">
+      <c r="G54">
         <v>9</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H54" s="2">
         <v>1.5</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M54" s="9">
         <f t="shared" si="1"/>
         <v>2.9662662851692896</v>
       </c>
-      <c r="N52" t="s">
+      <c r="N54" t="s">
         <v>245</v>
       </c>
-      <c r="O52" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="O54" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B55" s="1">
         <v>750</v>
       </c>
-      <c r="C53">
+      <c r="C55">
         <v>3</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" t="s">
         <v>211</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E55" t="s">
         <v>235</v>
       </c>
-      <c r="F53">
+      <c r="F55">
         <v>2.98</v>
       </c>
-      <c r="G53">
+      <c r="G55">
         <v>8</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H55" s="2">
         <v>1</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I55" s="2">
         <v>40</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J55" s="2">
         <v>1.2</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K55" s="2">
         <v>6.5</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L55" s="4">
         <v>0.25</v>
       </c>
-      <c r="M53" s="9">
+      <c r="M55" s="9">
         <f t="shared" si="1"/>
         <v>3.5532378726588068</v>
       </c>
-      <c r="N53" t="s">
-        <v>246</v>
-      </c>
-      <c r="O53" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="N55" t="s">
+        <v>246</v>
+      </c>
+      <c r="O55" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>81</v>
       </c>
-      <c r="B54">
+      <c r="B56">
         <v>113</v>
       </c>
-      <c r="C54">
+      <c r="C56">
         <v>0.5</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D56" t="s">
         <v>231</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E56" t="s">
         <v>235</v>
       </c>
-      <c r="F54">
+      <c r="F56">
         <v>3.26</v>
       </c>
-      <c r="G54">
+      <c r="G56">
         <v>8</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H56" s="2">
         <v>3</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I56" s="2">
         <v>40</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J56" s="2">
         <v>1.2</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K56" s="2">
         <v>9.6</v>
       </c>
-      <c r="L54" s="4">
+      <c r="L56" s="4">
         <v>0.25</v>
       </c>
-      <c r="M54" s="9">
+      <c r="M56" s="9">
         <f t="shared" si="1"/>
         <v>2.166054277046026</v>
       </c>
-      <c r="N54" t="s">
-        <v>246</v>
-      </c>
-      <c r="O54" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="N56" t="s">
+        <v>246</v>
+      </c>
+      <c r="O56" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>204</v>
       </c>
-      <c r="B55">
+      <c r="B57">
         <v>742</v>
       </c>
-      <c r="C55">
+      <c r="C57">
         <v>3</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D57" t="s">
         <v>217</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E57" t="s">
         <v>235</v>
       </c>
-      <c r="F55">
+      <c r="F57">
         <v>3.5</v>
       </c>
-      <c r="G55">
+      <c r="G57">
         <v>9</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H57" s="2">
         <v>3</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I57" s="2">
         <v>63</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J57" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K57" s="2">
         <v>1.5</v>
       </c>
-      <c r="L55" s="4">
+      <c r="L57" s="4">
         <v>0.5</v>
       </c>
-      <c r="M55" s="9">
+      <c r="M57" s="9">
         <f t="shared" si="1"/>
         <v>4.9953058803216415</v>
       </c>
-      <c r="N55" t="s">
-        <v>246</v>
-      </c>
-      <c r="O55" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="N57" t="s">
+        <v>246</v>
+      </c>
+      <c r="O57" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>183</v>
       </c>
-      <c r="B56">
+      <c r="B58">
         <v>650</v>
       </c>
-      <c r="C56">
+      <c r="C58">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D58" t="s">
         <v>211</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E58" t="s">
         <v>235</v>
       </c>
-      <c r="F56">
+      <c r="F58">
         <v>3.15</v>
       </c>
-      <c r="G56">
+      <c r="G58">
         <v>9</v>
       </c>
-      <c r="H56" s="2">
-        <v>2</v>
-      </c>
-      <c r="I56" s="2">
+      <c r="H58" s="2">
+        <v>2</v>
+      </c>
+      <c r="I58" s="2">
         <v>50</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J58" s="2">
         <v>5</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K58" s="2">
         <v>7.3</v>
       </c>
-      <c r="L56" s="4">
+      <c r="L58" s="4">
         <v>1</v>
       </c>
-      <c r="M56" s="9">
+      <c r="M58" s="9">
         <f t="shared" si="1"/>
         <v>3.9841199907914429</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N58" t="s">
         <v>245</v>
       </c>
-      <c r="O56" t="s">
+      <c r="O58" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>61</v>
       </c>
-      <c r="B57">
+      <c r="B59">
         <v>75</v>
       </c>
-      <c r="C57">
+      <c r="C59">
         <v>0.7</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D59" t="s">
         <v>211</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E59" t="s">
         <v>235</v>
       </c>
-      <c r="F57">
+      <c r="F59">
         <v>1.05</v>
       </c>
-      <c r="G57">
+      <c r="G59">
         <v>0</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H59" s="2">
         <v>0.5</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I59" s="2">
         <v>40</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J59" s="2">
         <v>1.2</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K59" s="2">
         <v>7.2</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L59" s="4">
         <v>0.25</v>
       </c>
-      <c r="M57" s="9">
+      <c r="M59" s="9">
         <f t="shared" si="1"/>
         <v>0.13389118691727095</v>
       </c>
-      <c r="N57" t="s">
-        <v>246</v>
-      </c>
-      <c r="O57" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="N59" t="s">
+        <v>246</v>
+      </c>
+      <c r="O59" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>184</v>
       </c>
-      <c r="B58">
+      <c r="B60">
         <v>188</v>
       </c>
-      <c r="C58">
+      <c r="C60">
         <v>0.8</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D60" t="s">
         <v>217</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E60" t="s">
         <v>235</v>
       </c>
-      <c r="F58">
+      <c r="F60">
         <v>1.58</v>
       </c>
-      <c r="G58">
+      <c r="G60">
         <v>1</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H60" s="2">
         <v>1</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I60" s="2">
         <v>40</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J60" s="2">
         <v>1.2</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K60" s="2">
         <v>7.6</v>
       </c>
-      <c r="L58" s="4">
+      <c r="L60" s="4">
         <v>0.25</v>
       </c>
-      <c r="M58" s="9">
+      <c r="M60" s="9">
         <f t="shared" si="1"/>
         <v>0.5960985307417821</v>
       </c>
-      <c r="N58" t="s">
-        <v>246</v>
-      </c>
-      <c r="O58" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="N60" t="s">
+        <v>246</v>
+      </c>
+      <c r="O60" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>224</v>
       </c>
-      <c r="B59">
+      <c r="B61">
         <v>225</v>
       </c>
-      <c r="C59">
+      <c r="C61">
         <v>0.9</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D61" t="s">
         <v>218</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E61" t="s">
         <v>235</v>
       </c>
-      <c r="F59">
+      <c r="F61">
         <v>1.93</v>
       </c>
-      <c r="G59">
-        <v>2</v>
-      </c>
-      <c r="H59" s="2">
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61" s="2">
         <v>1</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I61" s="2">
         <v>40</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J61" s="2">
         <v>1.2</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K61" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="L59" s="4">
+      <c r="L61" s="4">
         <v>0.25</v>
       </c>
-      <c r="M59" s="9">
+      <c r="M61" s="9">
         <f t="shared" si="1"/>
         <v>0.8292836523440712</v>
       </c>
-      <c r="N59" t="s">
-        <v>246</v>
-      </c>
-      <c r="O59" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="N61" t="s">
+        <v>246</v>
+      </c>
+      <c r="O61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>64</v>
       </c>
-      <c r="B60">
+      <c r="B62">
         <v>248</v>
       </c>
-      <c r="C60">
+      <c r="C62">
         <v>1</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D62" t="s">
         <v>211</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E62" t="s">
         <v>235</v>
       </c>
-      <c r="F60">
+      <c r="F62">
         <v>2.4500000000000002</v>
       </c>
-      <c r="G60">
+      <c r="G62">
         <v>3</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H62" s="2">
         <v>1.5</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I62" s="2">
         <v>40</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J62" s="2">
         <v>1.2</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K62" s="2">
         <v>7.9</v>
       </c>
-      <c r="L60" s="4">
+      <c r="L62" s="4">
         <v>0.25</v>
       </c>
-      <c r="M60" s="9">
+      <c r="M62" s="9">
         <f t="shared" si="1"/>
         <v>1.2822021072796934</v>
       </c>
-      <c r="N60" t="s">
-        <v>246</v>
-      </c>
-      <c r="O60" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+      <c r="N62" t="s">
+        <v>246</v>
+      </c>
+      <c r="O62" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D63" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E63" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="11" t="s">
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="O61" s="11" t="s">
+      <c r="O63" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="P61" s="11" t="s">
+      <c r="P63" s="11" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>65</v>
       </c>
-      <c r="B62">
+      <c r="B64">
         <v>26</v>
       </c>
-      <c r="C62">
+      <c r="C64">
         <v>0.35</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D64" t="s">
         <v>211</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E64" t="s">
         <v>235</v>
       </c>
-      <c r="F62">
+      <c r="F64">
         <v>3.15</v>
       </c>
-      <c r="G62">
+      <c r="G64">
         <v>4</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H64" s="2">
         <v>1</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I64" s="2">
         <v>40</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J64" s="2">
         <v>1.2</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K64" s="2">
         <v>9</v>
       </c>
-      <c r="L62" s="4">
+      <c r="L64" s="4">
         <v>1</v>
       </c>
-      <c r="M62" s="9">
-        <f t="shared" ref="M62:M89" si="2">C62*B62/2250+(C62-1)/2.33+0+0+F62/5+G62/9+H62/3-I62/200+J62/5.8-K62/50-L62/1000</f>
+      <c r="M64" s="9">
+        <f t="shared" ref="M64:M91" si="2">C64*B64/2250+(C64-1)/2.33+0+0+F64/5+G64/9+H64/3-I64/200+J64/5.8-K64/50-L64/1000</f>
         <v>0.95874881686481517</v>
       </c>
-      <c r="N62" t="s">
-        <v>246</v>
-      </c>
-      <c r="O62" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="N64" t="s">
+        <v>246</v>
+      </c>
+      <c r="O64" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>66</v>
       </c>
-      <c r="B63">
+      <c r="B65">
         <v>113</v>
       </c>
-      <c r="C63">
+      <c r="C65">
         <v>0.4</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D65" t="s">
         <v>211</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E65" t="s">
         <v>235</v>
       </c>
-      <c r="F63">
+      <c r="F65">
         <v>2.8</v>
       </c>
-      <c r="G63">
+      <c r="G65">
         <v>5</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H65" s="2">
         <v>1</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I65" s="2">
         <v>40</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J65" s="2">
         <v>1.2</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K65" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="L63" s="4">
+      <c r="L65" s="4">
         <v>0.25</v>
       </c>
-      <c r="M63" s="9">
+      <c r="M65" s="9">
         <f t="shared" si="2"/>
         <v>1.0341135998881816</v>
       </c>
-      <c r="N63" t="s">
-        <v>246</v>
-      </c>
-      <c r="O63" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="N65" t="s">
+        <v>246</v>
+      </c>
+      <c r="O65" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>67</v>
       </c>
-      <c r="B64">
+      <c r="B66">
         <v>525</v>
       </c>
-      <c r="C64">
+      <c r="C66">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D66" t="s">
         <v>217</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E66" t="s">
         <v>235</v>
       </c>
-      <c r="F64">
+      <c r="F66">
         <v>2.52</v>
       </c>
-      <c r="G64">
+      <c r="G66">
         <v>6</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H66" s="2">
         <v>1.5</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I66" s="2">
         <v>10</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J66" s="6">
         <v>8</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K66" s="2">
         <v>7</v>
       </c>
-      <c r="L64" s="8">
+      <c r="L66" s="8">
         <v>8</v>
       </c>
-      <c r="M64" s="9">
+      <c r="M66" s="9">
         <f t="shared" si="2"/>
         <v>3.1515621330965415</v>
       </c>
-      <c r="N64" t="s">
+      <c r="N66" t="s">
         <v>245</v>
       </c>
-      <c r="O64" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="O66" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>188</v>
       </c>
-      <c r="B65">
+      <c r="B67">
         <v>450</v>
       </c>
-      <c r="C65">
+      <c r="C67">
         <v>1.2</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D67" t="s">
         <v>211</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E67" t="s">
         <v>235</v>
       </c>
-      <c r="F65">
+      <c r="F67">
         <v>3.08</v>
       </c>
-      <c r="G65">
+      <c r="G67">
         <v>6</v>
       </c>
-      <c r="H65" s="2">
-        <v>2</v>
-      </c>
-      <c r="I65" s="2">
+      <c r="H67" s="2">
+        <v>2</v>
+      </c>
+      <c r="I67" s="2">
         <v>40</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J67" s="2">
         <v>1.2</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K67" s="2">
         <v>13.4</v>
       </c>
-      <c r="L65" s="4">
+      <c r="L67" s="4">
         <v>0.25</v>
       </c>
-      <c r="M65" s="9">
+      <c r="M67" s="9">
         <f t="shared" si="2"/>
         <v>2.0138167949287156</v>
       </c>
-      <c r="N65" t="s">
-        <v>246</v>
-      </c>
-      <c r="O65" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="N67" t="s">
+        <v>246</v>
+      </c>
+      <c r="O67" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>187</v>
       </c>
-      <c r="B66">
+      <c r="B68">
         <v>608</v>
       </c>
-      <c r="C66">
+      <c r="C68">
         <v>1.3</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D68" t="s">
         <v>211</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E68" t="s">
         <v>235</v>
       </c>
-      <c r="F66">
+      <c r="F68">
         <v>2.8</v>
       </c>
-      <c r="G66">
+      <c r="G68">
         <v>7</v>
       </c>
-      <c r="H66" s="2">
-        <v>2</v>
-      </c>
-      <c r="I66" s="2">
+      <c r="H68" s="2">
+        <v>2</v>
+      </c>
+      <c r="I68" s="2">
         <v>40</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J68" s="2">
         <v>1.2</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K68" s="2">
         <v>8.9</v>
       </c>
-      <c r="L66" s="4">
+      <c r="L68" s="4">
         <v>0.25</v>
       </c>
-      <c r="M66" s="9">
+      <c r="M68" s="9">
         <f t="shared" si="2"/>
         <v>2.313135249864338</v>
       </c>
-      <c r="N66" t="s">
-        <v>246</v>
-      </c>
-      <c r="O66" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="N68" t="s">
+        <v>246</v>
+      </c>
+      <c r="O68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B67">
+      <c r="B69">
         <v>758</v>
       </c>
-      <c r="C67">
+      <c r="C69">
         <v>1.5</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D69" t="s">
         <v>211</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E69" t="s">
         <v>235</v>
       </c>
-      <c r="F67">
+      <c r="F69">
         <v>3.15</v>
       </c>
-      <c r="G67">
+      <c r="G69">
         <v>8</v>
       </c>
-      <c r="H67" s="2">
-        <v>2</v>
-      </c>
-      <c r="I67" s="2">
+      <c r="H69" s="2">
+        <v>2</v>
+      </c>
+      <c r="I69" s="2">
         <v>40</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J69" s="2">
         <v>1.2</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K69" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="L67" s="4">
+      <c r="L69" s="4">
         <v>0.25</v>
       </c>
-      <c r="M67" s="9">
+      <c r="M69" s="9">
         <f t="shared" si="2"/>
         <v>2.7281277152911381</v>
       </c>
-      <c r="N67" t="s">
-        <v>246</v>
-      </c>
-      <c r="O67" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="N69" t="s">
+        <v>246</v>
+      </c>
+      <c r="O69" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>185</v>
       </c>
-      <c r="B68">
+      <c r="B70">
         <v>450</v>
       </c>
-      <c r="C68">
+      <c r="C70">
         <v>0.7</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D70" t="s">
         <v>211</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E70" t="s">
         <v>235</v>
       </c>
-      <c r="F68">
+      <c r="F70">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G68">
+      <c r="G70">
         <v>8</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H70" s="2">
         <v>1.5</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I70" s="2">
         <v>40</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J70" s="2">
         <v>1.2</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K70" s="2">
         <v>9.5</v>
       </c>
-      <c r="L68" s="4">
+      <c r="L70" s="4">
         <v>0.25</v>
       </c>
-      <c r="M68" s="9">
+      <c r="M70" s="9">
         <f t="shared" si="2"/>
         <v>2.19678007580616</v>
       </c>
-      <c r="N68" t="s">
-        <v>246</v>
-      </c>
-      <c r="O68" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="N70" t="s">
+        <v>246</v>
+      </c>
+      <c r="O70" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="B69">
+      <c r="B71">
         <v>1163</v>
       </c>
-      <c r="C69">
+      <c r="C71">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D71" t="s">
         <v>218</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E71" t="s">
         <v>235</v>
       </c>
-      <c r="F69">
+      <c r="F71">
         <v>3.5</v>
       </c>
-      <c r="G69">
+      <c r="G71">
         <v>9</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H71" s="2">
         <v>2.5</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I71" s="2">
         <v>40</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J71" s="2">
         <v>1.2</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K71" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="L69" s="4">
+      <c r="L71" s="4">
         <v>0.25</v>
       </c>
-      <c r="M69" s="9">
+      <c r="M71" s="9">
         <f t="shared" si="2"/>
         <v>4.1027642436650051</v>
       </c>
-      <c r="N69" t="s">
-        <v>246</v>
-      </c>
-      <c r="O69" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="N71" t="s">
+        <v>246</v>
+      </c>
+      <c r="O71" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="B70">
+      <c r="B72">
         <v>1313</v>
       </c>
-      <c r="C70">
+      <c r="C72">
         <v>2.5</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D72" t="s">
         <v>211</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E72" t="s">
         <v>235</v>
       </c>
-      <c r="F70">
+      <c r="F72">
         <v>4.2</v>
       </c>
-      <c r="G70">
+      <c r="G72">
         <v>9</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H72" s="2">
         <v>2.5</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I72" s="2">
         <v>40</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J72" s="2">
         <v>1.2</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K72" s="2">
         <v>11.2</v>
       </c>
-      <c r="L70" s="4">
+      <c r="L72" s="4">
         <v>0.25</v>
       </c>
-      <c r="M70" s="9">
+      <c r="M72" s="9">
         <f t="shared" si="2"/>
         <v>4.5586455979806937</v>
       </c>
-      <c r="N70" t="s">
-        <v>246</v>
-      </c>
-      <c r="O70" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="N72" t="s">
+        <v>246</v>
+      </c>
+      <c r="O72" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>186</v>
       </c>
-      <c r="B71">
+      <c r="B73">
         <v>1500</v>
       </c>
-      <c r="C71">
+      <c r="C73">
         <v>3.33</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D73" t="s">
         <v>211</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E73" t="s">
         <v>235</v>
       </c>
-      <c r="F71">
+      <c r="F73">
         <v>5.25</v>
       </c>
-      <c r="G71">
+      <c r="G73">
         <v>9</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H73" s="2">
         <v>3</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I73" s="2">
         <v>40</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J73" s="2">
         <v>1.2</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K73" s="2">
         <v>25.3</v>
       </c>
-      <c r="L71" s="4">
+      <c r="L73" s="4">
         <v>0.25</v>
       </c>
-      <c r="M71" s="9">
+      <c r="M73" s="9">
         <f t="shared" si="2"/>
         <v>5.7706465517241377</v>
       </c>
-      <c r="N71" t="s">
-        <v>246</v>
-      </c>
-      <c r="O71" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="N73" t="s">
+        <v>246</v>
+      </c>
+      <c r="O73" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>210</v>
       </c>
-      <c r="B72">
+      <c r="B74">
         <v>86</v>
       </c>
-      <c r="C72">
+      <c r="C74">
         <v>1.7</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D74" t="s">
         <v>220</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E74" t="s">
         <v>234</v>
       </c>
-      <c r="F72">
+      <c r="F74">
         <v>1.8</v>
       </c>
-      <c r="G72">
-        <v>2</v>
-      </c>
-      <c r="H72" s="2">
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74" s="2">
         <v>0</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I74" s="2">
         <v>90</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J74" s="2">
         <v>1</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K74" s="2">
         <v>0.32</v>
       </c>
-      <c r="L72" s="4">
+      <c r="L74" s="4">
         <v>0.47</v>
       </c>
-      <c r="M72" s="9">
+      <c r="M74" s="9">
         <f t="shared" si="2"/>
         <v>0.66317297765280458</v>
       </c>
-      <c r="N72" t="s">
+      <c r="N74" t="s">
         <v>245</v>
       </c>
-      <c r="O72" t="s">
+      <c r="O74" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>124</v>
       </c>
-      <c r="B73">
+      <c r="B75">
         <v>98</v>
       </c>
-      <c r="C73">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
         <v>232</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E75" t="s">
         <v>235</v>
       </c>
-      <c r="F73">
+      <c r="F75">
         <v>4.2</v>
       </c>
-      <c r="G73">
+      <c r="G75">
         <v>5</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H75" s="2">
         <v>0.5</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I75" s="2">
         <v>30</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J75" s="2">
         <v>1</v>
       </c>
-      <c r="M73" s="9">
+      <c r="M75" s="9">
         <f t="shared" si="2"/>
         <v>2.1009316757930052</v>
       </c>
-      <c r="N73" t="s">
+      <c r="N75" t="s">
         <v>245</v>
       </c>
-      <c r="O73" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="O75" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>125</v>
       </c>
-      <c r="B74">
+      <c r="B76">
         <v>750</v>
       </c>
-      <c r="C74">
+      <c r="C76">
         <v>1.3</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D76" t="s">
         <v>211</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E76" t="s">
         <v>235</v>
       </c>
-      <c r="F74">
+      <c r="F76">
         <v>2.8</v>
       </c>
-      <c r="G74">
+      <c r="G76">
         <v>5</v>
       </c>
-      <c r="H74" s="2">
-        <v>2</v>
-      </c>
-      <c r="I74" s="2">
+      <c r="H76" s="2">
+        <v>2</v>
+      </c>
+      <c r="I76" s="2">
         <v>40</v>
       </c>
-      <c r="J74" s="2">
+      <c r="J76" s="2">
         <v>1.2</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K76" s="2">
         <v>6.3</v>
       </c>
-      <c r="L74" s="4">
+      <c r="L76" s="4">
         <v>0.25</v>
       </c>
-      <c r="M74" s="9">
+      <c r="M76" s="9">
         <f t="shared" si="2"/>
         <v>2.2249574720865604</v>
       </c>
-      <c r="N74" t="s">
-        <v>246</v>
-      </c>
-      <c r="O74" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="N76" t="s">
+        <v>246</v>
+      </c>
+      <c r="O76" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>190</v>
       </c>
-      <c r="B75">
+      <c r="B77">
         <v>1350</v>
       </c>
-      <c r="C75">
+      <c r="C77">
         <v>2.75</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D77" t="s">
         <v>211</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E77" t="s">
         <v>235</v>
       </c>
-      <c r="F75">
+      <c r="F77">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G75">
+      <c r="G77">
         <v>6</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H77" s="2">
         <v>2.5</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I77" s="2">
         <v>40</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J77" s="2">
         <v>1.2</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K77" s="2">
         <v>6.5</v>
       </c>
-      <c r="L75" s="4">
+      <c r="L77" s="4">
         <v>0.25</v>
       </c>
-      <c r="M75" s="9">
+      <c r="M77" s="9">
         <f t="shared" si="2"/>
         <v>4.6977195130975273</v>
       </c>
-      <c r="N75" t="s">
-        <v>246</v>
-      </c>
-      <c r="O75" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="N77" t="s">
+        <v>246</v>
+      </c>
+      <c r="O77" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>53</v>
       </c>
-      <c r="B76">
+      <c r="B78">
         <v>1392</v>
       </c>
-      <c r="C76">
+      <c r="C78">
         <v>0.7</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D78" t="s">
         <v>219</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E78" t="s">
         <v>235</v>
       </c>
-      <c r="F76">
+      <c r="F78">
         <v>1.75</v>
       </c>
-      <c r="G76">
-        <v>2</v>
-      </c>
-      <c r="H76" s="2">
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78" s="2">
         <v>1.5</v>
       </c>
-      <c r="I76" s="2">
+      <c r="I78" s="2">
         <v>110</v>
       </c>
-      <c r="J76" s="2">
+      <c r="J78" s="2">
         <v>1</v>
       </c>
-      <c r="K76" s="2">
+      <c r="K78" s="2">
         <v>1.5</v>
       </c>
-      <c r="L76" s="4">
+      <c r="L78" s="4">
         <v>0.5</v>
       </c>
-      <c r="M76" s="9">
+      <c r="M78" s="9">
         <f t="shared" si="2"/>
         <v>0.96844731718547028</v>
       </c>
-      <c r="N76" t="s">
+      <c r="N78" t="s">
         <v>245</v>
       </c>
-      <c r="O76" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="O78" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>54</v>
       </c>
-      <c r="B77">
+      <c r="B79">
         <v>1125</v>
       </c>
-      <c r="C77">
+      <c r="C79">
         <v>1</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D79" t="s">
         <v>219</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E79" t="s">
         <v>235</v>
       </c>
-      <c r="F77">
+      <c r="F79">
         <v>3.5</v>
       </c>
-      <c r="G77">
-        <v>2</v>
-      </c>
-      <c r="H77" s="2">
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79" s="2">
         <v>2.5</v>
       </c>
-      <c r="I77" s="2">
+      <c r="I79" s="2">
         <v>100</v>
       </c>
-      <c r="J77" s="2">
+      <c r="J79" s="2">
         <v>1</v>
       </c>
-      <c r="K77" s="2">
+      <c r="K79" s="2">
         <v>1.5</v>
       </c>
-      <c r="L77" s="4">
+      <c r="L79" s="4">
         <v>0.7</v>
       </c>
-      <c r="M77" s="9">
+      <c r="M79" s="9">
         <f t="shared" si="2"/>
         <v>1.897269348659004</v>
       </c>
-      <c r="N77" t="s">
+      <c r="N79" t="s">
         <v>245</v>
       </c>
-      <c r="O77" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="O79" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>55</v>
       </c>
-      <c r="B78">
+      <c r="B80">
         <v>1989</v>
       </c>
-      <c r="C78">
+      <c r="C80">
         <v>0.8</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D80" t="s">
         <v>219</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E80" t="s">
         <v>235</v>
       </c>
-      <c r="F78">
+      <c r="F80">
         <v>3.5</v>
       </c>
-      <c r="G78">
-        <v>2</v>
-      </c>
-      <c r="H78" s="2">
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80" s="2">
         <v>1</v>
       </c>
-      <c r="I78" s="2">
+      <c r="I80" s="2">
         <v>100</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J80" s="2">
         <v>1</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K80" s="2">
         <v>1.5</v>
       </c>
-      <c r="L78" s="4">
+      <c r="L80" s="4">
         <v>0.7</v>
       </c>
-      <c r="M78" s="9">
+      <c r="M80" s="9">
         <f t="shared" si="2"/>
         <v>1.5186324387877592</v>
       </c>
-      <c r="N78" t="s">
+      <c r="N80" t="s">
         <v>245</v>
       </c>
-      <c r="O78" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="O80" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>56</v>
       </c>
-      <c r="B79">
+      <c r="B81">
         <v>2250</v>
       </c>
-      <c r="C79">
+      <c r="C81">
         <v>0.6</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D81" t="s">
         <v>219</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E81" t="s">
         <v>235</v>
       </c>
-      <c r="F79">
+      <c r="F81">
         <v>1.4</v>
       </c>
-      <c r="G79">
-        <v>2</v>
-      </c>
-      <c r="H79" s="2">
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81" s="2">
         <v>0.5</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I81" s="2">
         <v>100</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J81" s="2">
         <v>1</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K81" s="2">
         <v>1.5</v>
       </c>
-      <c r="L79" s="4">
+      <c r="L81" s="4">
         <v>0.3</v>
       </c>
-      <c r="M79" s="9">
+      <c r="M81" s="9">
         <f t="shared" si="2"/>
         <v>0.73932886224984784</v>
       </c>
-      <c r="N79" t="s">
+      <c r="N81" t="s">
         <v>245</v>
-      </c>
-      <c r="O79" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>203</v>
-      </c>
-      <c r="B80">
-        <v>1125</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" t="s">
-        <v>219</v>
-      </c>
-      <c r="E80" t="s">
-        <v>235</v>
-      </c>
-      <c r="F80">
-        <v>3.5</v>
-      </c>
-      <c r="G80">
-        <v>2</v>
-      </c>
-      <c r="H80" s="2">
-        <v>2</v>
-      </c>
-      <c r="I80" s="2">
-        <v>100</v>
-      </c>
-      <c r="J80" s="2">
-        <v>1</v>
-      </c>
-      <c r="K80" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="L80" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="M80" s="9">
-        <f>C80*B80/2250+(C80-1)/2.33+0+0+F80/5+G80/9+H80/3-I80/200+J80/5.8-K80/50-L80/1000</f>
-        <v>1.730602681992337</v>
-      </c>
-      <c r="N80" t="s">
-        <v>245</v>
-      </c>
-      <c r="O80" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>318</v>
-      </c>
-      <c r="B81">
-        <v>73</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
-        <v>320</v>
-      </c>
-      <c r="E81" t="s">
-        <v>234</v>
-      </c>
-      <c r="F81">
-        <v>0.53</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81" s="2">
-        <v>0</v>
-      </c>
-      <c r="I81" s="2">
-        <v>18</v>
-      </c>
-      <c r="J81" s="2">
-        <v>3</v>
-      </c>
-      <c r="K81" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="L81" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="M81" s="9">
-        <f>C81*B81/2250+(C81-1)/2.33+0+0+F81/5+G81/9+H81/3-I81/200+J81/5.8-K81/50-L81/1000</f>
-        <v>0.55138582375478928</v>
-      </c>
-      <c r="N81" t="s">
-        <v>246</v>
       </c>
       <c r="O81" t="s">
         <v>246</v>
@@ -10267,44 +10330,44 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>316</v>
+        <v>203</v>
       </c>
       <c r="B82">
-        <v>75</v>
+        <v>1125</v>
       </c>
       <c r="C82">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
       <c r="E82" t="s">
         <v>235</v>
       </c>
       <c r="F82">
-        <v>2.4500000000000002</v>
+        <v>3.5</v>
       </c>
       <c r="G82">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H82" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" s="2">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J82" s="2">
         <v>1</v>
       </c>
       <c r="K82" s="2">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L82" s="4">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M82" s="9">
         <f>C82*B82/2250+(C82-1)/2.33+0+0+F82/5+G82/9+H82/3-I82/200+J82/5.8-K82/50-L82/1000</f>
-        <v>1.02885108447207</v>
+        <v>1.730602681992337</v>
       </c>
       <c r="N82" t="s">
         <v>245</v>
@@ -10315,44 +10378,44 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>317</v>
-      </c>
-      <c r="B83" s="5">
-        <v>5625</v>
+        <v>318</v>
+      </c>
+      <c r="B83">
+        <v>73</v>
       </c>
       <c r="C83">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F83">
-        <v>2.8</v>
+        <v>0.53</v>
       </c>
       <c r="G83">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H83" s="2">
-        <v>2</v>
-      </c>
-      <c r="I83" s="15">
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="I83" s="2">
+        <v>18</v>
       </c>
       <c r="J83" s="2">
         <v>3</v>
       </c>
-      <c r="K83" s="15">
-        <v>40</v>
+      <c r="K83" s="2">
+        <v>0.69</v>
       </c>
       <c r="L83" s="4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M83" s="9">
-        <f t="shared" ref="M83" si="3">C83*B83/2250+(C83-1)/2.33+0+0+F83/5+G83/9+H83/3-I83/200+J83/5.8-K83/50-L83/1000</f>
-        <v>5.6403964579941794</v>
+        <f>C83*B83/2250+(C83-1)/2.33+0+0+F83/5+G83/9+H83/3-I83/200+J83/5.8-K83/50-L83/1000</f>
+        <v>0.55138582375478928</v>
       </c>
       <c r="N83" t="s">
         <v>246</v>
@@ -10363,524 +10426,581 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>316</v>
+      </c>
+      <c r="B84">
+        <v>75</v>
+      </c>
+      <c r="C84">
+        <v>0.6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>343</v>
+      </c>
+      <c r="E84" t="s">
+        <v>235</v>
+      </c>
+      <c r="F84">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G84">
+        <v>7</v>
+      </c>
+      <c r="H84" s="2">
+        <v>1</v>
+      </c>
+      <c r="I84" s="2">
+        <v>109</v>
+      </c>
+      <c r="J84" s="2">
+        <v>1</v>
+      </c>
+      <c r="K84" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="L84" s="4">
+        <v>0</v>
+      </c>
+      <c r="M84" s="9">
+        <f>C84*B84/2250+(C84-1)/2.33+0+0+F84/5+G84/9+H84/3-I84/200+J84/5.8-K84/50-L84/1000</f>
+        <v>1.02885108447207</v>
+      </c>
+      <c r="N84" t="s">
+        <v>245</v>
+      </c>
+      <c r="O84" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>317</v>
+      </c>
+      <c r="B85" s="5">
+        <v>5625</v>
+      </c>
+      <c r="C85">
+        <v>1.75</v>
+      </c>
+      <c r="D85" t="s">
+        <v>319</v>
+      </c>
+      <c r="E85" t="s">
+        <v>235</v>
+      </c>
+      <c r="F85">
+        <v>2.8</v>
+      </c>
+      <c r="G85">
+        <v>9</v>
+      </c>
+      <c r="H85" s="2">
+        <v>2</v>
+      </c>
+      <c r="I85" s="15">
+        <v>200</v>
+      </c>
+      <c r="J85" s="2">
+        <v>3</v>
+      </c>
+      <c r="K85" s="15">
+        <v>40</v>
+      </c>
+      <c r="L85" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="M85" s="9">
+        <f t="shared" ref="M85" si="3">C85*B85/2250+(C85-1)/2.33+0+0+F85/5+G85/9+H85/3-I85/200+J85/5.8-K85/50-L85/1000</f>
+        <v>5.6403964579941794</v>
+      </c>
+      <c r="N85" t="s">
+        <v>246</v>
+      </c>
+      <c r="O85" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>208</v>
       </c>
-      <c r="B84">
+      <c r="B86">
         <v>2200</v>
       </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
         <v>291</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E86" t="s">
         <v>234</v>
       </c>
-      <c r="F84">
+      <c r="F86">
         <v>4.3</v>
       </c>
-      <c r="G84">
+      <c r="G86">
         <v>6</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H86" s="2">
         <v>2.5</v>
       </c>
-      <c r="I84" s="2">
+      <c r="I86" s="2">
         <v>70</v>
       </c>
-      <c r="J84" s="2">
+      <c r="J86" s="2">
         <v>2.5</v>
       </c>
-      <c r="K84" s="2">
+      <c r="K86" s="2">
         <v>4.3</v>
       </c>
-      <c r="L84" s="4">
+      <c r="L86" s="4">
         <v>0.1</v>
       </c>
-      <c r="M84" s="9">
+      <c r="M86" s="9">
         <f t="shared" si="2"/>
         <v>4.7396745876703994</v>
       </c>
-      <c r="N84" t="s">
+      <c r="N86" t="s">
         <v>245</v>
       </c>
-      <c r="O84" t="s">
+      <c r="O86" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>297</v>
       </c>
-      <c r="B85">
+      <c r="B87">
         <v>1561</v>
       </c>
-      <c r="C85">
+      <c r="C87">
         <v>0</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D87" t="s">
         <v>297</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E87" t="s">
         <v>237</v>
       </c>
-      <c r="F85">
+      <c r="F87">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G85">
+      <c r="G87">
         <v>6</v>
       </c>
-      <c r="H85" s="2">
-        <v>2</v>
-      </c>
-      <c r="I85" s="2">
+      <c r="H87" s="2">
+        <v>2</v>
+      </c>
+      <c r="I87" s="2">
         <v>80</v>
       </c>
-      <c r="J85" s="2">
+      <c r="J87" s="2">
         <v>1.7</v>
       </c>
-      <c r="K85" s="2">
+      <c r="K87" s="2">
         <v>5.3</v>
       </c>
-      <c r="L85" s="4">
+      <c r="L87" s="4">
         <v>0.2</v>
       </c>
-      <c r="M85" s="9">
+      <c r="M87" s="9">
         <f t="shared" si="2"/>
         <v>1.6110522322529721</v>
       </c>
-      <c r="N85" t="s">
+      <c r="N87" t="s">
         <v>245</v>
       </c>
-      <c r="O85" t="s">
+      <c r="O87" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>206</v>
       </c>
-      <c r="B86">
+      <c r="B88">
         <v>1800</v>
       </c>
-      <c r="C86">
+      <c r="C88">
         <v>2.5</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D88" t="s">
         <v>233</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E88" t="s">
         <v>234</v>
       </c>
-      <c r="F86">
+      <c r="F88">
         <v>3.15</v>
       </c>
-      <c r="G86">
+      <c r="G88">
         <v>8</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H88" s="2">
         <v>3</v>
       </c>
-      <c r="I86" s="2">
+      <c r="I88" s="2">
         <v>50</v>
       </c>
-      <c r="J86" s="2">
+      <c r="J88" s="2">
         <v>5</v>
       </c>
-      <c r="K86" s="2">
+      <c r="K88" s="2">
         <v>5</v>
       </c>
-      <c r="L86" s="4">
+      <c r="L88" s="4">
         <v>0</v>
       </c>
-      <c r="M86" s="9">
+      <c r="M88" s="9">
         <f t="shared" si="2"/>
         <v>5.6747346784404646</v>
       </c>
-      <c r="N86" t="s">
-        <v>246</v>
-      </c>
-      <c r="O86" t="s">
+      <c r="N88" t="s">
+        <v>246</v>
+      </c>
+      <c r="O88" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>207</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B89" s="5">
         <v>9999</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C89" s="5">
         <v>10</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D89" t="s">
         <v>238</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E89" t="s">
         <v>237</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F89" s="5">
         <v>99999.99</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G89" s="5">
         <v>11</v>
       </c>
-      <c r="H87" s="6">
+      <c r="H89" s="6">
         <v>25</v>
       </c>
-      <c r="I87" s="2">
+      <c r="I89" s="2">
         <v>30</v>
       </c>
-      <c r="J87" s="6">
+      <c r="J89" s="6">
         <v>10</v>
       </c>
-      <c r="K87" s="2">
-        <v>2</v>
-      </c>
-      <c r="L87" s="4">
+      <c r="K89" s="2">
+        <v>2</v>
+      </c>
+      <c r="L89" s="4">
         <v>0</v>
       </c>
-      <c r="M87" s="10">
+      <c r="M89" s="10">
         <f t="shared" si="2"/>
         <v>20059.390354430794</v>
       </c>
-      <c r="N87" t="s">
-        <v>246</v>
-      </c>
-      <c r="O87" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="N89" t="s">
+        <v>246</v>
+      </c>
+      <c r="O89" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>199</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D90" t="s">
         <v>211</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E90" t="s">
         <v>235</v>
       </c>
-      <c r="M88" s="9">
+      <c r="M90" s="9">
         <f t="shared" si="2"/>
         <v>-0.42918454935622319</v>
       </c>
-      <c r="N88" t="s">
+      <c r="N90" t="s">
         <v>245</v>
       </c>
-      <c r="O88" t="s">
+      <c r="O90" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>205</v>
       </c>
-      <c r="B89">
+      <c r="B91">
         <v>1392</v>
       </c>
-      <c r="C89">
+      <c r="C91">
         <v>0.7</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D91" t="s">
         <v>292</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E91" t="s">
         <v>235</v>
       </c>
-      <c r="F89">
+      <c r="F91">
         <v>1.75</v>
       </c>
-      <c r="G89">
+      <c r="G91">
         <v>6</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H91" s="2">
         <v>1.5</v>
       </c>
-      <c r="I89" s="2">
+      <c r="I91" s="2">
         <v>110</v>
       </c>
-      <c r="J89" s="2">
+      <c r="J91" s="2">
         <v>1</v>
       </c>
-      <c r="K89" s="2">
+      <c r="K91" s="2">
         <v>1.5</v>
       </c>
-      <c r="L89" s="4">
+      <c r="L91" s="4">
         <v>0.5</v>
       </c>
-      <c r="M89" s="9">
+      <c r="M91" s="9">
         <f t="shared" si="2"/>
         <v>1.4128917616299144</v>
       </c>
-      <c r="N89" t="s">
-        <v>245</v>
-      </c>
-      <c r="O89" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>266</v>
-      </c>
-      <c r="E90" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91">
-        <v>150</v>
-      </c>
-      <c r="C91">
-        <v>1.3</v>
-      </c>
-      <c r="D91" t="s">
-        <v>239</v>
-      </c>
-      <c r="E91" t="s">
-        <v>235</v>
-      </c>
-      <c r="F91">
-        <v>1.75</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91" s="2">
-        <v>1</v>
-      </c>
-      <c r="M91" s="9">
-        <f t="shared" ref="M91:M113" si="4">C91*B91/2250+(C91-1)/2.33+0+0+F91/5+G91/9+H91/3-I91/200+J91/5.8-K91/50-L91/1000</f>
-        <v>1.0098664759179781</v>
-      </c>
       <c r="N91" t="s">
         <v>245</v>
       </c>
       <c r="O91" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>266</v>
+      </c>
+      <c r="E92" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93">
+        <v>150</v>
+      </c>
+      <c r="C93">
+        <v>1.3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>239</v>
+      </c>
+      <c r="E93" t="s">
+        <v>235</v>
+      </c>
+      <c r="F93">
+        <v>1.75</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2">
+        <v>1</v>
+      </c>
+      <c r="M93" s="9">
+        <f t="shared" ref="M93:M115" si="4">C93*B93/2250+(C93-1)/2.33+0+0+F93/5+G93/9+H93/3-I93/200+J93/5.8-K93/50-L93/1000</f>
+        <v>1.0098664759179781</v>
+      </c>
+      <c r="N93" t="s">
+        <v>245</v>
+      </c>
+      <c r="O93" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>4</v>
       </c>
-      <c r="B92">
+      <c r="B94">
         <v>188</v>
       </c>
-      <c r="C92">
+      <c r="C94">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D94" t="s">
         <v>294</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E94" t="s">
         <v>234</v>
       </c>
-      <c r="F92">
+      <c r="F94">
         <v>2.8</v>
       </c>
-      <c r="G92">
-        <v>2</v>
-      </c>
-      <c r="H92" s="2">
+      <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94" s="2">
         <v>1</v>
       </c>
-      <c r="M92" s="9">
+      <c r="M94" s="9">
         <f t="shared" si="4"/>
         <v>1.250385121602289</v>
       </c>
-      <c r="N92" t="s">
+      <c r="N94" t="s">
         <v>245</v>
       </c>
-      <c r="O92" t="s">
+      <c r="O94" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>5</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D95" t="s">
         <v>248</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E95" t="s">
         <v>235</v>
       </c>
-      <c r="M93" s="9">
+      <c r="M95" s="9">
         <f t="shared" si="4"/>
         <v>-0.42918454935622319</v>
       </c>
-      <c r="N93" t="s">
+      <c r="N95" t="s">
         <v>245</v>
       </c>
-      <c r="O93" t="s">
+      <c r="O95" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>7</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D96" t="s">
         <v>211</v>
       </c>
-      <c r="M94" s="9">
+      <c r="M96" s="9">
         <f t="shared" si="4"/>
         <v>-0.42918454935622319</v>
       </c>
-      <c r="N94" t="s">
+      <c r="N96" t="s">
         <v>245</v>
       </c>
-      <c r="O94" t="s">
+      <c r="O96" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>9</v>
       </c>
-      <c r="B95">
+      <c r="B97">
         <v>1</v>
       </c>
-      <c r="C95">
+      <c r="C97">
         <v>0.1</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D97" t="s">
         <v>211</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E97" t="s">
         <v>235</v>
       </c>
-      <c r="F95">
+      <c r="F97">
         <v>0.7</v>
       </c>
-      <c r="G95">
+      <c r="G97">
         <v>0</v>
       </c>
-      <c r="H95" s="2">
+      <c r="H97" s="2">
         <v>0</v>
       </c>
-      <c r="M95" s="9">
+      <c r="M97" s="9">
         <f t="shared" si="4"/>
         <v>-0.24622164997615639</v>
       </c>
-      <c r="N95" t="s">
+      <c r="N97" t="s">
         <v>245</v>
       </c>
-      <c r="O95" t="s">
+      <c r="O97" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>10</v>
       </c>
-      <c r="B96">
+      <c r="B98">
         <v>90</v>
       </c>
-      <c r="C96">
+      <c r="C98">
         <v>1.2</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D98" t="s">
         <v>295</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E98" t="s">
         <v>235</v>
       </c>
-      <c r="F96">
+      <c r="F98">
         <v>1.4</v>
       </c>
-      <c r="G96">
+      <c r="G98">
         <v>1</v>
       </c>
-      <c r="H96" s="2">
+      <c r="H98" s="2">
         <v>0.5</v>
       </c>
-      <c r="M96" s="9">
+      <c r="M98" s="9">
         <f t="shared" si="4"/>
         <v>0.69161468764902223</v>
       </c>
-      <c r="N96" t="s">
+      <c r="N98" t="s">
         <v>245</v>
       </c>
-      <c r="O96" t="s">
+      <c r="O98" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>12</v>
       </c>
-      <c r="B97">
+      <c r="B99">
         <v>188</v>
       </c>
-      <c r="C97">
+      <c r="C99">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D99" t="s">
         <v>240</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E99" t="s">
         <v>235</v>
       </c>
-      <c r="F97">
+      <c r="F99">
         <v>2.0999999999999996</v>
       </c>
-      <c r="G97">
-        <v>2</v>
-      </c>
-      <c r="H97" s="2">
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99" s="2">
         <v>1</v>
       </c>
-      <c r="M97" s="9">
+      <c r="M99" s="9">
         <f t="shared" si="4"/>
         <v>1.1103851216022889</v>
       </c>
-      <c r="N97" t="s">
-        <v>245</v>
-      </c>
-      <c r="O97" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" t="s">
-        <v>211</v>
-      </c>
-      <c r="E98" t="s">
-        <v>235</v>
-      </c>
-      <c r="M98" s="9">
-        <f t="shared" si="4"/>
-        <v>-0.42918454935622319</v>
-      </c>
-      <c r="N98" t="s">
-        <v>245</v>
-      </c>
-      <c r="O98" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" t="s">
-        <v>211</v>
-      </c>
-      <c r="M99" s="9">
-        <f t="shared" si="4"/>
-        <v>-0.42918454935622319</v>
-      </c>
       <c r="N99" t="s">
         <v>245</v>
       </c>
@@ -10890,10 +11010,13 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
         <v>211</v>
+      </c>
+      <c r="E100" t="s">
+        <v>235</v>
       </c>
       <c r="M100" s="9">
         <f t="shared" si="4"/>
@@ -10908,7 +11031,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
         <v>211</v>
@@ -10926,13 +11049,10 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>215</v>
-      </c>
-      <c r="E102" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="M102" s="9">
         <f t="shared" si="4"/>
@@ -10947,7 +11067,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D103" t="s">
         <v>211</v>
@@ -10965,29 +11085,17 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>23</v>
-      </c>
-      <c r="B104">
-        <v>165</v>
-      </c>
-      <c r="C104">
-        <v>0.7</v>
+        <v>21</v>
+      </c>
+      <c r="D104" t="s">
+        <v>215</v>
       </c>
       <c r="E104" t="s">
-        <v>234</v>
-      </c>
-      <c r="F104">
-        <v>1.75</v>
-      </c>
-      <c r="G104">
-        <v>2</v>
-      </c>
-      <c r="H104" s="2">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="M104" s="9">
         <f t="shared" si="4"/>
-        <v>0.82813352408202179</v>
+        <v>-0.42918454935622319</v>
       </c>
       <c r="N104" t="s">
         <v>245</v>
@@ -10998,7 +11106,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="D105" t="s">
         <v>211</v>
@@ -11016,14 +11124,29 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>25</v>
-      </c>
-      <c r="D106" t="s">
-        <v>211</v>
+        <v>23</v>
+      </c>
+      <c r="B106">
+        <v>165</v>
+      </c>
+      <c r="C106">
+        <v>0.7</v>
+      </c>
+      <c r="E106" t="s">
+        <v>234</v>
+      </c>
+      <c r="F106">
+        <v>1.75</v>
+      </c>
+      <c r="G106">
+        <v>2</v>
+      </c>
+      <c r="H106" s="2">
+        <v>1</v>
       </c>
       <c r="M106" s="9">
         <f t="shared" si="4"/>
-        <v>-0.42918454935622319</v>
+        <v>0.82813352408202179</v>
       </c>
       <c r="N106" t="s">
         <v>245</v>
@@ -11034,13 +11157,10 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D107" t="s">
         <v>211</v>
-      </c>
-      <c r="E107" t="s">
-        <v>235</v>
       </c>
       <c r="M107" s="9">
         <f t="shared" si="4"/>
@@ -11055,32 +11175,14 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>27</v>
-      </c>
-      <c r="B108">
-        <v>600</v>
-      </c>
-      <c r="C108">
-        <v>1.7</v>
+        <v>25</v>
       </c>
       <c r="D108" t="s">
-        <v>251</v>
-      </c>
-      <c r="E108" t="s">
-        <v>235</v>
-      </c>
-      <c r="F108">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="G108">
-        <v>2</v>
-      </c>
-      <c r="H108" s="2">
-        <v>0.5</v>
+        <v>211</v>
       </c>
       <c r="M108" s="9">
         <f t="shared" si="4"/>
-        <v>1.1776514067715784</v>
+        <v>-0.42918454935622319</v>
       </c>
       <c r="N108" t="s">
         <v>245</v>
@@ -11091,20 +11193,17 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="E109" t="s">
-        <v>234</v>
-      </c>
-      <c r="H109" s="2">
-        <v>3</v>
+        <v>235</v>
       </c>
       <c r="M109" s="9">
         <f t="shared" si="4"/>
-        <v>0.57081545064377681</v>
+        <v>-0.42918454935622319</v>
       </c>
       <c r="N109" t="s">
         <v>245</v>
@@ -11115,32 +11214,32 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="C110">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="D110" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="E110" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F110">
-        <v>0.7</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H110" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M110" s="9">
         <f t="shared" si="4"/>
-        <v>-0.24622164997615639</v>
+        <v>1.1776514067715784</v>
       </c>
       <c r="N110" t="s">
         <v>245</v>
@@ -11151,14 +11250,20 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D111" t="s">
-        <v>249</v>
+        <v>241</v>
+      </c>
+      <c r="E111" t="s">
+        <v>234</v>
+      </c>
+      <c r="H111" s="2">
+        <v>3</v>
       </c>
       <c r="M111" s="9">
         <f t="shared" si="4"/>
-        <v>-0.42918454935622319</v>
+        <v>0.57081545064377681</v>
       </c>
       <c r="N111" t="s">
         <v>245</v>
@@ -11169,7 +11274,13 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>0.1</v>
       </c>
       <c r="D112" t="s">
         <v>211</v>
@@ -11177,9 +11288,18 @@
       <c r="E112" t="s">
         <v>234</v>
       </c>
+      <c r="F112">
+        <v>0.7</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112" s="2">
+        <v>0</v>
+      </c>
       <c r="M112" s="9">
         <f t="shared" si="4"/>
-        <v>-0.42918454935622319</v>
+        <v>-0.24622164997615639</v>
       </c>
       <c r="N112" t="s">
         <v>245</v>
@@ -11190,13 +11310,10 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D113" t="s">
-        <v>211</v>
-      </c>
-      <c r="E113" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="M113" s="9">
         <f t="shared" si="4"/>
@@ -11211,16 +11328,16 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D114" t="s">
-        <v>397</v>
+        <v>211</v>
       </c>
       <c r="E114" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M114" s="9">
-        <f t="shared" ref="M114:M115" si="5">C114*B114/2250+(C114-1)/2.33+0+0+F114/5+G114/9+H114/3-I114/200+J114/5.8-K114/50-L114/1000</f>
+        <f t="shared" si="4"/>
         <v>-0.42918454935622319</v>
       </c>
       <c r="N114" t="s">
@@ -11232,27 +11349,69 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D115" t="s">
-        <v>398</v>
+        <v>211</v>
       </c>
       <c r="E115" t="s">
         <v>235</v>
       </c>
       <c r="M115" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.42918454935622319</v>
+      </c>
+      <c r="N115" t="s">
+        <v>245</v>
+      </c>
+      <c r="O115" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>397</v>
+      </c>
+      <c r="E116" t="s">
+        <v>235</v>
+      </c>
+      <c r="M116" s="9">
+        <f t="shared" ref="M116:M117" si="5">C116*B116/2250+(C116-1)/2.33+0+0+F116/5+G116/9+H116/3-I116/200+J116/5.8-K116/50-L116/1000</f>
+        <v>-0.42918454935622319</v>
+      </c>
+      <c r="N116" t="s">
+        <v>245</v>
+      </c>
+      <c r="O116" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>398</v>
+      </c>
+      <c r="E117" t="s">
+        <v>235</v>
+      </c>
+      <c r="M117" s="9">
         <f t="shared" si="5"/>
         <v>-0.42918454935622319</v>
       </c>
-      <c r="N115" t="s">
+      <c r="N117" t="s">
         <v>245</v>
       </c>
-      <c r="O115" t="s">
+      <c r="O117" t="s">
         <v>245</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L6 L8:L63 L65:L113 L116:L1048576">
+  <conditionalFormatting sqref="L67:L115 L1:L6 L8:L65 L118:L1048576">
     <cfRule type="dataBar" priority="140">
       <dataBar>
         <cfvo type="min"/>
@@ -11266,7 +11425,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88:F113 F1:F86 F116:F1048576">
+  <conditionalFormatting sqref="F90:F115 F1:F88 F118:F1048576">
     <cfRule type="dataBar" priority="154">
       <dataBar>
         <cfvo type="min"/>
@@ -11280,7 +11439,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88:H113 H1:H86 H116:H1048576">
+  <conditionalFormatting sqref="H90:H115 H1:H88 H118:H1048576">
     <cfRule type="dataBar" priority="158">
       <dataBar>
         <cfvo type="min"/>
@@ -11294,7 +11453,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J88:J113 J1:J63 J65:J86 J116:J1048576">
+  <conditionalFormatting sqref="J90:J115 J1:J65 J67:J88 J118:J1048576">
     <cfRule type="dataBar" priority="162">
       <dataBar>
         <cfvo type="min"/>
@@ -11308,7 +11467,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G88:G113 G1:G86 G116:G1048576">
+  <conditionalFormatting sqref="G90:G115 G1:G88 G118:G1048576">
     <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="min"/>
@@ -11322,60 +11481,60 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N113 N116:N1048576">
-    <cfRule type="cellIs" dxfId="56" priority="81" operator="equal">
+  <conditionalFormatting sqref="N118:N1048576 N1:N115">
+    <cfRule type="cellIs" dxfId="60" priority="81" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="82" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:P7 O8 Q8 O9:P113 O116:P1048576">
-    <cfRule type="cellIs" dxfId="54" priority="79" operator="equal">
+  <conditionalFormatting sqref="O1:P7 O8 Q8 O118:P1048576 O9:P115">
+    <cfRule type="cellIs" dxfId="58" priority="79" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="80" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D113 D116:D1048576">
-    <cfRule type="containsText" dxfId="52" priority="61" operator="containsText" text="dire">
+  <conditionalFormatting sqref="D1:D115 D118:D1048576">
+    <cfRule type="containsText" dxfId="56" priority="61" operator="containsText" text="dire">
       <formula>NOT(ISERROR(SEARCH("dire",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="62" operator="containsText" text="skullfire">
+    <cfRule type="containsText" dxfId="55" priority="62" operator="containsText" text="skullfire">
       <formula>NOT(ISERROR(SEARCH("skullfire",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="63" operator="containsText" text="cosmic">
+    <cfRule type="containsText" dxfId="54" priority="63" operator="containsText" text="cosmic">
       <formula>NOT(ISERROR(SEARCH("cosmic",D1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="70" operator="equal">
       <formula>"supermassive"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="71" operator="containsText" text="reinforced">
+    <cfRule type="containsText" dxfId="52" priority="71" operator="containsText" text="reinforced">
       <formula>NOT(ISERROR(SEARCH("reinforced",D1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="72" operator="equal">
       <formula>"none"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="73" operator="containsText" text="stonebound">
+    <cfRule type="containsText" dxfId="50" priority="73" operator="containsText" text="stonebound">
       <formula>NOT(ISERROR(SEARCH("stonebound",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E113 E116:E1048576">
-    <cfRule type="cellIs" dxfId="45" priority="74" operator="equal">
+  <conditionalFormatting sqref="E1:E115 E118:E1048576">
+    <cfRule type="cellIs" dxfId="49" priority="74" operator="equal">
       <formula>"part builder, part cast"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="75" operator="equal">
       <formula>"dire crafting table"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="76" operator="equal">
       <formula>"part builder"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="77" operator="equal">
       <formula>"part cast"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C88:C113 C1:C86 C116:C1048576">
+  <conditionalFormatting sqref="C90:C115 C1:C88 C118:C1048576">
     <cfRule type="dataBar" priority="68">
       <dataBar>
         <cfvo type="min"/>
@@ -11388,11 +11547,11 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="69" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M88:M113 M1:M86 M116:M1048576">
+  <conditionalFormatting sqref="M90:M115 M118:M1048576 M1:M88">
     <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="min"/>
@@ -11406,18 +11565,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J113 J116:J1048576">
-    <cfRule type="cellIs" dxfId="40" priority="65" operator="equal">
+  <conditionalFormatting sqref="J1:J115 J118:J1048576">
+    <cfRule type="cellIs" dxfId="44" priority="65" operator="equal">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L113 L116:L1048576">
-    <cfRule type="cellIs" dxfId="39" priority="64" operator="equal">
+  <conditionalFormatting sqref="L1:L115 L118:L1048576">
+    <cfRule type="cellIs" dxfId="43" priority="64" operator="equal">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I84:I113 I1:I82 I116:I1048576">
-    <cfRule type="cellIs" dxfId="38" priority="261" operator="equal">
+  <conditionalFormatting sqref="I86:I115 I1:I84 I118:I1048576">
+    <cfRule type="cellIs" dxfId="42" priority="261" operator="equal">
       <formula>40</formula>
     </cfRule>
     <cfRule type="dataBar" priority="262">
@@ -11433,7 +11592,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K84:K113 K1:K82 K116:K1048576">
+  <conditionalFormatting sqref="K86:K115 K1:K84 K118:K1048576">
     <cfRule type="dataBar" priority="267">
       <dataBar>
         <cfvo type="min"/>
@@ -11459,7 +11618,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88:B113 B84:B86 B1:B82 B116:B1048576">
+  <conditionalFormatting sqref="B90:B115 B86:B88 B1:B84 B118:B1048576">
     <cfRule type="dataBar" priority="273">
       <dataBar>
         <cfvo type="min"/>
@@ -11473,7 +11632,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L114">
+  <conditionalFormatting sqref="L116">
     <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="min"/>
@@ -11487,7 +11646,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F114">
+  <conditionalFormatting sqref="F116">
     <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="min"/>
@@ -11501,7 +11660,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H114">
+  <conditionalFormatting sqref="H116">
     <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="min"/>
@@ -11515,7 +11674,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J114">
+  <conditionalFormatting sqref="J116">
     <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="min"/>
@@ -11529,7 +11688,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G114">
+  <conditionalFormatting sqref="G116">
     <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="min"/>
@@ -11543,60 +11702,60 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N114">
-    <cfRule type="cellIs" dxfId="37" priority="49" operator="equal">
+  <conditionalFormatting sqref="N116">
+    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="50" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O114:P114">
-    <cfRule type="cellIs" dxfId="35" priority="47" operator="equal">
+  <conditionalFormatting sqref="O116:P116">
+    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="48" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D114">
-    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="dire">
-      <formula>NOT(ISERROR(SEARCH("dire",D114)))</formula>
+  <conditionalFormatting sqref="D116">
+    <cfRule type="containsText" dxfId="37" priority="31" operator="containsText" text="dire">
+      <formula>NOT(ISERROR(SEARCH("dire",D116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="skullfire">
-      <formula>NOT(ISERROR(SEARCH("skullfire",D114)))</formula>
+    <cfRule type="containsText" dxfId="36" priority="32" operator="containsText" text="skullfire">
+      <formula>NOT(ISERROR(SEARCH("skullfire",D116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="cosmic">
-      <formula>NOT(ISERROR(SEARCH("cosmic",D114)))</formula>
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="cosmic">
+      <formula>NOT(ISERROR(SEARCH("cosmic",D116)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
       <formula>"supermassive"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="40" operator="containsText" text="reinforced">
-      <formula>NOT(ISERROR(SEARCH("reinforced",D114)))</formula>
+    <cfRule type="containsText" dxfId="33" priority="40" operator="containsText" text="reinforced">
+      <formula>NOT(ISERROR(SEARCH("reinforced",D116)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="41" operator="equal">
       <formula>"none"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="42" operator="containsText" text="stonebound">
-      <formula>NOT(ISERROR(SEARCH("stonebound",D114)))</formula>
+    <cfRule type="containsText" dxfId="31" priority="42" operator="containsText" text="stonebound">
+      <formula>NOT(ISERROR(SEARCH("stonebound",D116)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="26" priority="43" operator="equal">
+  <conditionalFormatting sqref="E116">
+    <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
       <formula>"part builder, part cast"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="44" operator="equal">
       <formula>"dire crafting table"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="45" operator="equal">
       <formula>"part builder"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="46" operator="equal">
       <formula>"part cast"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
+  <conditionalFormatting sqref="C116">
     <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="min"/>
@@ -11609,11 +11768,11 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="38" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M114">
+  <conditionalFormatting sqref="M116">
     <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="min"/>
@@ -11627,18 +11786,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J114">
-    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
+  <conditionalFormatting sqref="J116">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L114">
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
+  <conditionalFormatting sqref="L116">
+    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I114">
-    <cfRule type="cellIs" dxfId="19" priority="56" operator="equal">
+  <conditionalFormatting sqref="I116">
+    <cfRule type="cellIs" dxfId="23" priority="56" operator="equal">
       <formula>40</formula>
     </cfRule>
     <cfRule type="dataBar" priority="57">
@@ -11654,7 +11813,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K114">
+  <conditionalFormatting sqref="K116">
     <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="min"/>
@@ -11680,7 +11839,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B114">
+  <conditionalFormatting sqref="B116">
     <cfRule type="dataBar" priority="60">
       <dataBar>
         <cfvo type="min"/>
@@ -11694,7 +11853,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L115">
+  <conditionalFormatting sqref="L117">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
@@ -11708,7 +11867,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F115">
+  <conditionalFormatting sqref="F117">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
@@ -11722,7 +11881,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H115">
+  <conditionalFormatting sqref="H117">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
@@ -11736,7 +11895,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J115">
+  <conditionalFormatting sqref="J117">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
@@ -11750,7 +11909,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G115">
+  <conditionalFormatting sqref="G117">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
@@ -11764,60 +11923,60 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N115">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+  <conditionalFormatting sqref="N117">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O115:P115">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+  <conditionalFormatting sqref="O117:P117">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="dire">
-      <formula>NOT(ISERROR(SEARCH("dire",D115)))</formula>
+  <conditionalFormatting sqref="D117">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="dire">
+      <formula>NOT(ISERROR(SEARCH("dire",D117)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="skullfire">
-      <formula>NOT(ISERROR(SEARCH("skullfire",D115)))</formula>
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="skullfire">
+      <formula>NOT(ISERROR(SEARCH("skullfire",D117)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="cosmic">
-      <formula>NOT(ISERROR(SEARCH("cosmic",D115)))</formula>
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="cosmic">
+      <formula>NOT(ISERROR(SEARCH("cosmic",D117)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"supermassive"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="reinforced">
-      <formula>NOT(ISERROR(SEARCH("reinforced",D115)))</formula>
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="reinforced">
+      <formula>NOT(ISERROR(SEARCH("reinforced",D117)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"none"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="stonebound">
-      <formula>NOT(ISERROR(SEARCH("stonebound",D115)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="stonebound">
+      <formula>NOT(ISERROR(SEARCH("stonebound",D117)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+  <conditionalFormatting sqref="E117">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"part builder, part cast"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"dire crafting table"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"part builder"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"part cast"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C115">
+  <conditionalFormatting sqref="C117">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -11830,11 +11989,11 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M115">
+  <conditionalFormatting sqref="M117">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -11848,18 +12007,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J115">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+  <conditionalFormatting sqref="J117">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L115">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+  <conditionalFormatting sqref="L117">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I115">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+  <conditionalFormatting sqref="I117">
+    <cfRule type="cellIs" dxfId="4" priority="26" operator="equal">
       <formula>40</formula>
     </cfRule>
     <cfRule type="dataBar" priority="27">
@@ -11875,7 +12034,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K115">
+  <conditionalFormatting sqref="K117">
     <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
@@ -11901,7 +12060,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B115">
+  <conditionalFormatting sqref="B117">
     <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
@@ -11929,7 +12088,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L1:L6 L8:L63 L65:L113 L116:L1048576</xm:sqref>
+          <xm:sqref>L67:L115 L1:L6 L8:L65 L118:L1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{820A0882-06F2-4B14-B9FB-9FA79AAF1278}">
@@ -11940,7 +12099,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F88:F113 F1:F86 F116:F1048576</xm:sqref>
+          <xm:sqref>F90:F115 F1:F88 F118:F1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7873A36C-220C-4368-B136-3626FE516F15}">
@@ -11951,7 +12110,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H88:H113 H1:H86 H116:H1048576</xm:sqref>
+          <xm:sqref>H90:H115 H1:H88 H118:H1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{45F3CC12-6630-4EB2-B8A9-BFFADE8AA892}">
@@ -11962,7 +12121,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J88:J113 J1:J63 J65:J86 J116:J1048576</xm:sqref>
+          <xm:sqref>J90:J115 J1:J65 J67:J88 J118:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{37E283D3-36E4-4CAA-B5BB-FA7109F09680}">
@@ -11973,7 +12132,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G88:G113 G1:G86 G116:G1048576</xm:sqref>
+          <xm:sqref>G90:G115 G1:G88 G118:G1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4F4D3FE2-A666-405B-8F4F-F44A87CC1BA3}">
@@ -11983,7 +12142,7 @@
               <x14:negativeFillColor rgb="FFC00000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C88:C113 C1:C86 C116:C1048576</xm:sqref>
+          <xm:sqref>C90:C115 C1:C88 C118:C1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{93719E4B-6F9F-44BD-94E0-15B6B2AC544C}">
@@ -11995,7 +12154,7 @@
               <x14:negativeBorderColor rgb="FFFF0000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M88:M113 M1:M86 M116:M1048576</xm:sqref>
+          <xm:sqref>M90:M115 M118:M1048576 M1:M88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{07996D23-76D8-4AB7-A1B6-93F8F2B2D02D}">
@@ -12006,7 +12165,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I84:I113 I1:I82 I116:I1048576</xm:sqref>
+          <xm:sqref>I86:I115 I1:I84 I118:I1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5B934DB6-0548-4A24-B9F8-7FB71437DB09}">
@@ -12025,7 +12184,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K84:K113 K1:K82 K116:K1048576</xm:sqref>
+          <xm:sqref>K86:K115 K1:K84 K118:K1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C6B9336F-76F8-422A-8114-E315282FDD2F}">
@@ -12036,7 +12195,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B88:B113 B84:B86 B1:B82 B116:B1048576</xm:sqref>
+          <xm:sqref>B90:B115 B86:B88 B1:B84 B118:B1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8475AB2E-3FC0-454F-AB54-FCCE3694268F}">
@@ -12047,7 +12206,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L114</xm:sqref>
+          <xm:sqref>L116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F32456CC-2488-4F95-ACC0-C5A236E7249D}">
@@ -12058,7 +12217,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F114</xm:sqref>
+          <xm:sqref>F116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3EED116B-D6ED-49BB-B65D-C1877FBA9B2C}">
@@ -12069,7 +12228,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H114</xm:sqref>
+          <xm:sqref>H116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{66C75076-9D21-42A1-9645-CC34C554AC9B}">
@@ -12080,7 +12239,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J114</xm:sqref>
+          <xm:sqref>J116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B7915F92-8E61-4158-A713-0651886A1FAD}">
@@ -12091,7 +12250,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G114</xm:sqref>
+          <xm:sqref>G116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BB950044-A805-4F51-9435-2FB0007BE827}">
@@ -12101,7 +12260,7 @@
               <x14:negativeFillColor rgb="FFC00000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C114</xm:sqref>
+          <xm:sqref>C116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6958E9BB-21F8-4B4E-B404-E193F043649A}">
@@ -12113,7 +12272,7 @@
               <x14:negativeBorderColor rgb="FFFF0000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M114</xm:sqref>
+          <xm:sqref>M116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B0FCAFD5-8860-4BA4-BD73-10B37415A488}">
@@ -12124,7 +12283,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I114</xm:sqref>
+          <xm:sqref>I116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A951C96D-9A8C-4746-95CC-2144C0788FA0}">
@@ -12143,7 +12302,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K114</xm:sqref>
+          <xm:sqref>K116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AFD0DD04-5B68-4BF6-A96D-61AE36FC19F0}">
@@ -12154,7 +12313,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B114</xm:sqref>
+          <xm:sqref>B116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{994C38A8-D798-435B-80F1-4F44F88B04D3}">
@@ -12165,7 +12324,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L115</xm:sqref>
+          <xm:sqref>L117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D62091D4-B2DA-462C-96E8-EA545ADD80CB}">
@@ -12176,7 +12335,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F115</xm:sqref>
+          <xm:sqref>F117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2A39306C-DCD4-425E-A242-6F3835177A2A}">
@@ -12187,7 +12346,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H115</xm:sqref>
+          <xm:sqref>H117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0992EF59-F171-447E-8E29-81B9E7D02E4A}">
@@ -12198,7 +12357,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J115</xm:sqref>
+          <xm:sqref>J117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CA0621EA-877C-45E7-9303-88BABDFD61E9}">
@@ -12209,7 +12368,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G115</xm:sqref>
+          <xm:sqref>G117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EA8A0C45-9EC0-4854-BA8A-A807A6C10DB4}">
@@ -12219,7 +12378,7 @@
               <x14:negativeFillColor rgb="FFC00000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C115</xm:sqref>
+          <xm:sqref>C117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A81131EA-8DD6-4B93-9762-C375747B647E}">
@@ -12231,7 +12390,7 @@
               <x14:negativeBorderColor rgb="FFFF0000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M115</xm:sqref>
+          <xm:sqref>M117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5B6FC56E-E658-4920-A5D2-A7F76A155DF0}">
@@ -12242,7 +12401,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I115</xm:sqref>
+          <xm:sqref>I117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3116A062-2CAA-496C-B33E-E0E790A99AF8}">
@@ -12261,7 +12420,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K115</xm:sqref>
+          <xm:sqref>K117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{17BC3CAB-B273-4DD6-9223-47AE88046362}">
@@ -12272,7 +12431,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B115</xm:sqref>
+          <xm:sqref>B117</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -12384,10 +12543,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12537,314 +12696,335 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>213</v>
+        <v>401</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>324</v>
+        <v>405</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>334</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>124</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>315</v>
+        <v>232</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>297</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>233</v>
+        <v>297</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>206</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B26" s="16" t="s">
         <v>326</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>322</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B28" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B31" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C31" s="16" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B33" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C33" s="16" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B34" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C34" s="16" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B35" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C35" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B36" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C36" s="16" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B37" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C37" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="B38" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="B39" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="B40" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="B41" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="B42" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="16" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="B44" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="B45" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="B46" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>372</v>
+        <v>275</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="D49" s="16">
-        <v>1</v>
+        <v>346</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>380</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -12855,7 +13035,7 @@
         <v>372</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D50" s="16">
         <v>1</v>
@@ -12872,7 +13052,7 @@
         <v>372</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D51" s="16">
         <v>1</v>
@@ -12883,13 +13063,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D52" s="16">
         <v>1</v>
@@ -12900,44 +13080,44 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D53" s="16">
+        <v>1</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C54" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D54" s="16">
         <v>50</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E54" s="16" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="16">
-        <v>1</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D55" s="16">
         <v>1</v>
@@ -12946,43 +13126,46 @@
         <v>374</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="16">
+        <v>1</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C57" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D57" s="17">
         <v>1</v>
       </c>
-      <c r="E56" s="17" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="D57" s="16">
-        <v>1</v>
-      </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="17" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>51</v>
+        <v>363</v>
       </c>
       <c r="D58" s="16">
-        <v>450</v>
+        <v>1</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>374</v>
@@ -12990,27 +13173,27 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>394</v>
+        <v>51</v>
       </c>
       <c r="D59" s="16">
-        <v>72</v>
+        <v>450</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="D60" s="16">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>373</v>
@@ -13018,13 +13201,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D61" s="16">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>373</v>
@@ -13032,47 +13215,47 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D62" s="16">
         <v>1</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D63" s="16">
         <v>1</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>356</v>
+        <v>301</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>375</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D64" s="16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>373</v>
@@ -13080,13 +13263,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D65" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>373</v>
@@ -13094,13 +13277,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D66" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>373</v>
@@ -13108,13 +13291,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>23</v>
+        <v>357</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D67" s="16">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>373</v>
@@ -13122,13 +13305,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>381</v>
+        <v>23</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D68" s="16">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>373</v>
@@ -13136,29 +13319,43 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D69" s="16">
         <v>1</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D70" s="16">
         <v>1</v>
       </c>
       <c r="E70" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D71" s="16">
+        <v>1</v>
+      </c>
+      <c r="E71" s="16" t="s">
         <v>374</v>
       </c>
     </row>

--- a/The Lemon Taco spreadsheet edition.xlsx
+++ b/The Lemon Taco spreadsheet edition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="oregen" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,12 @@
     <sheet name="ore dictionary" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="427">
   <si>
     <t>name</t>
   </si>
@@ -1263,6 +1264,42 @@
   </si>
   <si>
     <t>has a chance of crashing when used</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>murderous</t>
+  </si>
+  <si>
+    <t>superpositional</t>
+  </si>
+  <si>
+    <t>cleptomanic</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>has a chance of killing the player when used</t>
+  </si>
+  <si>
+    <t>makes rocks rain from the sky when used</t>
+  </si>
+  <si>
+    <t>steals an item from the inventory when used</t>
+  </si>
+  <si>
+    <t>has a chance of jumpscaring the player when used</t>
+  </si>
+  <si>
+    <t>tools with this effect can not be picked up by players</t>
+  </si>
+  <si>
+    <t>quickly drains hunger when used</t>
+  </si>
+  <si>
+    <t>moves to a different spot in the inventory when used</t>
   </si>
 </sst>
 </file>
@@ -1375,47 +1412,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="77">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="73">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -2038,7 +2035,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Simple" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Simple" pivot="0" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="76"/>
+      <tableStyleElement type="secondRowStripe" dxfId="72"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2352,29 +2349,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L96" sqref="L96"/>
+      <selection pane="bottomRight" activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -4515,6 +4513,9 @@
       <c r="M52" t="s">
         <v>246</v>
       </c>
+      <c r="N52" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -4554,6 +4555,9 @@
       <c r="M53" t="s">
         <v>246</v>
       </c>
+      <c r="N53" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -4592,6 +4596,9 @@
       </c>
       <c r="M54" t="s">
         <v>246</v>
+      </c>
+      <c r="N54" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -6379,55 +6386,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O60:O91">
-    <cfRule type="cellIs" dxfId="75" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="15" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="16" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="73" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="6" operator="equal">
       <formula>"rock"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="7" operator="equal">
       <formula>"gem"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="8" operator="equal">
       <formula>"metal, fantasy"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="9" operator="equal">
       <formula>"metal, nether"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="10" operator="equal">
       <formula>"metal, ender"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="11" operator="equal">
       <formula>"metal, precious"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="12" operator="equal">
       <formula>"metal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="13" operator="equal">
       <formula>"fruit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="14" operator="equal">
       <formula>"utility"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21:O22 M1:N1048576">
-    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15">
-    <cfRule type="cellIs" dxfId="62" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6508,7 +6515,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10886,12 +10893,24 @@
       <c r="A96" t="s">
         <v>7</v>
       </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>-0.2</v>
+      </c>
       <c r="D96" t="s">
         <v>211</v>
       </c>
+      <c r="F96">
+        <v>4</v>
+      </c>
+      <c r="G96">
+        <v>6</v>
+      </c>
       <c r="M96" s="9">
         <f t="shared" si="4"/>
-        <v>-0.42918454935622319</v>
+        <v>0.95155631855030998</v>
       </c>
       <c r="N96" t="s">
         <v>245</v>
@@ -11052,7 +11071,7 @@
         <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>211</v>
+        <v>416</v>
       </c>
       <c r="M102" s="9">
         <f t="shared" si="4"/>
@@ -11070,7 +11089,7 @@
         <v>20</v>
       </c>
       <c r="D103" t="s">
-        <v>211</v>
+        <v>417</v>
       </c>
       <c r="M103" s="9">
         <f t="shared" si="4"/>
@@ -11108,9 +11127,6 @@
       <c r="A105" t="s">
         <v>22</v>
       </c>
-      <c r="D105" t="s">
-        <v>211</v>
-      </c>
       <c r="M105" s="9">
         <f t="shared" si="4"/>
         <v>-0.42918454935622319</v>
@@ -11132,6 +11148,9 @@
       <c r="C106">
         <v>0.7</v>
       </c>
+      <c r="D106" t="s">
+        <v>415</v>
+      </c>
       <c r="E106" t="s">
         <v>234</v>
       </c>
@@ -11159,9 +11178,6 @@
       <c r="A107" t="s">
         <v>104</v>
       </c>
-      <c r="D107" t="s">
-        <v>211</v>
-      </c>
       <c r="M107" s="9">
         <f t="shared" si="4"/>
         <v>-0.42918454935622319</v>
@@ -11178,7 +11194,7 @@
         <v>25</v>
       </c>
       <c r="D108" t="s">
-        <v>211</v>
+        <v>418</v>
       </c>
       <c r="M108" s="9">
         <f t="shared" si="4"/>
@@ -11195,9 +11211,6 @@
       <c r="A109" t="s">
         <v>26</v>
       </c>
-      <c r="D109" t="s">
-        <v>211</v>
-      </c>
       <c r="E109" t="s">
         <v>235</v>
       </c>
@@ -11352,7 +11365,7 @@
         <v>36</v>
       </c>
       <c r="D115" t="s">
-        <v>211</v>
+        <v>419</v>
       </c>
       <c r="E115" t="s">
         <v>235</v>
@@ -11482,55 +11495,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N118:N1048576 N1:N115">
-    <cfRule type="cellIs" dxfId="60" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="81" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="82" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:P7 O8 Q8 O118:P1048576 O9:P115">
-    <cfRule type="cellIs" dxfId="58" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="79" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="80" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D115 D118:D1048576">
-    <cfRule type="containsText" dxfId="56" priority="61" operator="containsText" text="dire">
+    <cfRule type="containsText" dxfId="52" priority="61" operator="containsText" text="dire">
       <formula>NOT(ISERROR(SEARCH("dire",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="62" operator="containsText" text="skullfire">
+    <cfRule type="containsText" dxfId="51" priority="62" operator="containsText" text="skullfire">
       <formula>NOT(ISERROR(SEARCH("skullfire",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="63" operator="containsText" text="cosmic">
+    <cfRule type="containsText" dxfId="50" priority="63" operator="containsText" text="cosmic">
       <formula>NOT(ISERROR(SEARCH("cosmic",D1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="70" operator="equal">
       <formula>"supermassive"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="71" operator="containsText" text="reinforced">
+    <cfRule type="containsText" dxfId="48" priority="71" operator="containsText" text="reinforced">
       <formula>NOT(ISERROR(SEARCH("reinforced",D1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="72" operator="equal">
       <formula>"none"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="73" operator="containsText" text="stonebound">
+    <cfRule type="containsText" dxfId="46" priority="73" operator="containsText" text="stonebound">
       <formula>NOT(ISERROR(SEARCH("stonebound",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E115 E118:E1048576">
-    <cfRule type="cellIs" dxfId="49" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="74" operator="equal">
       <formula>"part builder, part cast"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="75" operator="equal">
       <formula>"dire crafting table"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="76" operator="equal">
       <formula>"part builder"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="77" operator="equal">
       <formula>"part cast"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11547,7 +11560,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="69" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11566,17 +11579,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J115 J118:J1048576">
-    <cfRule type="cellIs" dxfId="44" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="65" operator="equal">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L115 L118:L1048576">
-    <cfRule type="cellIs" dxfId="43" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="64" operator="equal">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86:I115 I1:I84 I118:I1048576">
-    <cfRule type="cellIs" dxfId="42" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="261" operator="equal">
       <formula>40</formula>
     </cfRule>
     <cfRule type="dataBar" priority="262">
@@ -11703,55 +11716,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N116">
-    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="49" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="50" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O116:P116">
-    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="47" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D116">
-    <cfRule type="containsText" dxfId="37" priority="31" operator="containsText" text="dire">
+    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="dire">
       <formula>NOT(ISERROR(SEARCH("dire",D116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="32" operator="containsText" text="skullfire">
+    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="skullfire">
       <formula>NOT(ISERROR(SEARCH("skullfire",D116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="cosmic">
+    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="cosmic">
       <formula>NOT(ISERROR(SEARCH("cosmic",D116)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="39" operator="equal">
       <formula>"supermassive"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="40" operator="containsText" text="reinforced">
+    <cfRule type="containsText" dxfId="29" priority="40" operator="containsText" text="reinforced">
       <formula>NOT(ISERROR(SEARCH("reinforced",D116)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
       <formula>"none"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="42" operator="containsText" text="stonebound">
+    <cfRule type="containsText" dxfId="27" priority="42" operator="containsText" text="stonebound">
       <formula>NOT(ISERROR(SEARCH("stonebound",D116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="43" operator="equal">
       <formula>"part builder, part cast"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="44" operator="equal">
       <formula>"dire crafting table"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="45" operator="equal">
       <formula>"part builder"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="46" operator="equal">
       <formula>"part cast"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11768,7 +11781,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="38" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11787,17 +11800,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J116">
-    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L116">
-    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116">
-    <cfRule type="cellIs" dxfId="23" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="56" operator="equal">
       <formula>40</formula>
     </cfRule>
     <cfRule type="dataBar" priority="57">
@@ -11924,55 +11937,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N117">
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O117:P117">
-    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D117">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="dire">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="dire">
       <formula>NOT(ISERROR(SEARCH("dire",D117)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="skullfire">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="skullfire">
       <formula>NOT(ISERROR(SEARCH("skullfire",D117)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="cosmic">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="cosmic">
       <formula>NOT(ISERROR(SEARCH("cosmic",D117)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"supermassive"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="reinforced">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="reinforced">
       <formula>NOT(ISERROR(SEARCH("reinforced",D117)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"none"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="stonebound">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="stonebound">
       <formula>NOT(ISERROR(SEARCH("stonebound",D117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
       <formula>"part builder, part cast"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
       <formula>"dire crafting table"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
       <formula>"part builder"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
       <formula>"part cast"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11989,7 +12002,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12008,17 +12021,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J117">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L117">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="cellIs" dxfId="4" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
       <formula>40</formula>
     </cfRule>
     <cfRule type="dataBar" priority="27">
@@ -12543,10 +12556,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12970,216 +12983,162 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>416</v>
+      </c>
       <c r="B43" s="16" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>251</v>
+        <v>417</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>408</v>
-      </c>
       <c r="C45" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>249</v>
+        <v>415</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>275</v>
-      </c>
       <c r="C49" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>383</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>347</v>
+        <v>251</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="D50" s="16">
-        <v>1</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>374</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>347</v>
+        <v>241</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="D51" s="16">
-        <v>1</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>374</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>347</v>
+        <v>249</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="D52" s="16">
-        <v>1</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>374</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D53" s="16">
-        <v>1</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>374</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>348</v>
+        <v>397</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>424</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="D54" s="16">
-        <v>50</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>85</v>
+        <v>398</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="16">
-        <v>1</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" s="16">
-        <v>1</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="D57" s="17">
-        <v>1</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>374</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>350</v>
+        <v>345</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>275</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="D58" s="16">
-        <v>1</v>
+        <v>346</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>380</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>351</v>
+        <v>347</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>372</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>51</v>
+        <v>358</v>
       </c>
       <c r="D59" s="16">
-        <v>450</v>
+        <v>1</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>374</v>
@@ -13187,145 +13146,154 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>352</v>
+        <v>347</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>372</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="D60" s="16">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>353</v>
+        <v>347</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>372</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D61" s="16">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>354</v>
+        <v>371</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>395</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D62" s="16">
         <v>1</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="D63" s="16">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>301</v>
+        <v>85</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>367</v>
+        <v>85</v>
       </c>
       <c r="D64" s="16">
         <v>1</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>356</v>
+        <v>86</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>396</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>368</v>
+        <v>86</v>
       </c>
       <c r="D65" s="16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="D66" s="16">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D66" s="17">
         <v>1</v>
       </c>
-      <c r="E66" s="16" t="s">
-        <v>373</v>
+      <c r="E66" s="17" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D67" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>23</v>
+        <v>351</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>370</v>
+        <v>51</v>
       </c>
       <c r="D68" s="16">
-        <v>36</v>
+        <v>450</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="D69" s="16">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>373</v>
@@ -13333,29 +13301,161 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="D70" s="16">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="D71" s="16">
         <v>1</v>
       </c>
       <c r="E71" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="D72" s="16">
+        <v>1</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="D73" s="16">
+        <v>1</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="D74" s="16">
+        <v>10</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="D75" s="16">
+        <v>1</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="D76" s="16">
+        <v>4</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="D77" s="16">
+        <v>36</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="D78" s="16">
+        <v>1</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D79" s="16">
+        <v>1</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D80" s="16">
+        <v>1</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>374</v>
       </c>
     </row>

--- a/The Lemon Taco spreadsheet edition.xlsx
+++ b/The Lemon Taco spreadsheet edition.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="432">
   <si>
     <t>name</t>
   </si>
@@ -1300,6 +1300,21 @@
   </si>
   <si>
     <t>moves to a different spot in the inventory when used</t>
+  </si>
+  <si>
+    <t>gen chance</t>
+  </si>
+  <si>
+    <t>growth chance</t>
+  </si>
+  <si>
+    <t>max y</t>
+  </si>
+  <si>
+    <t>vein size</t>
+  </si>
+  <si>
+    <t>oreberry bushes</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1427,253 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="148">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB59B79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF75"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD243"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA160E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3B3B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF71FCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB59B79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF75"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD243"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA160E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3B3B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF71FCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -2026,6 +2287,375 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB59B79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF75"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD243"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA160E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3B3B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF71FCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB59B79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF75"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD243"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA160E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3B3B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF71FCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB59B79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF75"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD243"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA160E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3B3B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF71FCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
@@ -2035,7 +2665,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Simple" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Simple" pivot="0" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="72"/>
+      <tableStyleElement type="secondRowStripe" dxfId="147"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2347,13 +2977,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:T98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N66" sqref="N66"/>
+      <selection pane="bottomRight" activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,9 +3003,14 @@
     <col min="13" max="13" width="6.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2418,8 +3053,23 @@
       <c r="N1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>427</v>
+      </c>
+      <c r="R1" t="s">
+        <v>428</v>
+      </c>
+      <c r="S1" t="s">
+        <v>429</v>
+      </c>
+      <c r="T1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -2433,7 +3083,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>174</v>
       </c>
@@ -2447,7 +3097,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +3141,24 @@
       <c r="N4" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <f>E4/10000</f>
+        <v>1.15E-2</v>
+      </c>
+      <c r="R4">
+        <f>E4/2500</f>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="S4">
+        <f>64*B4/100</f>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T4">
+        <f>ROUNDUP(E4/15,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -2536,8 +3202,24 @@
       <c r="N5" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q68" si="0">E5/10000</f>
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R68" si="1">E5/2500</f>
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5:S68" si="2">64*B5/100</f>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T68" si="3">ROUNDUP(E5/15,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2551,7 +3233,7 @@
         <v>39</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E57" si="0">AVERAGE(C6,D6)</f>
+        <f t="shared" ref="E6:E57" si="4">AVERAGE(C6,D6)</f>
         <v>37.5</v>
       </c>
       <c r="F6">
@@ -2581,8 +3263,24 @@
       <c r="N6" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2596,7 +3294,7 @@
         <v>40</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="F7">
@@ -2620,8 +3318,24 @@
       <c r="N7" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -2635,7 +3349,7 @@
         <v>46</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>39.5</v>
       </c>
       <c r="F8">
@@ -2665,8 +3379,24 @@
       <c r="N8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>3.9500000000000004E-3</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2680,7 +3410,7 @@
         <v>45</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>41.5</v>
       </c>
       <c r="F9">
@@ -2710,8 +3440,24 @@
       <c r="N9" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>4.15E-3</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>1.66E-2</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -2725,7 +3471,7 @@
         <v>49</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>41.5</v>
       </c>
       <c r="F10">
@@ -2755,8 +3501,24 @@
       <c r="N10" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>4.15E-3</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>1.66E-2</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2800,8 +3562,24 @@
       <c r="N11" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>1.44E-2</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -2815,7 +3593,7 @@
         <v>46</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="F12">
@@ -2839,8 +3617,24 @@
       <c r="N12" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2878,8 +3672,24 @@
       <c r="N13" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>9.5E-4</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>3.8E-3</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>33.28</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -2893,7 +3703,7 @@
         <v>11</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F14">
@@ -2920,8 +3730,24 @@
       <c r="N14" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>25.6</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2965,8 +3791,24 @@
       <c r="O15" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>25.6</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -2980,7 +3822,7 @@
         <v>36</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="F16">
@@ -3007,8 +3849,24 @@
       <c r="N16" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>1.24E-2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>44.8</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -3022,7 +3880,7 @@
         <v>36</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="F17">
@@ -3049,8 +3907,24 @@
       <c r="N17" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>1.24E-2</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>38.4</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -3064,7 +3938,7 @@
         <v>36</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="F18">
@@ -3094,8 +3968,24 @@
       <c r="N18" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>1.24E-2</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>44.8</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -3109,7 +3999,7 @@
         <v>100</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>89.5</v>
       </c>
       <c r="F19">
@@ -3136,8 +4026,24 @@
       <c r="N19" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>8.9499999999999996E-3</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -3151,7 +4057,7 @@
         <v>80</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="F20">
@@ -3178,8 +4084,24 @@
       <c r="N20" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="2"/>
+        <v>60.8</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -3193,7 +4115,7 @@
         <v>70</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="F21">
@@ -3220,8 +4142,24 @@
       <c r="N21" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>52.48</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -3235,7 +4173,7 @@
         <v>46</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="F22">
@@ -3262,8 +4200,24 @@
       <c r="N22" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -3277,7 +4231,7 @@
         <v>31</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>28.5</v>
       </c>
       <c r="F23">
@@ -3304,8 +4258,24 @@
       <c r="N23" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>2.8500000000000001E-3</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>1.14E-2</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="2"/>
+        <v>43.52</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -3319,7 +4289,7 @@
         <v>33</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>29.5</v>
       </c>
       <c r="F24">
@@ -3346,8 +4316,24 @@
       <c r="N24" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>2.9499999999999999E-3</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>1.18E-2</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>60.8</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -3361,7 +4347,7 @@
         <v>20</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="F25">
@@ -3388,8 +4374,24 @@
       <c r="N25" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="2"/>
+        <v>38.4</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -3403,7 +4405,7 @@
         <v>12</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="F26">
@@ -3430,8 +4432,24 @@
       <c r="N26" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="2"/>
+        <v>28.8</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -3445,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F27">
@@ -3472,8 +4490,24 @@
       <c r="N27" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="2"/>
+        <v>22.4</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -3487,7 +4521,7 @@
         <v>40</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="F28">
@@ -3511,8 +4545,24 @@
       <c r="N28" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="2"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -3526,7 +4576,7 @@
         <v>30</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>22.5</v>
       </c>
       <c r="F29">
@@ -3550,8 +4600,24 @@
       <c r="N29" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="2"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -3565,7 +4631,7 @@
         <v>20</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17.5</v>
       </c>
       <c r="F30">
@@ -3589,8 +4655,24 @@
       <c r="N30" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>1.75E-3</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="2"/>
+        <v>60.8</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -3604,7 +4686,7 @@
         <v>16</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="F31">
@@ -3631,8 +4713,24 @@
       <c r="N31" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>1.4E-3</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="2"/>
+        <v>58.88</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>278</v>
       </c>
@@ -3646,7 +4744,7 @@
         <v>14</v>
       </c>
       <c r="E32" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F32" s="11">
@@ -3676,8 +4774,24 @@
       <c r="O32" s="11" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="2"/>
+        <v>54.4</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -3691,7 +4805,7 @@
         <v>12</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="F33">
@@ -3718,8 +4832,24 @@
       <c r="N33" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="2"/>
+        <v>52.48</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -3733,7 +4863,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
       <c r="F34">
@@ -3760,8 +4890,24 @@
       <c r="N34" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="2"/>
+        <v>44.8</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -3775,7 +4921,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F35">
@@ -3802,8 +4948,24 @@
       <c r="N35" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="2"/>
+        <v>38.4</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -3817,7 +4979,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="F36">
@@ -3844,8 +5006,24 @@
       <c r="N36" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -3859,7 +5037,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F37">
@@ -3886,8 +5064,24 @@
       <c r="N37" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="2"/>
+        <v>25.6</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -3901,7 +5095,7 @@
         <v>2</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F38">
@@ -3928,8 +5122,24 @@
       <c r="N38" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>1E-4</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="2"/>
+        <v>21.12</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -3943,7 +5153,7 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F39">
@@ -3970,8 +5180,24 @@
       <c r="N39" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <f t="shared" si="0"/>
+        <v>1E-4</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="2"/>
+        <v>21.12</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -3985,7 +5211,7 @@
         <v>73</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="F40">
@@ -4012,8 +5238,24 @@
       <c r="N40" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>6.3499999999999997E-3</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="1"/>
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="S40">
+        <f>120*B40/100</f>
+        <v>84</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -4027,7 +5269,7 @@
         <v>63</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="F41">
@@ -4054,8 +5296,24 @@
       <c r="N41" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="1"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="S41">
+        <f t="shared" ref="S41:S51" si="5">120*B41/100</f>
+        <v>132</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -4069,7 +5327,7 @@
         <v>46</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="F42">
@@ -4096,8 +5354,24 @@
       <c r="N42" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="1"/>
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -4111,7 +5385,7 @@
         <v>50</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="F43">
@@ -4138,8 +5412,24 @@
       <c r="N43" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -4153,7 +5443,7 @@
         <v>21</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="F44">
@@ -4180,8 +5470,24 @@
       <c r="N44" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <f t="shared" si="0"/>
+        <v>1.9E-3</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="1"/>
+        <v>7.6E-3</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -4195,7 +5501,7 @@
         <v>17</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14.5</v>
       </c>
       <c r="F45">
@@ -4222,8 +5528,24 @@
       <c r="N45" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <f t="shared" si="0"/>
+        <v>1.4499999999999999E-3</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="1"/>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -4237,7 +5559,7 @@
         <v>13</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F46">
@@ -4264,8 +5586,24 @@
       <c r="N46" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -4306,8 +5644,24 @@
       <c r="N47" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -4321,7 +5675,7 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F48">
@@ -4348,8 +5702,24 @@
       <c r="N48" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -4390,8 +5760,24 @@
       <c r="N49" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -4405,7 +5791,7 @@
         <v>6</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F50">
@@ -4432,8 +5818,24 @@
       <c r="N50" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="1"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -4447,7 +5849,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F51">
@@ -4474,8 +5876,24 @@
       <c r="N51" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <f t="shared" si="0"/>
+        <v>1E-4</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>124</v>
       </c>
@@ -4489,7 +5907,7 @@
         <v>40</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>34.5</v>
       </c>
       <c r="F52">
@@ -4516,8 +5934,24 @@
       <c r="N52" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <f t="shared" si="0"/>
+        <v>3.4499999999999999E-3</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="1"/>
+        <v>1.38E-2</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="2"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>125</v>
       </c>
@@ -4531,7 +5965,7 @@
         <v>27</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="F53">
@@ -4558,8 +5992,24 @@
       <c r="N53" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <f t="shared" si="0"/>
+        <v>2.3E-3</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="2"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>126</v>
       </c>
@@ -4573,7 +6023,7 @@
         <v>13</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="F54">
@@ -4600,8 +6050,24 @@
       <c r="N54" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="2"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -4642,8 +6108,24 @@
       <c r="N55" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q55">
+        <f t="shared" si="0"/>
+        <v>1.65E-3</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="1"/>
+        <v>6.6E-3</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="2"/>
+        <v>57.6</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -4657,7 +6139,7 @@
         <v>12</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F56">
@@ -4684,8 +6166,24 @@
       <c r="N56" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q56">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="2"/>
+        <v>21.12</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -4699,7 +6197,7 @@
         <v>5</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="F57">
@@ -4726,8 +6224,24 @@
       <c r="N57" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q57">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="2"/>
+        <v>60.8</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -4759,8 +6273,24 @@
       <c r="M58" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q58">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="2"/>
+        <v>25.6</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -4774,7 +6304,7 @@
         <v>3</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E59:E77" si="1">AVERAGE(C59,D59)</f>
+        <f t="shared" ref="E59:E77" si="6">AVERAGE(C59,D59)</f>
         <v>2.5</v>
       </c>
       <c r="F59">
@@ -4792,8 +6322,24 @@
       <c r="M59" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="2"/>
+        <v>23.04</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>262</v>
       </c>
@@ -4807,7 +6353,7 @@
         <v>3</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="F60">
@@ -4831,8 +6377,24 @@
       <c r="O60" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q60">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="2"/>
+        <v>51.2</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -4846,7 +6408,7 @@
         <v>3</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="F61">
@@ -4870,8 +6432,24 @@
       <c r="O61" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="2"/>
+        <v>37.119999999999997</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -4885,7 +6463,7 @@
         <v>3</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="F62">
@@ -4903,8 +6481,24 @@
       <c r="M62" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q62">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="2"/>
+        <v>38.4</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -4918,7 +6512,7 @@
         <v>3</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="F63">
@@ -4936,8 +6530,24 @@
       <c r="M63" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q63">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="2"/>
+        <v>50.56</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -4951,7 +6561,7 @@
         <v>3</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="F64">
@@ -4975,8 +6585,24 @@
       <c r="O64" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q64">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="2"/>
+        <v>32.64</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -4990,7 +6616,7 @@
         <v>3</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="F65">
@@ -5014,8 +6640,24 @@
       <c r="O65" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q65">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="2"/>
+        <v>42.88</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>104</v>
       </c>
@@ -5029,7 +6671,7 @@
         <v>3</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="F66">
@@ -5053,8 +6695,24 @@
       <c r="M66" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q66">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="2"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -5068,7 +6726,7 @@
         <v>3</v>
       </c>
       <c r="E67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="F67">
@@ -5092,8 +6750,24 @@
       <c r="O67" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q67">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="2"/>
+        <v>33.92</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -5107,7 +6781,7 @@
         <v>84</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="F68">
@@ -5131,8 +6805,24 @@
       <c r="M68" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q68">
+        <f t="shared" si="0"/>
+        <v>7.6E-3</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="1"/>
+        <v>3.04E-2</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="2"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -5146,7 +6836,7 @@
         <v>3</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="F69">
@@ -5170,8 +6860,24 @@
       <c r="O69" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q69">
+        <f t="shared" ref="Q69:Q98" si="7">E69/10000</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R69">
+        <f t="shared" ref="R69:R98" si="8">E69/2500</f>
+        <v>1E-3</v>
+      </c>
+      <c r="S69">
+        <f t="shared" ref="S69:S98" si="9">64*B69/100</f>
+        <v>62.08</v>
+      </c>
+      <c r="T69">
+        <f t="shared" ref="T69:T98" si="10">ROUNDUP(E69/15,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -5185,7 +6891,7 @@
         <v>3</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="F70">
@@ -5203,8 +6909,24 @@
       <c r="M70" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q70">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="8"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="9"/>
+        <v>26.24</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -5218,7 +6940,7 @@
         <v>3</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="F71">
@@ -5242,8 +6964,24 @@
       <c r="O71" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q71">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="8"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="9"/>
+        <v>55.04</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -5257,7 +6995,7 @@
         <v>84</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="F72">
@@ -5281,8 +7019,24 @@
       <c r="M72" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q72">
+        <f t="shared" si="7"/>
+        <v>7.6E-3</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="8"/>
+        <v>3.04E-2</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="9"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -5296,7 +7050,7 @@
         <v>2</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F73">
@@ -5320,8 +7074,24 @@
       <c r="M73" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q73">
+        <f t="shared" si="7"/>
+        <v>1E-4</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="8"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="9"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>29</v>
       </c>
@@ -5335,7 +7105,7 @@
         <v>3</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="F74">
@@ -5365,8 +7135,24 @@
       <c r="O74" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q74">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="8"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="9"/>
+        <v>46.08</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -5380,7 +7166,7 @@
         <v>84</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="F75">
@@ -5404,8 +7190,24 @@
       <c r="M75" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q75">
+        <f t="shared" si="7"/>
+        <v>7.6E-3</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="8"/>
+        <v>3.04E-2</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="9"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>35</v>
       </c>
@@ -5419,7 +7221,7 @@
         <v>3</v>
       </c>
       <c r="E76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="F76">
@@ -5443,8 +7245,24 @@
       <c r="M76" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q76">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="8"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="9"/>
+        <v>19.2</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -5458,7 +7276,7 @@
         <v>38</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="F77">
@@ -5488,8 +7306,24 @@
       <c r="O77" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q77">
+        <f t="shared" si="7"/>
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="8"/>
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="9"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -5503,7 +7337,7 @@
         <v>36</v>
       </c>
       <c r="E78">
-        <f t="shared" ref="E78:E87" si="2">AVERAGE(C78,D78)</f>
+        <f t="shared" ref="E78:E87" si="11">AVERAGE(C78,D78)</f>
         <v>31.5</v>
       </c>
       <c r="F78">
@@ -5530,8 +7364,24 @@
       <c r="O78" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q78">
+        <f t="shared" si="7"/>
+        <v>3.15E-3</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="8"/>
+        <v>1.26E-2</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="9"/>
+        <v>45.44</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -5545,7 +7395,7 @@
         <v>72</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>62.5</v>
       </c>
       <c r="F79">
@@ -5563,8 +7413,24 @@
       <c r="M79" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q79">
+        <f t="shared" si="7"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="8"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="9"/>
+        <v>62.08</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -5578,7 +7444,7 @@
         <v>3</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="F80">
@@ -5602,8 +7468,24 @@
       <c r="M80" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q80">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="8"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="9"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -5617,7 +7499,7 @@
         <v>3</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="F81">
@@ -5641,8 +7523,24 @@
       <c r="O81" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q81">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="8"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="9"/>
+        <v>50.56</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -5656,7 +7554,7 @@
         <v>3</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="F82">
@@ -5674,8 +7572,24 @@
       <c r="M82" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q82">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="8"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="9"/>
+        <v>62.08</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -5689,7 +7603,7 @@
         <v>3</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="F83">
@@ -5707,8 +7621,24 @@
       <c r="M83" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q83">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="8"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="9"/>
+        <v>53.76</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -5722,7 +7652,7 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="F84">
@@ -5740,8 +7670,24 @@
       <c r="M84" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q84">
+        <f t="shared" si="7"/>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -5755,7 +7701,7 @@
         <v>3</v>
       </c>
       <c r="E85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="F85">
@@ -5779,8 +7725,24 @@
       <c r="M85" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q85">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="8"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="9"/>
+        <v>56.32</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -5794,7 +7756,7 @@
         <v>3</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="F86">
@@ -5818,8 +7780,24 @@
       <c r="O86" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q86">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="8"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="9"/>
+        <v>28.8</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -5833,7 +7811,7 @@
         <v>3</v>
       </c>
       <c r="E87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
       <c r="F87">
@@ -5851,8 +7829,24 @@
       <c r="M87" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q87">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="8"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="9"/>
+        <v>22.4</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -5866,7 +7860,7 @@
         <v>3</v>
       </c>
       <c r="E88">
-        <f t="shared" ref="E88:E94" si="3">AVERAGE(C88,D88)</f>
+        <f t="shared" ref="E88:E94" si="12">AVERAGE(C88,D88)</f>
         <v>2.5</v>
       </c>
       <c r="F88">
@@ -5896,8 +7890,24 @@
       <c r="O88" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q88">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="8"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="9"/>
+        <v>40.96</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -5911,7 +7921,7 @@
         <v>3</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
       <c r="F89">
@@ -5935,8 +7945,24 @@
       <c r="M89" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q89">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="8"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="9"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -5950,7 +7976,7 @@
         <v>3</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
       <c r="F90">
@@ -5980,8 +8006,24 @@
       <c r="O90" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q90">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="8"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="9"/>
+        <v>26.88</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -5995,7 +8037,7 @@
         <v>3</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
       <c r="F91">
@@ -6025,8 +8067,24 @@
       <c r="O91" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q91">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="8"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="9"/>
+        <v>62.08</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>32</v>
       </c>
@@ -6040,7 +8098,7 @@
         <v>12</v>
       </c>
       <c r="E92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="F92">
@@ -6064,8 +8122,24 @@
       <c r="M92" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q92">
+        <f t="shared" si="7"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="8"/>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="9"/>
+        <v>21.12</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -6079,7 +8153,7 @@
         <v>3</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
       <c r="F93">
@@ -6103,8 +8177,24 @@
       <c r="M93" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q93">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="8"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="9"/>
+        <v>40.32</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>34</v>
       </c>
@@ -6118,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="E94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
       <c r="F94">
@@ -6142,8 +8232,24 @@
       <c r="M94" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q94">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="8"/>
+        <v>1E-3</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="9"/>
+        <v>19.2</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>53</v>
       </c>
@@ -6184,8 +8290,24 @@
       <c r="N95" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q95">
+        <f t="shared" si="7"/>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="8"/>
+        <v>2.8E-3</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="9"/>
+        <v>14.08</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>54</v>
       </c>
@@ -6226,8 +8348,24 @@
       <c r="N96" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q96">
+        <f t="shared" si="7"/>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="8"/>
+        <v>2.8E-3</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="9"/>
+        <v>14.08</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>55</v>
       </c>
@@ -6268,8 +8406,24 @@
       <c r="N97" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q97">
+        <f t="shared" si="7"/>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="8"/>
+        <v>2.8E-3</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="9"/>
+        <v>14.08</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>56</v>
       </c>
@@ -6309,6 +8463,22 @@
       </c>
       <c r="N98" t="s">
         <v>246</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="7"/>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="8"/>
+        <v>2.8E-3</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="9"/>
+        <v>14.08</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6316,7 +8486,7 @@
     <sortCondition ref="J55:J91"/>
   </sortState>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6330,7 +8500,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6344,7 +8514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6358,7 +8528,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1048576">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6372,7 +8542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6385,57 +8555,113 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O60:O91">
-    <cfRule type="cellIs" dxfId="71" priority="15" operator="equal">
+  <conditionalFormatting sqref="O60:P91">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="69" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
       <formula>"rock"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
       <formula>"gem"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
       <formula>"metal, fantasy"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
       <formula>"metal, nether"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
       <formula>"metal, ender"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
       <formula>"metal, precious"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
       <formula>"metal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
       <formula>"fruit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
       <formula>"utility"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O21:O22 M1:N1048576">
-    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
+  <conditionalFormatting sqref="O21:P22 M1:N1048576">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O15">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+  <conditionalFormatting sqref="O15:P15">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C0F29000-9DBB-4CFA-9FFA-431FE5752635}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1048576">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{05F4DFCA-44C5-4E84-B907-41DC2EDE51F4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1048576">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D10E24FC-244D-44C3-8E58-FCFB7F300932}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5FE04BEE-81D7-4E6A-98E3-9FD0333BAF97}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6500,6 +8726,50 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C0F29000-9DBB-4CFA-9FFA-431FE5752635}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q1:Q1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{05F4DFCA-44C5-4E84-B907-41DC2EDE51F4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>R1:R1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D10E24FC-244D-44C3-8E58-FCFB7F300932}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S1:S1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5FE04BEE-81D7-4E6A-98E3-9FD0333BAF97}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T1:T1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -11495,55 +13765,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N118:N1048576 N1:N115">
-    <cfRule type="cellIs" dxfId="56" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="81" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="82" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:P7 O8 Q8 O118:P1048576 O9:P115">
-    <cfRule type="cellIs" dxfId="54" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="79" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="80" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D115 D118:D1048576">
-    <cfRule type="containsText" dxfId="52" priority="61" operator="containsText" text="dire">
+    <cfRule type="containsText" dxfId="82" priority="61" operator="containsText" text="dire">
       <formula>NOT(ISERROR(SEARCH("dire",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="62" operator="containsText" text="skullfire">
+    <cfRule type="containsText" dxfId="81" priority="62" operator="containsText" text="skullfire">
       <formula>NOT(ISERROR(SEARCH("skullfire",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="63" operator="containsText" text="cosmic">
+    <cfRule type="containsText" dxfId="80" priority="63" operator="containsText" text="cosmic">
       <formula>NOT(ISERROR(SEARCH("cosmic",D1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="70" operator="equal">
       <formula>"supermassive"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="71" operator="containsText" text="reinforced">
+    <cfRule type="containsText" dxfId="78" priority="71" operator="containsText" text="reinforced">
       <formula>NOT(ISERROR(SEARCH("reinforced",D1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="72" operator="equal">
       <formula>"none"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="73" operator="containsText" text="stonebound">
+    <cfRule type="containsText" dxfId="76" priority="73" operator="containsText" text="stonebound">
       <formula>NOT(ISERROR(SEARCH("stonebound",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E115 E118:E1048576">
-    <cfRule type="cellIs" dxfId="45" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="74" operator="equal">
       <formula>"part builder, part cast"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
       <formula>"dire crafting table"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="76" operator="equal">
       <formula>"part builder"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="77" operator="equal">
       <formula>"part cast"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11560,7 +13830,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="69" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11579,17 +13849,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J115 J118:J1048576">
-    <cfRule type="cellIs" dxfId="40" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="65" operator="equal">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L115 L118:L1048576">
-    <cfRule type="cellIs" dxfId="39" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="64" operator="equal">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86:I115 I1:I84 I118:I1048576">
-    <cfRule type="cellIs" dxfId="38" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="261" operator="equal">
       <formula>40</formula>
     </cfRule>
     <cfRule type="dataBar" priority="262">
@@ -11716,55 +13986,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N116">
-    <cfRule type="cellIs" dxfId="37" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="49" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="50" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O116:P116">
-    <cfRule type="cellIs" dxfId="35" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="47" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="48" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D116">
-    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="dire">
+    <cfRule type="containsText" dxfId="63" priority="31" operator="containsText" text="dire">
       <formula>NOT(ISERROR(SEARCH("dire",D116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="skullfire">
+    <cfRule type="containsText" dxfId="62" priority="32" operator="containsText" text="skullfire">
       <formula>NOT(ISERROR(SEARCH("skullfire",D116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="cosmic">
+    <cfRule type="containsText" dxfId="61" priority="33" operator="containsText" text="cosmic">
       <formula>NOT(ISERROR(SEARCH("cosmic",D116)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="39" operator="equal">
       <formula>"supermassive"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="40" operator="containsText" text="reinforced">
+    <cfRule type="containsText" dxfId="59" priority="40" operator="containsText" text="reinforced">
       <formula>NOT(ISERROR(SEARCH("reinforced",D116)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="41" operator="equal">
       <formula>"none"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="42" operator="containsText" text="stonebound">
+    <cfRule type="containsText" dxfId="57" priority="42" operator="containsText" text="stonebound">
       <formula>NOT(ISERROR(SEARCH("stonebound",D116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="26" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="43" operator="equal">
       <formula>"part builder, part cast"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="44" operator="equal">
       <formula>"dire crafting table"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="45" operator="equal">
       <formula>"part builder"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="46" operator="equal">
       <formula>"part cast"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11781,7 +14051,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="38" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11800,17 +14070,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J116">
-    <cfRule type="cellIs" dxfId="21" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="35" operator="equal">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L116">
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116">
-    <cfRule type="cellIs" dxfId="19" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="56" operator="equal">
       <formula>40</formula>
     </cfRule>
     <cfRule type="dataBar" priority="57">
@@ -11937,55 +14207,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N117">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="19" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="20" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O117:P117">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="17" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="18" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D117">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="dire">
+    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="dire">
       <formula>NOT(ISERROR(SEARCH("dire",D117)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="skullfire">
+    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="skullfire">
       <formula>NOT(ISERROR(SEARCH("skullfire",D117)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="cosmic">
+    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="cosmic">
       <formula>NOT(ISERROR(SEARCH("cosmic",D117)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
       <formula>"supermassive"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="reinforced">
+    <cfRule type="containsText" dxfId="40" priority="10" operator="containsText" text="reinforced">
       <formula>NOT(ISERROR(SEARCH("reinforced",D117)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
       <formula>"none"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="stonebound">
+    <cfRule type="containsText" dxfId="38" priority="12" operator="containsText" text="stonebound">
       <formula>NOT(ISERROR(SEARCH("stonebound",D117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
       <formula>"part builder, part cast"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="14" operator="equal">
       <formula>"dire crafting table"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
       <formula>"part builder"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
       <formula>"part cast"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12002,7 +14272,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12021,17 +14291,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J117">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L117">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
       <formula>40</formula>
     </cfRule>
     <cfRule type="dataBar" priority="27">
@@ -12558,7 +14828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>

--- a/The Lemon Taco spreadsheet edition.xlsx
+++ b/The Lemon Taco spreadsheet edition.xlsx
@@ -2980,10 +2980,10 @@
   <dimension ref="A1:T98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O46" sqref="O46"/>
+      <selection pane="bottomRight" activeCell="V43" sqref="V43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3006,7 +3006,7 @@
     <col min="16" max="16" width="13.25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.25" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3142,16 +3142,16 @@
         <v>246</v>
       </c>
       <c r="Q4">
-        <f>E4/10000</f>
-        <v>1.15E-2</v>
+        <f t="shared" ref="Q4:Q18" si="0">E4/5000</f>
+        <v>2.3E-2</v>
       </c>
       <c r="R4">
-        <f>E4/2500</f>
-        <v>4.5999999999999999E-2</v>
+        <f t="shared" ref="R4:R67" si="1">Q4*4</f>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="S4">
-        <f>64*B4/100</f>
-        <v>70.400000000000006</v>
+        <f>ROUND(64*B4/100,0)</f>
+        <v>70</v>
       </c>
       <c r="T4">
         <f>ROUNDUP(E4/15,0)</f>
@@ -3203,16 +3203,16 @@
         <v>246</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q68" si="0">E5/10000</f>
-        <v>3.8999999999999998E-3</v>
+        <f t="shared" si="0"/>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:R68" si="1">E5/2500</f>
-        <v>1.5599999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.1199999999999999E-2</v>
       </c>
       <c r="S5">
-        <f t="shared" ref="S5:S68" si="2">64*B5/100</f>
-        <v>70.400000000000006</v>
+        <f t="shared" ref="S5:S68" si="2">ROUND(64*B5/100,0)</f>
+        <v>70</v>
       </c>
       <c r="T5">
         <f t="shared" ref="T5:T68" si="3">ROUNDUP(E5/15,0)</f>
@@ -3265,15 +3265,15 @@
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>3.7499999999999999E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="R6">
         <f t="shared" si="1"/>
-        <v>1.4999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="S6">
         <f t="shared" si="2"/>
-        <v>70.400000000000006</v>
+        <v>70</v>
       </c>
       <c r="T6">
         <f t="shared" si="3"/>
@@ -3320,15 +3320,15 @@
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>3.2000000000000002E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="R7">
         <f t="shared" si="1"/>
-        <v>1.2800000000000001E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="S7">
         <f t="shared" si="2"/>
-        <v>70.400000000000006</v>
+        <v>70</v>
       </c>
       <c r="T7">
         <f t="shared" si="3"/>
@@ -3381,15 +3381,15 @@
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>3.9500000000000004E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="R8">
         <f t="shared" si="1"/>
-        <v>1.5800000000000002E-2</v>
+        <v>3.1600000000000003E-2</v>
       </c>
       <c r="S8">
         <f t="shared" si="2"/>
-        <v>70.400000000000006</v>
+        <v>70</v>
       </c>
       <c r="T8">
         <f t="shared" si="3"/>
@@ -3442,15 +3442,15 @@
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>4.15E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="R9">
         <f t="shared" si="1"/>
-        <v>1.66E-2</v>
+        <v>3.32E-2</v>
       </c>
       <c r="S9">
         <f t="shared" si="2"/>
-        <v>70.400000000000006</v>
+        <v>70</v>
       </c>
       <c r="T9">
         <f t="shared" si="3"/>
@@ -3503,15 +3503,15 @@
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
-        <v>4.15E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="R10">
         <f t="shared" si="1"/>
-        <v>1.66E-2</v>
+        <v>3.32E-2</v>
       </c>
       <c r="S10">
         <f t="shared" si="2"/>
-        <v>70.400000000000006</v>
+        <v>70</v>
       </c>
       <c r="T10">
         <f t="shared" si="3"/>
@@ -3564,15 +3564,15 @@
       </c>
       <c r="Q11">
         <f t="shared" si="0"/>
-        <v>3.5999999999999999E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="R11">
         <f t="shared" si="1"/>
-        <v>1.44E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="S11">
         <f t="shared" si="2"/>
-        <v>70.400000000000006</v>
+        <v>70</v>
       </c>
       <c r="T11">
         <f t="shared" si="3"/>
@@ -3619,15 +3619,15 @@
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
-        <v>4.1999999999999997E-3</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="R12">
         <f t="shared" si="1"/>
-        <v>1.6799999999999999E-2</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="S12">
         <f t="shared" si="2"/>
-        <v>70.400000000000006</v>
+        <v>70</v>
       </c>
       <c r="T12">
         <f t="shared" si="3"/>
@@ -3674,15 +3674,15 @@
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
-        <v>9.5E-4</v>
+        <v>1.9E-3</v>
       </c>
       <c r="R13">
         <f t="shared" si="1"/>
-        <v>3.8E-3</v>
+        <v>7.6E-3</v>
       </c>
       <c r="S13">
         <f t="shared" si="2"/>
-        <v>33.28</v>
+        <v>33</v>
       </c>
       <c r="T13">
         <f t="shared" si="3"/>
@@ -3732,15 +3732,15 @@
       </c>
       <c r="Q14">
         <f t="shared" si="0"/>
-        <v>8.0000000000000004E-4</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="R14">
         <f t="shared" si="1"/>
-        <v>3.2000000000000002E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="S14">
         <f t="shared" si="2"/>
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="T14">
         <f t="shared" si="3"/>
@@ -3793,15 +3793,15 @@
       </c>
       <c r="Q15">
         <f t="shared" si="0"/>
-        <v>8.0000000000000004E-4</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="R15">
         <f t="shared" si="1"/>
-        <v>3.2000000000000002E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="S15">
         <f t="shared" si="2"/>
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="T15">
         <f t="shared" si="3"/>
@@ -3851,15 +3851,15 @@
       </c>
       <c r="Q16">
         <f t="shared" si="0"/>
-        <v>3.0999999999999999E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="R16">
         <f t="shared" si="1"/>
-        <v>1.24E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="S16">
         <f t="shared" si="2"/>
-        <v>44.8</v>
+        <v>45</v>
       </c>
       <c r="T16">
         <f t="shared" si="3"/>
@@ -3909,15 +3909,15 @@
       </c>
       <c r="Q17">
         <f t="shared" si="0"/>
-        <v>3.0999999999999999E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="R17">
         <f t="shared" si="1"/>
-        <v>1.24E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="S17">
         <f t="shared" si="2"/>
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="T17">
         <f t="shared" si="3"/>
@@ -3970,15 +3970,15 @@
       </c>
       <c r="Q18">
         <f t="shared" si="0"/>
-        <v>3.0999999999999999E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="R18">
         <f t="shared" si="1"/>
-        <v>1.24E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="S18">
         <f t="shared" si="2"/>
-        <v>44.8</v>
+        <v>45</v>
       </c>
       <c r="T18">
         <f t="shared" si="3"/>
@@ -4027,16 +4027,16 @@
         <v>246</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="0"/>
-        <v>8.9499999999999996E-3</v>
+        <f>E19/5000</f>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="R19">
         <f t="shared" si="1"/>
-        <v>3.5799999999999998E-2</v>
+        <v>7.1599999999999997E-2</v>
       </c>
       <c r="S19">
         <f t="shared" si="2"/>
-        <v>70.400000000000006</v>
+        <v>70</v>
       </c>
       <c r="T19">
         <f t="shared" si="3"/>
@@ -4085,16 +4085,16 @@
         <v>246</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="0"/>
-        <v>7.1000000000000004E-3</v>
+        <f t="shared" ref="Q20:Q83" si="5">E20/5000</f>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="R20">
         <f t="shared" si="1"/>
-        <v>2.8400000000000002E-2</v>
+        <v>5.6800000000000003E-2</v>
       </c>
       <c r="S20">
         <f t="shared" si="2"/>
-        <v>60.8</v>
+        <v>61</v>
       </c>
       <c r="T20">
         <f t="shared" si="3"/>
@@ -4143,16 +4143,16 @@
         <v>246</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="0"/>
-        <v>6.1000000000000004E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="R21">
         <f t="shared" si="1"/>
-        <v>2.4400000000000002E-2</v>
+        <v>4.8800000000000003E-2</v>
       </c>
       <c r="S21">
         <f t="shared" si="2"/>
-        <v>52.48</v>
+        <v>52</v>
       </c>
       <c r="T21">
         <f t="shared" si="3"/>
@@ -4201,12 +4201,12 @@
         <v>246</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="0"/>
-        <v>4.1999999999999997E-3</v>
+        <f t="shared" si="5"/>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="R22">
         <f t="shared" si="1"/>
-        <v>1.6799999999999999E-2</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="S22">
         <f t="shared" si="2"/>
@@ -4259,16 +4259,16 @@
         <v>246</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="0"/>
-        <v>2.8500000000000001E-3</v>
+        <f t="shared" si="5"/>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="R23">
         <f t="shared" si="1"/>
-        <v>1.14E-2</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="S23">
         <f t="shared" si="2"/>
-        <v>43.52</v>
+        <v>44</v>
       </c>
       <c r="T23">
         <f t="shared" si="3"/>
@@ -4317,16 +4317,16 @@
         <v>246</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="0"/>
-        <v>2.9499999999999999E-3</v>
+        <f t="shared" si="5"/>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="R24">
         <f t="shared" si="1"/>
-        <v>1.18E-2</v>
+        <v>2.3599999999999999E-2</v>
       </c>
       <c r="S24">
         <f t="shared" si="2"/>
-        <v>60.8</v>
+        <v>61</v>
       </c>
       <c r="T24">
         <f t="shared" si="3"/>
@@ -4375,16 +4375,16 @@
         <v>246</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="0"/>
-        <v>1.6000000000000001E-3</v>
+        <f t="shared" si="5"/>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="R25">
         <f t="shared" si="1"/>
-        <v>6.4000000000000003E-3</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="S25">
         <f t="shared" si="2"/>
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="T25">
         <f t="shared" si="3"/>
@@ -4433,16 +4433,16 @@
         <v>246</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="0"/>
-        <v>8.9999999999999998E-4</v>
+        <f t="shared" si="5"/>
+        <v>1.8E-3</v>
       </c>
       <c r="R26">
         <f t="shared" si="1"/>
-        <v>3.5999999999999999E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="S26">
         <f t="shared" si="2"/>
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="T26">
         <f t="shared" si="3"/>
@@ -4491,16 +4491,16 @@
         <v>246</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="0"/>
-        <v>2.0000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="R27">
         <f t="shared" si="1"/>
-        <v>8.0000000000000004E-4</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="S27">
         <f t="shared" si="2"/>
-        <v>22.4</v>
+        <v>22</v>
       </c>
       <c r="T27">
         <f t="shared" si="3"/>
@@ -4546,16 +4546,16 @@
         <v>246</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
+        <f t="shared" si="5"/>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="R28">
         <f t="shared" si="1"/>
-        <v>1.2E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="S28">
         <f t="shared" si="2"/>
-        <v>70.400000000000006</v>
+        <v>70</v>
       </c>
       <c r="T28">
         <f t="shared" si="3"/>
@@ -4601,16 +4601,16 @@
         <v>246</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="0"/>
-        <v>2.2499999999999998E-3</v>
+        <f t="shared" si="5"/>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="R29">
         <f t="shared" si="1"/>
-        <v>8.9999999999999993E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="S29">
         <f t="shared" si="2"/>
-        <v>70.400000000000006</v>
+        <v>70</v>
       </c>
       <c r="T29">
         <f t="shared" si="3"/>
@@ -4656,16 +4656,16 @@
         <v>246</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="0"/>
-        <v>1.75E-3</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="R30">
         <f t="shared" si="1"/>
-        <v>7.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="S30">
         <f t="shared" si="2"/>
-        <v>60.8</v>
+        <v>61</v>
       </c>
       <c r="T30">
         <f t="shared" si="3"/>
@@ -4714,16 +4714,16 @@
         <v>246</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="0"/>
-        <v>1.4E-3</v>
+        <f t="shared" si="5"/>
+        <v>2.8E-3</v>
       </c>
       <c r="R31">
         <f t="shared" si="1"/>
-        <v>5.5999999999999999E-3</v>
+        <v>1.12E-2</v>
       </c>
       <c r="S31">
         <f t="shared" si="2"/>
-        <v>58.88</v>
+        <v>59</v>
       </c>
       <c r="T31">
         <f t="shared" si="3"/>
@@ -4775,18 +4775,18 @@
         <v>279</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001E-3</v>
+        <f t="shared" si="5"/>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="R32">
         <f t="shared" si="1"/>
-        <v>4.4000000000000003E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="S32">
         <f t="shared" si="2"/>
-        <v>54.4</v>
-      </c>
-      <c r="T32">
+        <v>54</v>
+      </c>
+      <c r="T32" s="11">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -4833,16 +4833,16 @@
         <v>246</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="0"/>
-        <v>8.9999999999999998E-4</v>
+        <f t="shared" si="5"/>
+        <v>1.8E-3</v>
       </c>
       <c r="R33">
         <f t="shared" si="1"/>
-        <v>3.5999999999999999E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="S33">
         <f t="shared" si="2"/>
-        <v>52.48</v>
+        <v>52</v>
       </c>
       <c r="T33">
         <f t="shared" si="3"/>
@@ -4891,16 +4891,16 @@
         <v>246</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="0"/>
-        <v>5.5000000000000003E-4</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="R34">
         <f t="shared" si="1"/>
-        <v>2.2000000000000001E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="S34">
         <f t="shared" si="2"/>
-        <v>44.8</v>
+        <v>45</v>
       </c>
       <c r="T34">
         <f t="shared" si="3"/>
@@ -4949,16 +4949,16 @@
         <v>246</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="R35">
-        <f t="shared" si="1"/>
-        <v>1.1999999999999999E-3</v>
+        <f>Q35*4</f>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="S35">
         <f t="shared" si="2"/>
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="T35">
         <f t="shared" si="3"/>
@@ -5007,12 +5007,12 @@
         <v>246</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="0"/>
-        <v>1.4999999999999999E-4</v>
+        <f t="shared" si="5"/>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="R36">
         <f t="shared" si="1"/>
-        <v>5.9999999999999995E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="S36">
         <f t="shared" si="2"/>
@@ -5065,16 +5065,16 @@
         <v>246</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="0"/>
-        <v>2.0000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="R37">
         <f t="shared" si="1"/>
-        <v>8.0000000000000004E-4</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="S37">
         <f t="shared" si="2"/>
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="T37">
         <f t="shared" si="3"/>
@@ -5123,16 +5123,16 @@
         <v>246</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="0"/>
-        <v>1E-4</v>
+        <f t="shared" si="5"/>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="R38">
         <f t="shared" si="1"/>
-        <v>4.0000000000000002E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="S38">
         <f t="shared" si="2"/>
-        <v>21.12</v>
+        <v>21</v>
       </c>
       <c r="T38">
         <f t="shared" si="3"/>
@@ -5181,16 +5181,16 @@
         <v>246</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="0"/>
-        <v>1E-4</v>
+        <f t="shared" si="5"/>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="R39">
         <f t="shared" si="1"/>
-        <v>4.0000000000000002E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="S39">
         <f t="shared" si="2"/>
-        <v>21.12</v>
+        <v>21</v>
       </c>
       <c r="T39">
         <f t="shared" si="3"/>
@@ -5239,15 +5239,15 @@
         <v>246</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="0"/>
-        <v>6.3499999999999997E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="R40">
         <f t="shared" si="1"/>
-        <v>2.5399999999999999E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="S40">
-        <f>120*B40/100</f>
+        <f>ROUND(120*B40/100,0)</f>
         <v>84</v>
       </c>
       <c r="T40">
@@ -5297,15 +5297,15 @@
         <v>246</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="0"/>
-        <v>5.2500000000000003E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="R41">
         <f t="shared" si="1"/>
-        <v>2.1000000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="S41">
-        <f t="shared" ref="S41:S51" si="5">120*B41/100</f>
+        <f t="shared" ref="S41:S54" si="6">ROUND(120*B41/100,0)</f>
         <v>132</v>
       </c>
       <c r="T41">
@@ -5355,15 +5355,15 @@
         <v>246</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="0"/>
-        <v>4.1000000000000003E-3</v>
+        <f t="shared" si="5"/>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="R42">
         <f t="shared" si="1"/>
-        <v>1.6400000000000001E-2</v>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="S42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132</v>
       </c>
       <c r="T42">
@@ -5413,15 +5413,15 @@
         <v>246</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-3</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="R43">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="S43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132</v>
       </c>
       <c r="T43">
@@ -5471,15 +5471,15 @@
         <v>246</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="0"/>
-        <v>1.9E-3</v>
+        <f t="shared" si="5"/>
+        <v>3.8E-3</v>
       </c>
       <c r="R44">
         <f t="shared" si="1"/>
-        <v>7.6E-3</v>
+        <v>1.52E-2</v>
       </c>
       <c r="S44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132</v>
       </c>
       <c r="T44">
@@ -5529,15 +5529,15 @@
         <v>246</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="0"/>
-        <v>1.4499999999999999E-3</v>
+        <f t="shared" si="5"/>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="R45">
         <f t="shared" si="1"/>
-        <v>5.7999999999999996E-3</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="S45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132</v>
       </c>
       <c r="T45">
@@ -5587,15 +5587,15 @@
         <v>246</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <f t="shared" si="5"/>
+        <v>2E-3</v>
       </c>
       <c r="R46">
         <f t="shared" si="1"/>
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="S46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132</v>
       </c>
       <c r="T46">
@@ -5645,15 +5645,15 @@
         <v>246</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="0"/>
-        <v>5.9999999999999995E-4</v>
+        <f t="shared" si="5"/>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="R47">
         <f t="shared" si="1"/>
-        <v>2.3999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="S47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132</v>
       </c>
       <c r="T47">
@@ -5703,15 +5703,15 @@
         <v>246</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="0"/>
-        <v>5.9999999999999995E-4</v>
+        <f t="shared" si="5"/>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="R48">
         <f t="shared" si="1"/>
-        <v>2.3999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="S48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132</v>
       </c>
       <c r="T48">
@@ -5761,15 +5761,15 @@
         <v>246</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="0"/>
-        <v>5.9999999999999995E-4</v>
+        <f t="shared" si="5"/>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="R49">
         <f t="shared" si="1"/>
-        <v>2.3999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="S49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>132</v>
       </c>
       <c r="T49">
@@ -5819,15 +5819,15 @@
         <v>246</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
+        <f t="shared" si="5"/>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="R50">
         <f t="shared" si="1"/>
-        <v>1.6000000000000001E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="S50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="T50">
@@ -5877,15 +5877,15 @@
         <v>246</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="0"/>
-        <v>1E-4</v>
+        <f t="shared" si="5"/>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="R51">
         <f t="shared" si="1"/>
-        <v>4.0000000000000002E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="S51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="T51">
@@ -5935,16 +5935,16 @@
         <v>245</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="0"/>
-        <v>3.4499999999999999E-3</v>
+        <f t="shared" si="5"/>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="R52">
         <f t="shared" si="1"/>
-        <v>1.38E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="S52">
-        <f t="shared" si="2"/>
-        <v>70.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>132</v>
       </c>
       <c r="T52">
         <f t="shared" si="3"/>
@@ -5993,16 +5993,16 @@
         <v>245</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="0"/>
-        <v>2.3E-3</v>
+        <f t="shared" si="5"/>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="R53">
         <f t="shared" si="1"/>
-        <v>9.1999999999999998E-3</v>
+        <v>1.84E-2</v>
       </c>
       <c r="S53">
-        <f t="shared" si="2"/>
-        <v>70.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>132</v>
       </c>
       <c r="T53">
         <f t="shared" si="3"/>
@@ -6051,16 +6051,16 @@
         <v>245</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="0"/>
-        <v>8.9999999999999998E-4</v>
+        <f t="shared" si="5"/>
+        <v>1.8E-3</v>
       </c>
       <c r="R54">
         <f t="shared" si="1"/>
-        <v>3.5999999999999999E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="S54">
-        <f t="shared" si="2"/>
-        <v>70.400000000000006</v>
+        <f t="shared" si="6"/>
+        <v>132</v>
       </c>
       <c r="T54">
         <f t="shared" si="3"/>
@@ -6109,16 +6109,16 @@
         <v>246</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="0"/>
-        <v>1.65E-3</v>
+        <f t="shared" si="5"/>
+        <v>3.3E-3</v>
       </c>
       <c r="R55">
         <f t="shared" si="1"/>
-        <v>6.6E-3</v>
+        <v>1.32E-2</v>
       </c>
       <c r="S55">
         <f t="shared" si="2"/>
-        <v>57.6</v>
+        <v>58</v>
       </c>
       <c r="T55">
         <f t="shared" si="3"/>
@@ -6167,16 +6167,16 @@
         <v>246</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000004E-4</v>
+        <f t="shared" si="5"/>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="R56">
         <f t="shared" si="1"/>
-        <v>3.2000000000000002E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="S56">
         <f t="shared" si="2"/>
-        <v>21.12</v>
+        <v>21</v>
       </c>
       <c r="T56">
         <f t="shared" si="3"/>
@@ -6225,16 +6225,16 @@
         <v>246</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R57">
         <f t="shared" si="1"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S57">
         <f t="shared" si="2"/>
-        <v>60.8</v>
+        <v>61</v>
       </c>
       <c r="T57">
         <f t="shared" si="3"/>
@@ -6274,16 +6274,16 @@
         <v>245</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R58">
         <f t="shared" si="1"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S58">
         <f t="shared" si="2"/>
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="T58">
         <f t="shared" si="3"/>
@@ -6304,7 +6304,7 @@
         <v>3</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E59:E77" si="6">AVERAGE(C59,D59)</f>
+        <f t="shared" ref="E59:E77" si="7">AVERAGE(C59,D59)</f>
         <v>2.5</v>
       </c>
       <c r="F59">
@@ -6323,16 +6323,16 @@
         <v>245</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R59">
         <f t="shared" si="1"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S59">
         <f t="shared" si="2"/>
-        <v>23.04</v>
+        <v>23</v>
       </c>
       <c r="T59">
         <f t="shared" si="3"/>
@@ -6353,7 +6353,7 @@
         <v>3</v>
       </c>
       <c r="E60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="F60">
@@ -6378,16 +6378,16 @@
         <v>284</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R60">
         <f t="shared" si="1"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S60">
         <f t="shared" si="2"/>
-        <v>51.2</v>
+        <v>51</v>
       </c>
       <c r="T60">
         <f t="shared" si="3"/>
@@ -6408,7 +6408,7 @@
         <v>3</v>
       </c>
       <c r="E61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="F61">
@@ -6433,16 +6433,16 @@
         <v>284</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R61">
         <f t="shared" si="1"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S61">
         <f t="shared" si="2"/>
-        <v>37.119999999999997</v>
+        <v>37</v>
       </c>
       <c r="T61">
         <f t="shared" si="3"/>
@@ -6463,7 +6463,7 @@
         <v>3</v>
       </c>
       <c r="E62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="F62">
@@ -6482,16 +6482,16 @@
         <v>245</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R62">
         <f t="shared" si="1"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S62">
         <f t="shared" si="2"/>
-        <v>38.4</v>
+        <v>38</v>
       </c>
       <c r="T62">
         <f t="shared" si="3"/>
@@ -6512,7 +6512,7 @@
         <v>3</v>
       </c>
       <c r="E63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="F63">
@@ -6531,16 +6531,16 @@
         <v>245</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R63">
         <f t="shared" si="1"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S63">
         <f t="shared" si="2"/>
-        <v>50.56</v>
+        <v>51</v>
       </c>
       <c r="T63">
         <f t="shared" si="3"/>
@@ -6561,7 +6561,7 @@
         <v>3</v>
       </c>
       <c r="E64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="F64">
@@ -6586,16 +6586,16 @@
         <v>284</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R64">
         <f t="shared" si="1"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S64">
         <f t="shared" si="2"/>
-        <v>32.64</v>
+        <v>33</v>
       </c>
       <c r="T64">
         <f t="shared" si="3"/>
@@ -6616,7 +6616,7 @@
         <v>3</v>
       </c>
       <c r="E65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="F65">
@@ -6641,16 +6641,16 @@
         <v>284</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R65">
         <f t="shared" si="1"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S65">
         <f t="shared" si="2"/>
-        <v>42.88</v>
+        <v>43</v>
       </c>
       <c r="T65">
         <f t="shared" si="3"/>
@@ -6671,7 +6671,7 @@
         <v>3</v>
       </c>
       <c r="E66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="F66">
@@ -6696,16 +6696,16 @@
         <v>246</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R66">
         <f t="shared" si="1"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S66">
         <f t="shared" si="2"/>
-        <v>70.400000000000006</v>
+        <v>70</v>
       </c>
       <c r="T66">
         <f t="shared" si="3"/>
@@ -6726,7 +6726,7 @@
         <v>3</v>
       </c>
       <c r="E67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="F67">
@@ -6751,16 +6751,16 @@
         <v>284</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R67">
         <f t="shared" si="1"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S67">
         <f t="shared" si="2"/>
-        <v>33.92</v>
+        <v>34</v>
       </c>
       <c r="T67">
         <f t="shared" si="3"/>
@@ -6781,7 +6781,7 @@
         <v>84</v>
       </c>
       <c r="E68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="F68">
@@ -6806,16 +6806,16 @@
         <v>246</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="0"/>
-        <v>7.6E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.52E-2</v>
       </c>
       <c r="R68">
-        <f t="shared" si="1"/>
-        <v>3.04E-2</v>
+        <f t="shared" ref="R68:R98" si="8">Q68*4</f>
+        <v>6.08E-2</v>
       </c>
       <c r="S68">
         <f t="shared" si="2"/>
-        <v>70.400000000000006</v>
+        <v>70</v>
       </c>
       <c r="T68">
         <f t="shared" si="3"/>
@@ -6836,7 +6836,7 @@
         <v>3</v>
       </c>
       <c r="E69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="F69">
@@ -6861,16 +6861,16 @@
         <v>284</v>
       </c>
       <c r="Q69">
-        <f t="shared" ref="Q69:Q98" si="7">E69/10000</f>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R69">
-        <f t="shared" ref="R69:R98" si="8">E69/2500</f>
-        <v>1E-3</v>
+        <f t="shared" si="8"/>
+        <v>2E-3</v>
       </c>
       <c r="S69">
-        <f t="shared" ref="S69:S98" si="9">64*B69/100</f>
-        <v>62.08</v>
+        <f t="shared" ref="S69:S98" si="9">ROUND(64*B69/100,0)</f>
+        <v>62</v>
       </c>
       <c r="T69">
         <f t="shared" ref="T69:T98" si="10">ROUNDUP(E69/15,0)</f>
@@ -6891,7 +6891,7 @@
         <v>3</v>
       </c>
       <c r="E70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="F70">
@@ -6910,16 +6910,16 @@
         <v>245</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="7"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R70">
         <f t="shared" si="8"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S70">
         <f t="shared" si="9"/>
-        <v>26.24</v>
+        <v>26</v>
       </c>
       <c r="T70">
         <f t="shared" si="10"/>
@@ -6940,7 +6940,7 @@
         <v>3</v>
       </c>
       <c r="E71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="F71">
@@ -6965,16 +6965,16 @@
         <v>284</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="7"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R71">
         <f t="shared" si="8"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S71">
         <f t="shared" si="9"/>
-        <v>55.04</v>
+        <v>55</v>
       </c>
       <c r="T71">
         <f t="shared" si="10"/>
@@ -6995,7 +6995,7 @@
         <v>84</v>
       </c>
       <c r="E72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="F72">
@@ -7020,16 +7020,16 @@
         <v>246</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="7"/>
-        <v>7.6E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.52E-2</v>
       </c>
       <c r="R72">
         <f t="shared" si="8"/>
-        <v>3.04E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="S72">
         <f t="shared" si="9"/>
-        <v>70.400000000000006</v>
+        <v>70</v>
       </c>
       <c r="T72">
         <f t="shared" si="10"/>
@@ -7050,7 +7050,7 @@
         <v>2</v>
       </c>
       <c r="E73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F73">
@@ -7075,16 +7075,16 @@
         <v>246</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="7"/>
-        <v>1E-4</v>
+        <f t="shared" si="5"/>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="R73">
         <f t="shared" si="8"/>
-        <v>4.0000000000000002E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="S73">
         <f t="shared" si="9"/>
-        <v>70.400000000000006</v>
+        <v>70</v>
       </c>
       <c r="T73">
         <f t="shared" si="10"/>
@@ -7105,7 +7105,7 @@
         <v>3</v>
       </c>
       <c r="E74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="F74">
@@ -7136,16 +7136,16 @@
         <v>284</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="7"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R74">
         <f t="shared" si="8"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S74">
         <f t="shared" si="9"/>
-        <v>46.08</v>
+        <v>46</v>
       </c>
       <c r="T74">
         <f t="shared" si="10"/>
@@ -7166,7 +7166,7 @@
         <v>84</v>
       </c>
       <c r="E75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="F75">
@@ -7191,16 +7191,16 @@
         <v>246</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="7"/>
-        <v>7.6E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.52E-2</v>
       </c>
       <c r="R75">
         <f t="shared" si="8"/>
-        <v>3.04E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="S75">
         <f t="shared" si="9"/>
-        <v>70.400000000000006</v>
+        <v>70</v>
       </c>
       <c r="T75">
         <f t="shared" si="10"/>
@@ -7221,7 +7221,7 @@
         <v>3</v>
       </c>
       <c r="E76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="F76">
@@ -7246,16 +7246,16 @@
         <v>246</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="7"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R76">
         <f t="shared" si="8"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S76">
         <f t="shared" si="9"/>
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="T76">
         <f t="shared" si="10"/>
@@ -7276,7 +7276,7 @@
         <v>38</v>
       </c>
       <c r="E77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="F77">
@@ -7307,16 +7307,16 @@
         <v>285</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="7"/>
-        <v>3.7000000000000002E-3</v>
+        <f t="shared" si="5"/>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="R77">
         <f t="shared" si="8"/>
-        <v>1.4800000000000001E-2</v>
+        <v>2.9600000000000001E-2</v>
       </c>
       <c r="S77">
         <f t="shared" si="9"/>
-        <v>70.400000000000006</v>
+        <v>70</v>
       </c>
       <c r="T77">
         <f t="shared" si="10"/>
@@ -7365,16 +7365,16 @@
         <v>298</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="7"/>
-        <v>3.15E-3</v>
+        <f t="shared" si="5"/>
+        <v>6.3E-3</v>
       </c>
       <c r="R78">
         <f t="shared" si="8"/>
-        <v>1.26E-2</v>
+        <v>2.52E-2</v>
       </c>
       <c r="S78">
         <f t="shared" si="9"/>
-        <v>45.44</v>
+        <v>45</v>
       </c>
       <c r="T78">
         <f t="shared" si="10"/>
@@ -7414,16 +7414,16 @@
         <v>245</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="7"/>
-        <v>6.2500000000000003E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="R79">
         <f t="shared" si="8"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="S79">
         <f t="shared" si="9"/>
-        <v>62.08</v>
+        <v>62</v>
       </c>
       <c r="T79">
         <f t="shared" si="10"/>
@@ -7469,16 +7469,16 @@
         <v>246</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="7"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R80">
         <f t="shared" si="8"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S80">
         <f t="shared" si="9"/>
-        <v>70.400000000000006</v>
+        <v>70</v>
       </c>
       <c r="T80">
         <f t="shared" si="10"/>
@@ -7524,16 +7524,16 @@
         <v>286</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="7"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R81">
         <f t="shared" si="8"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S81">
         <f t="shared" si="9"/>
-        <v>50.56</v>
+        <v>51</v>
       </c>
       <c r="T81">
         <f t="shared" si="10"/>
@@ -7573,16 +7573,16 @@
         <v>245</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="7"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R82">
         <f t="shared" si="8"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S82">
         <f t="shared" si="9"/>
-        <v>62.08</v>
+        <v>62</v>
       </c>
       <c r="T82">
         <f t="shared" si="10"/>
@@ -7622,16 +7622,16 @@
         <v>245</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="7"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R83">
         <f t="shared" si="8"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S83">
         <f t="shared" si="9"/>
-        <v>53.76</v>
+        <v>54</v>
       </c>
       <c r="T83">
         <f t="shared" si="10"/>
@@ -7671,12 +7671,12 @@
         <v>245</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="7"/>
-        <v>5.0000000000000002E-5</v>
+        <f t="shared" ref="Q84:Q98" si="12">E84/5000</f>
+        <v>1E-4</v>
       </c>
       <c r="R84">
         <f t="shared" si="8"/>
-        <v>2.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="S84">
         <f t="shared" si="9"/>
@@ -7726,16 +7726,16 @@
         <v>246</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="7"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="12"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R85">
         <f t="shared" si="8"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S85">
         <f t="shared" si="9"/>
-        <v>56.32</v>
+        <v>56</v>
       </c>
       <c r="T85">
         <f t="shared" si="10"/>
@@ -7781,16 +7781,16 @@
         <v>284</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="7"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="12"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R86">
         <f t="shared" si="8"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S86">
         <f t="shared" si="9"/>
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="T86">
         <f t="shared" si="10"/>
@@ -7830,16 +7830,16 @@
         <v>245</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="7"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="12"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R87">
         <f t="shared" si="8"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S87">
         <f t="shared" si="9"/>
-        <v>22.4</v>
+        <v>22</v>
       </c>
       <c r="T87">
         <f t="shared" si="10"/>
@@ -7860,7 +7860,7 @@
         <v>3</v>
       </c>
       <c r="E88">
-        <f t="shared" ref="E88:E94" si="12">AVERAGE(C88,D88)</f>
+        <f t="shared" ref="E88:E94" si="13">AVERAGE(C88,D88)</f>
         <v>2.5</v>
       </c>
       <c r="F88">
@@ -7891,16 +7891,16 @@
         <v>284</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="7"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="12"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R88">
         <f t="shared" si="8"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S88">
         <f t="shared" si="9"/>
-        <v>40.96</v>
+        <v>41</v>
       </c>
       <c r="T88">
         <f t="shared" si="10"/>
@@ -7921,7 +7921,7 @@
         <v>3</v>
       </c>
       <c r="E89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.5</v>
       </c>
       <c r="F89">
@@ -7946,16 +7946,16 @@
         <v>246</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="7"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="12"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R89">
         <f t="shared" si="8"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S89">
         <f t="shared" si="9"/>
-        <v>70.400000000000006</v>
+        <v>70</v>
       </c>
       <c r="T89">
         <f t="shared" si="10"/>
@@ -7976,7 +7976,7 @@
         <v>3</v>
       </c>
       <c r="E90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.5</v>
       </c>
       <c r="F90">
@@ -8007,16 +8007,16 @@
         <v>284</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="7"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="12"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R90">
         <f t="shared" si="8"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S90">
         <f t="shared" si="9"/>
-        <v>26.88</v>
+        <v>27</v>
       </c>
       <c r="T90">
         <f t="shared" si="10"/>
@@ -8037,7 +8037,7 @@
         <v>3</v>
       </c>
       <c r="E91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.5</v>
       </c>
       <c r="F91">
@@ -8068,16 +8068,16 @@
         <v>286</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="7"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="12"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R91">
         <f t="shared" si="8"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S91">
         <f t="shared" si="9"/>
-        <v>62.08</v>
+        <v>62</v>
       </c>
       <c r="T91">
         <f t="shared" si="10"/>
@@ -8098,7 +8098,7 @@
         <v>12</v>
       </c>
       <c r="E92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="F92">
@@ -8123,16 +8123,16 @@
         <v>246</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="7"/>
-        <v>8.0000000000000004E-4</v>
+        <f t="shared" si="12"/>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="R92">
         <f t="shared" si="8"/>
-        <v>3.2000000000000002E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="S92">
         <f t="shared" si="9"/>
-        <v>21.12</v>
+        <v>21</v>
       </c>
       <c r="T92">
         <f t="shared" si="10"/>
@@ -8153,7 +8153,7 @@
         <v>3</v>
       </c>
       <c r="E93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.5</v>
       </c>
       <c r="F93">
@@ -8178,16 +8178,16 @@
         <v>245</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="7"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="12"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R93">
         <f t="shared" si="8"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S93">
         <f t="shared" si="9"/>
-        <v>40.32</v>
+        <v>40</v>
       </c>
       <c r="T93">
         <f t="shared" si="10"/>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="E94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.5</v>
       </c>
       <c r="F94">
@@ -8233,16 +8233,16 @@
         <v>245</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="7"/>
-        <v>2.5000000000000001E-4</v>
+        <f t="shared" si="12"/>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R94">
         <f t="shared" si="8"/>
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="S94">
         <f t="shared" si="9"/>
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="T94">
         <f t="shared" si="10"/>
@@ -8291,16 +8291,16 @@
         <v>246</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="7"/>
-        <v>6.9999999999999999E-4</v>
+        <f t="shared" si="12"/>
+        <v>1.4E-3</v>
       </c>
       <c r="R95">
         <f t="shared" si="8"/>
-        <v>2.8E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="S95">
         <f t="shared" si="9"/>
-        <v>14.08</v>
+        <v>14</v>
       </c>
       <c r="T95">
         <f t="shared" si="10"/>
@@ -8349,16 +8349,16 @@
         <v>246</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="7"/>
-        <v>6.9999999999999999E-4</v>
+        <f t="shared" si="12"/>
+        <v>1.4E-3</v>
       </c>
       <c r="R96">
         <f t="shared" si="8"/>
-        <v>2.8E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="S96">
         <f t="shared" si="9"/>
-        <v>14.08</v>
+        <v>14</v>
       </c>
       <c r="T96">
         <f t="shared" si="10"/>
@@ -8407,16 +8407,16 @@
         <v>246</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="7"/>
-        <v>6.9999999999999999E-4</v>
+        <f t="shared" si="12"/>
+        <v>1.4E-3</v>
       </c>
       <c r="R97">
         <f t="shared" si="8"/>
-        <v>2.8E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="S97">
         <f t="shared" si="9"/>
-        <v>14.08</v>
+        <v>14</v>
       </c>
       <c r="T97">
         <f t="shared" si="10"/>
@@ -8465,16 +8465,16 @@
         <v>246</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="7"/>
-        <v>6.9999999999999999E-4</v>
+        <f t="shared" si="12"/>
+        <v>1.4E-3</v>
       </c>
       <c r="R98">
         <f t="shared" si="8"/>
-        <v>2.8E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="S98">
         <f t="shared" si="9"/>
-        <v>14.08</v>
+        <v>14</v>
       </c>
       <c r="T98">
         <f t="shared" si="10"/>

--- a/The Lemon Taco spreadsheet edition.xlsx
+++ b/The Lemon Taco spreadsheet edition.xlsx
@@ -14,12 +14,11 @@
     <sheet name="ore dictionary" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="457">
   <si>
     <t>name</t>
   </si>
@@ -345,12 +344,6 @@
     <t>gravel</t>
   </si>
   <si>
-    <t>stone, gravel</t>
-  </si>
-  <si>
-    <t>netherrack, gravel</t>
-  </si>
-  <si>
     <t>bad, useless</t>
   </si>
   <si>
@@ -417,9 +410,6 @@
     <t>atum, overworld, erebus</t>
   </si>
   <si>
-    <t>stone, gravel, umberstone</t>
-  </si>
-  <si>
     <t>lemonade</t>
   </si>
   <si>
@@ -843,9 +833,6 @@
     <t>scrapped</t>
   </si>
   <si>
-    <t>stone, gravel, limestone</t>
-  </si>
-  <si>
     <t>clay</t>
   </si>
   <si>
@@ -1392,7 +1379,16 @@
     <t>the blocks the ore can be found in</t>
   </si>
   <si>
-    <t>magical crystal</t>
+    <t>magic crystal</t>
+  </si>
+  <si>
+    <t>stone, limestone, umberstone</t>
+  </si>
+  <si>
+    <t>stone, umberstone, limestone</t>
+  </si>
+  <si>
+    <t>can be found on the surface as gravel ore</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1500,207 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="94">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2138,7 +2334,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Simple" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Simple" pivot="0" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="73"/>
+      <tableStyleElement type="secondRowStripe" dxfId="93"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2453,10 +2649,10 @@
   <dimension ref="A1:T105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2488,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" t="s">
         <v>248</v>
-      </c>
-      <c r="C1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H1" t="s">
-        <v>251</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -2521,71 +2717,71 @@
         <v>102</v>
       </c>
       <c r="M1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="N1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="Q1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="R1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="S1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="T1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B3">
         <v>110</v>
@@ -2610,16 +2806,16 @@
         <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q3" t="e">
         <f t="shared" ref="Q3" si="0">E3/5000</f>
@@ -2671,16 +2867,16 @@
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q18" si="2">E4/5000</f>
@@ -2732,16 +2928,16 @@
         <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
@@ -2793,16 +2989,16 @@
         <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
@@ -2848,16 +3044,16 @@
         <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>114</v>
+        <v>435</v>
       </c>
       <c r="L7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
@@ -2909,16 +3105,16 @@
         <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q8">
         <f t="shared" si="2"/>
@@ -2970,16 +3166,16 @@
         <v>48</v>
       </c>
       <c r="K9" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q9">
         <f t="shared" si="2"/>
@@ -3031,16 +3227,16 @@
         <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q10">
         <f t="shared" si="2"/>
@@ -3092,16 +3288,16 @@
         <v>48</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>435</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q11">
         <f t="shared" si="2"/>
@@ -3153,10 +3349,10 @@
         <v>103</v>
       </c>
       <c r="M12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q12">
         <f t="shared" si="2"/>
@@ -3202,16 +3398,16 @@
         <v>48</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q13">
         <f t="shared" si="2"/>
@@ -3260,16 +3456,16 @@
         <v>48</v>
       </c>
       <c r="K14" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q14">
         <f t="shared" si="2"/>
@@ -3318,19 +3514,19 @@
         <v>48</v>
       </c>
       <c r="K15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L15" t="s">
         <v>102</v>
       </c>
       <c r="M15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O15" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q15">
         <f t="shared" si="2"/>
@@ -3379,16 +3575,16 @@
         <v>48</v>
       </c>
       <c r="K16" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L16" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q16">
         <f t="shared" si="2"/>
@@ -3437,16 +3633,16 @@
         <v>48</v>
       </c>
       <c r="K17" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="L17" t="s">
-        <v>117</v>
+        <v>455</v>
       </c>
       <c r="M17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q17">
         <f t="shared" si="2"/>
@@ -3498,16 +3694,16 @@
         <v>48</v>
       </c>
       <c r="K18" t="s">
-        <v>441</v>
+        <v>118</v>
       </c>
       <c r="L18" t="s">
-        <v>442</v>
+        <v>117</v>
       </c>
       <c r="M18" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N18" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q18">
         <f t="shared" si="2"/>
@@ -3528,7 +3724,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E19" t="e">
         <f t="shared" si="6"/>
@@ -3541,16 +3737,16 @@
         <v>48</v>
       </c>
       <c r="K19" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L19" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q19" t="e">
         <f t="shared" ref="Q19" si="8">E19/5000</f>
@@ -3599,16 +3795,19 @@
         <v>91</v>
       </c>
       <c r="K20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L20" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="M20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N20" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="O20" t="s">
+        <v>456</v>
       </c>
       <c r="Q20">
         <f>E20/5000</f>
@@ -3657,16 +3856,19 @@
         <v>91</v>
       </c>
       <c r="K21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L21" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="M21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N21" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="O21" t="s">
+        <v>456</v>
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21:Q94" si="12">E21/5000</f>
@@ -3715,16 +3917,19 @@
         <v>91</v>
       </c>
       <c r="K22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L22" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N22" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="O22" t="s">
+        <v>456</v>
       </c>
       <c r="Q22">
         <f t="shared" si="12"/>
@@ -3773,16 +3978,19 @@
         <v>91</v>
       </c>
       <c r="K23" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L23" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M23" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N23" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="O23" t="s">
+        <v>456</v>
       </c>
       <c r="Q23">
         <f t="shared" si="12"/>
@@ -3803,7 +4011,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B24">
         <v>49</v>
@@ -3831,16 +4039,16 @@
         <v>91</v>
       </c>
       <c r="K24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L24" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="M24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q24">
         <f t="shared" si="12"/>
@@ -3861,7 +4069,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B25">
         <v>35</v>
@@ -3883,22 +4091,22 @@
         <v>3</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J25" t="s">
         <v>91</v>
       </c>
       <c r="K25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L25" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="M25" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q25">
         <f t="shared" ref="Q25" si="13">E25/5000</f>
@@ -3947,16 +4155,16 @@
         <v>92</v>
       </c>
       <c r="K26" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q26">
         <f t="shared" si="12"/>
@@ -4005,16 +4213,16 @@
         <v>92</v>
       </c>
       <c r="K27" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M27" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N27" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q27">
         <f t="shared" si="12"/>
@@ -4063,16 +4271,19 @@
         <v>92</v>
       </c>
       <c r="K28" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L28" t="s">
-        <v>274</v>
+        <v>111</v>
       </c>
       <c r="M28" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N28" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="O28" t="s">
+        <v>456</v>
       </c>
       <c r="Q28">
         <f t="shared" si="12"/>
@@ -4121,16 +4332,16 @@
         <v>92</v>
       </c>
       <c r="K29" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M29" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N29" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q29">
         <f t="shared" si="12"/>
@@ -4176,16 +4387,16 @@
         <v>89</v>
       </c>
       <c r="K30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L30" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q30">
         <f t="shared" si="12"/>
@@ -4231,16 +4442,16 @@
         <v>89</v>
       </c>
       <c r="K31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L31" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M31" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N31" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q31">
         <f t="shared" si="12"/>
@@ -4286,16 +4497,16 @@
         <v>89</v>
       </c>
       <c r="K32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M32" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N32" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q32">
         <f t="shared" si="12"/>
@@ -4344,16 +4555,16 @@
         <v>89</v>
       </c>
       <c r="K33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M33" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N33" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q33">
         <f t="shared" si="12"/>
@@ -4374,7 +4585,7 @@
     </row>
     <row r="34" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B34" s="11">
         <v>85</v>
@@ -4402,19 +4613,19 @@
         <v>89</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q34">
         <f t="shared" si="12"/>
@@ -4463,16 +4674,16 @@
         <v>89</v>
       </c>
       <c r="K35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q35">
         <f t="shared" si="12"/>
@@ -4521,16 +4732,16 @@
         <v>89</v>
       </c>
       <c r="K36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q36">
         <f t="shared" si="12"/>
@@ -4579,16 +4790,16 @@
         <v>89</v>
       </c>
       <c r="K37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q37">
         <f t="shared" si="12"/>
@@ -4637,16 +4848,16 @@
         <v>89</v>
       </c>
       <c r="K38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q38">
         <f t="shared" si="12"/>
@@ -4695,16 +4906,16 @@
         <v>89</v>
       </c>
       <c r="K39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M39" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N39" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q39">
         <f t="shared" si="12"/>
@@ -4753,16 +4964,16 @@
         <v>89</v>
       </c>
       <c r="K40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L40" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q40">
         <f t="shared" si="12"/>
@@ -4811,16 +5022,16 @@
         <v>89</v>
       </c>
       <c r="K41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M41" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N41" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q41">
         <f t="shared" si="12"/>
@@ -4875,10 +5086,10 @@
         <v>103</v>
       </c>
       <c r="M42" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N42" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q42">
         <f t="shared" si="12"/>
@@ -4933,10 +5144,10 @@
         <v>103</v>
       </c>
       <c r="M43" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N43" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q43">
         <f t="shared" si="12"/>
@@ -4991,10 +5202,10 @@
         <v>103</v>
       </c>
       <c r="M44" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N44" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q44">
         <f t="shared" si="12"/>
@@ -5049,10 +5260,10 @@
         <v>103</v>
       </c>
       <c r="M45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q45">
         <f t="shared" si="12"/>
@@ -5107,10 +5318,10 @@
         <v>103</v>
       </c>
       <c r="M46" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N46" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q46">
         <f t="shared" si="12"/>
@@ -5165,10 +5376,10 @@
         <v>103</v>
       </c>
       <c r="M47" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N47" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q47">
         <f t="shared" si="12"/>
@@ -5223,10 +5434,10 @@
         <v>103</v>
       </c>
       <c r="M48" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N48" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q48">
         <f t="shared" si="12"/>
@@ -5281,10 +5492,10 @@
         <v>103</v>
       </c>
       <c r="M49" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N49" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q49">
         <f t="shared" si="12"/>
@@ -5339,10 +5550,10 @@
         <v>103</v>
       </c>
       <c r="M50" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N50" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q50">
         <f t="shared" si="12"/>
@@ -5394,13 +5605,16 @@
         <v>84</v>
       </c>
       <c r="L51" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N51" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="O51" t="s">
+        <v>456</v>
       </c>
       <c r="Q51">
         <f t="shared" si="12"/>
@@ -5455,10 +5669,10 @@
         <v>103</v>
       </c>
       <c r="M52" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N52" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q52">
         <f t="shared" si="12"/>
@@ -5513,10 +5727,10 @@
         <v>103</v>
       </c>
       <c r="M53" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N53" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q53">
         <f t="shared" si="12"/>
@@ -5537,7 +5751,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B54">
         <v>110</v>
@@ -5556,25 +5770,25 @@
         <v>2</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I54">
         <v>3</v>
       </c>
       <c r="J54" t="s">
+        <v>125</v>
+      </c>
+      <c r="K54" t="s">
+        <v>126</v>
+      </c>
+      <c r="L54" t="s">
         <v>127</v>
       </c>
-      <c r="K54" t="s">
-        <v>128</v>
-      </c>
-      <c r="L54" t="s">
-        <v>129</v>
-      </c>
       <c r="M54" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N54" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q54">
         <f t="shared" si="12"/>
@@ -5595,7 +5809,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B55">
         <v>110</v>
@@ -5614,25 +5828,25 @@
         <v>2</v>
       </c>
       <c r="G55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I55">
         <v>5</v>
       </c>
       <c r="J55" t="s">
+        <v>125</v>
+      </c>
+      <c r="K55" t="s">
+        <v>126</v>
+      </c>
+      <c r="L55" t="s">
         <v>127</v>
       </c>
-      <c r="K55" t="s">
-        <v>128</v>
-      </c>
-      <c r="L55" t="s">
-        <v>129</v>
-      </c>
       <c r="M55" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N55" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q55">
         <f t="shared" si="12"/>
@@ -5653,7 +5867,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B56">
         <v>110</v>
@@ -5678,19 +5892,19 @@
         <v>6</v>
       </c>
       <c r="J56" t="s">
+        <v>125</v>
+      </c>
+      <c r="K56" t="s">
+        <v>126</v>
+      </c>
+      <c r="L56" t="s">
         <v>127</v>
       </c>
-      <c r="K56" t="s">
-        <v>128</v>
-      </c>
-      <c r="L56" t="s">
-        <v>129</v>
-      </c>
       <c r="M56" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N56" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q56">
         <f t="shared" si="12"/>
@@ -5739,16 +5953,16 @@
         <v>88</v>
       </c>
       <c r="K57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q57">
         <f t="shared" si="12"/>
@@ -5797,16 +6011,16 @@
         <v>88</v>
       </c>
       <c r="K58" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L58" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M58" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N58" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q58">
         <f t="shared" si="12"/>
@@ -5855,16 +6069,16 @@
         <v>88</v>
       </c>
       <c r="K59" t="s">
-        <v>439</v>
+        <v>128</v>
       </c>
       <c r="L59" t="s">
-        <v>113</v>
+        <v>454</v>
       </c>
       <c r="M59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q59">
         <f t="shared" si="12"/>
@@ -5885,29 +6099,29 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E60" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J60" t="s">
         <v>88</v>
       </c>
       <c r="K60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L60" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M60" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N60" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q60" t="e">
         <f t="shared" ref="Q60" si="16">E60/5000</f>
@@ -5962,10 +6176,10 @@
         <v>102</v>
       </c>
       <c r="M64" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N64" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q64">
         <f>E64/5000</f>
@@ -6020,10 +6234,10 @@
         <v>102</v>
       </c>
       <c r="M65" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N65" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q65">
         <f>E65/5000</f>
@@ -6078,10 +6292,10 @@
         <v>102</v>
       </c>
       <c r="M66" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N66" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q66">
         <f>E66/5000</f>
@@ -6136,10 +6350,10 @@
         <v>102</v>
       </c>
       <c r="M67" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N67" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q67">
         <f>E67/5000</f>
@@ -6188,7 +6402,7 @@
         <v>38</v>
       </c>
       <c r="M69" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q69">
         <f t="shared" si="12"/>
@@ -6234,10 +6448,10 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M70" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q70">
         <f t="shared" si="12"/>
@@ -6258,7 +6472,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B71">
         <v>80</v>
@@ -6283,16 +6497,16 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M71" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N71" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O71" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q71">
         <f t="shared" si="12"/>
@@ -6338,16 +6552,16 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M72" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N72" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O72" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q72">
         <f t="shared" si="12"/>
@@ -6393,10 +6607,10 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M73" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q73">
         <f t="shared" si="12"/>
@@ -6442,10 +6656,10 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M74" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q74">
         <f t="shared" si="12"/>
@@ -6491,16 +6705,16 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M75" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N75" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O75" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q75">
         <f t="shared" si="12"/>
@@ -6543,19 +6757,19 @@
         <v>4</v>
       </c>
       <c r="I76" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J76" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O76" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q76">
         <f t="shared" si="12"/>
@@ -6601,10 +6815,10 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M77" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <f t="shared" si="12"/>
@@ -6650,16 +6864,16 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M78" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N78" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O78" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q78">
         <f t="shared" si="12"/>
@@ -6705,16 +6919,16 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K79" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L79" t="s">
         <v>106</v>
       </c>
       <c r="M79" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q79">
         <f t="shared" si="12"/>
@@ -6760,16 +6974,16 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M80" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N80" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O80" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q80">
         <f t="shared" si="12"/>
@@ -6815,10 +7029,10 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M81" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q81">
         <f t="shared" si="12"/>
@@ -6864,16 +7078,16 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M82" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N82" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O82" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q82">
         <f t="shared" si="12"/>
@@ -6919,16 +7133,16 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K83" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L83" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M83" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q83">
         <f t="shared" si="12"/>
@@ -6974,16 +7188,16 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K84" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L84" t="s">
         <v>102</v>
       </c>
       <c r="M84" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q84">
         <f t="shared" si="12"/>
@@ -7029,22 +7243,22 @@
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K85" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L85" t="s">
         <v>102</v>
       </c>
       <c r="M85" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N85" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O85" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q85">
         <f t="shared" si="12"/>
@@ -7090,16 +7304,16 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K86" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L86" t="s">
         <v>107</v>
       </c>
       <c r="M86" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <f t="shared" si="12"/>
@@ -7145,16 +7359,16 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K87" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L87" t="s">
         <v>102</v>
       </c>
       <c r="M87" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q87">
         <f t="shared" si="12"/>
@@ -7203,19 +7417,19 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K88" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L88" t="s">
         <v>105</v>
       </c>
       <c r="M88" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O88" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q88">
         <f t="shared" si="12"/>
@@ -7261,19 +7475,19 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K89" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L89" t="s">
         <v>102</v>
       </c>
       <c r="M89" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O89" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q89">
         <f t="shared" si="12"/>
@@ -7319,10 +7533,10 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M90" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q90">
         <f t="shared" si="12"/>
@@ -7368,16 +7582,16 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L91" t="s">
         <v>102</v>
       </c>
       <c r="M91" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q91">
         <f t="shared" si="12"/>
@@ -7423,16 +7637,16 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M92" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N92" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O92" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q92">
         <f t="shared" si="12"/>
@@ -7478,10 +7692,10 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M93" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q93">
         <f t="shared" si="12"/>
@@ -7527,10 +7741,10 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M94" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q94">
         <f t="shared" si="12"/>
@@ -7576,10 +7790,10 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M95" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q95">
         <f t="shared" ref="Q95:Q105" si="24">E95/5000</f>
@@ -7625,16 +7839,16 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K96" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L96" t="s">
         <v>102</v>
       </c>
       <c r="M96" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q96">
         <f t="shared" si="24"/>
@@ -7680,16 +7894,16 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M97" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N97" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O97" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q97">
         <f t="shared" si="24"/>
@@ -7735,10 +7949,10 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M98" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q98">
         <f t="shared" si="24"/>
@@ -7787,19 +8001,19 @@
         <v>39</v>
       </c>
       <c r="K99" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L99" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M99" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N99" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O99" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q99">
         <f t="shared" si="24"/>
@@ -7848,13 +8062,13 @@
         <v>39</v>
       </c>
       <c r="K100" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L100" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M100" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <f t="shared" si="24"/>
@@ -7903,19 +8117,19 @@
         <v>39</v>
       </c>
       <c r="K101" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L101" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M101" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N101" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O101" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q101">
         <f t="shared" si="24"/>
@@ -7964,19 +8178,19 @@
         <v>39</v>
       </c>
       <c r="K102" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L102" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M102" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N102" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O102" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q102">
         <f t="shared" si="24"/>
@@ -8025,13 +8239,13 @@
         <v>39</v>
       </c>
       <c r="K103" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L103" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M103" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q103">
         <f t="shared" si="24"/>
@@ -8077,16 +8291,16 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
+        <v>109</v>
+      </c>
+      <c r="K104" t="s">
+        <v>110</v>
+      </c>
+      <c r="L104" t="s">
         <v>111</v>
       </c>
-      <c r="K104" t="s">
-        <v>112</v>
-      </c>
-      <c r="L104" t="s">
-        <v>113</v>
-      </c>
       <c r="M104" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q104">
         <f t="shared" si="24"/>
@@ -8132,16 +8346,16 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
+        <v>109</v>
+      </c>
+      <c r="K105" t="s">
+        <v>110</v>
+      </c>
+      <c r="L105" t="s">
         <v>111</v>
       </c>
-      <c r="K105" t="s">
-        <v>112</v>
-      </c>
-      <c r="L105" t="s">
-        <v>113</v>
-      </c>
       <c r="M105" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q105">
         <f t="shared" si="24"/>
@@ -8165,7 +8379,7 @@
     <sortCondition ref="J55:J91"/>
   </sortState>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="dataBar" priority="26">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8179,7 +8393,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8193,7 +8407,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8207,7 +8421,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1048576">
-    <cfRule type="dataBar" priority="23">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8221,7 +8435,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8235,60 +8449,60 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O71:P102">
-    <cfRule type="cellIs" dxfId="72" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="25" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="26" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="70" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="16" operator="equal">
       <formula>"rock"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="17" operator="equal">
       <formula>"gem"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="18" operator="equal">
       <formula>"metal, fantasy"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="19" operator="equal">
       <formula>"metal, nether"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="20" operator="equal">
       <formula>"metal, ender"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="21" operator="equal">
       <formula>"metal, precious"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="22" operator="equal">
       <formula>"metal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="23" operator="equal">
       <formula>"fruit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="24" operator="equal">
       <formula>"utility"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O22:P23 O1:O2 M1:N1048576">
-    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
+  <conditionalFormatting sqref="O1:O2 O51 O22:P23 M1:N1048576">
+    <cfRule type="cellIs" dxfId="81" priority="13" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="14" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:P15">
-    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="11" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="12" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8302,7 +8516,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8316,7 +8530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8330,7 +8544,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8341,6 +8555,30 @@
           <x14:id>{5FE04BEE-81D7-4E6A-98E3-9FD0333BAF97}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O21">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O28">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8493,54 +8731,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s">
         <v>149</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>150</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="N1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B2">
         <v>38</v>
@@ -8549,10 +8787,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F2">
         <v>0.28000000000000003</v>
@@ -8580,10 +8818,10 @@
         <v>0.65249693486590044</v>
       </c>
       <c r="N2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -8597,10 +8835,10 @@
         <v>0.3</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F3">
         <v>0.53</v>
@@ -8628,15 +8866,15 @@
         <v>-0.33734872477924122</v>
       </c>
       <c r="N3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B4" s="1">
         <v>83</v>
@@ -8645,10 +8883,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F4">
         <v>1.75</v>
@@ -8676,15 +8914,15 @@
         <v>1.356895785440613</v>
       </c>
       <c r="N4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B5" s="1">
         <v>113</v>
@@ -8693,10 +8931,10 @@
         <v>0.5</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F5">
         <v>1.4</v>
@@ -8724,15 +8962,15 @@
         <v>0.22987707398089222</v>
       </c>
       <c r="N5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B6" s="1">
         <v>151</v>
@@ -8741,10 +8979,10 @@
         <v>1.08</v>
       </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F6">
         <v>1.05</v>
@@ -8772,15 +9010,15 @@
         <v>1.0537005877032872</v>
       </c>
       <c r="N6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B7">
         <v>16</v>
@@ -8789,10 +9027,10 @@
         <v>0.3</v>
       </c>
       <c r="D7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F7">
         <v>0.35</v>
@@ -8820,15 +9058,15 @@
         <v>5.4225987864436921E-2</v>
       </c>
       <c r="N7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B8" s="1">
         <v>15</v>
@@ -8837,10 +9075,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F8">
         <v>0.35</v>
@@ -8868,18 +9106,18 @@
         <v>0.59686877394636018</v>
       </c>
       <c r="N8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q8" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B9" s="1">
         <v>48</v>
@@ -8888,10 +9126,10 @@
         <v>-0.5</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F9">
         <v>0.7</v>
@@ -8919,15 +9157,15 @@
         <v>-0.32757471675464128</v>
       </c>
       <c r="N9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B10" s="1">
         <v>38</v>
@@ -8936,10 +9174,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F10">
         <v>0.04</v>
@@ -8955,15 +9193,15 @@
         <v>-0.42118454935622318</v>
       </c>
       <c r="N10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B11" s="1">
         <v>38</v>
@@ -8972,10 +9210,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F11">
         <v>0.04</v>
@@ -8991,15 +9229,15 @@
         <v>-0.42118454935622318</v>
       </c>
       <c r="N11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B12">
         <v>375</v>
@@ -9008,10 +9246,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F12">
         <v>0.35</v>
@@ -9039,15 +9277,15 @@
         <v>1.5789224803907058</v>
       </c>
       <c r="N12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B13">
         <v>900</v>
@@ -9056,10 +9294,10 @@
         <v>1.5</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F13">
         <v>0.53</v>
@@ -9087,10 +9325,10 @@
         <v>1.6675141137585714</v>
       </c>
       <c r="N13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -9104,10 +9342,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>1.75</v>
@@ -9135,15 +9373,15 @@
         <v>1.6042015966980745</v>
       </c>
       <c r="N14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15">
         <v>188</v>
@@ -9152,10 +9390,10 @@
         <v>1.2</v>
       </c>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F15">
         <v>2.1</v>
@@ -9183,10 +9421,10 @@
         <v>2.0285472546988306</v>
       </c>
       <c r="N15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -9200,10 +9438,10 @@
         <v>1.25</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F16">
         <v>2.2799999999999998</v>
@@ -9231,15 +9469,15 @@
         <v>2.2258256392547651</v>
       </c>
       <c r="N16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O16" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B17">
         <v>169</v>
@@ -9248,10 +9486,10 @@
         <v>0.8</v>
       </c>
       <c r="D17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F17">
         <v>2.63</v>
@@ -9279,15 +9517,15 @@
         <v>1.2850929751862268</v>
       </c>
       <c r="N17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B18">
         <v>225</v>
@@ -9296,10 +9534,10 @@
         <v>1.35</v>
       </c>
       <c r="D18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F18">
         <v>2.1</v>
@@ -9327,15 +9565,15 @@
         <v>1.5960555884432606</v>
       </c>
       <c r="N18" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O18" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B19">
         <v>386</v>
@@ -9344,10 +9582,10 @@
         <v>0.9</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F19">
         <v>1.75</v>
@@ -9375,15 +9613,15 @@
         <v>1.4212392078996268</v>
       </c>
       <c r="N19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B20" s="1">
         <v>300</v>
@@ -9392,10 +9630,10 @@
         <v>1.3</v>
       </c>
       <c r="D20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F20">
         <v>2.4500000000000002</v>
@@ -9423,18 +9661,18 @@
         <v>2.4230201157647211</v>
       </c>
       <c r="N20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P20" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B21" s="1">
         <v>188</v>
@@ -9443,10 +9681,10 @@
         <v>1.2</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F21">
         <v>2.68</v>
@@ -9474,18 +9712,18 @@
         <v>1.4916390171509379</v>
       </c>
       <c r="N21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P21" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B22" s="1">
         <v>500</v>
@@ -9494,10 +9732,10 @@
         <v>1.35</v>
       </c>
       <c r="D22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F22">
         <v>2.73</v>
@@ -9525,10 +9763,10 @@
         <v>2.6778218719681646</v>
       </c>
       <c r="N22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -9542,10 +9780,10 @@
         <v>1.5</v>
       </c>
       <c r="D23" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F23">
         <v>1.75</v>
@@ -9573,18 +9811,18 @@
         <v>1.9301277152911382</v>
       </c>
       <c r="N23" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O23" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B24" s="1">
         <v>67</v>
@@ -9593,10 +9831,10 @@
         <v>0.8</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F24">
         <v>2.2799999999999998</v>
@@ -9624,18 +9862,18 @@
         <v>0.97239910545442576</v>
       </c>
       <c r="N24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P24" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B25" s="1">
         <v>413</v>
@@ -9644,10 +9882,10 @@
         <v>1.3</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F25">
         <v>2.77</v>
@@ -9675,15 +9913,15 @@
         <v>2.869079885879664</v>
       </c>
       <c r="N25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B26">
         <v>1392</v>
@@ -9692,10 +9930,10 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F26">
         <v>3.12</v>
@@ -9723,15 +9961,15 @@
         <v>5.4089802098235582</v>
       </c>
       <c r="N26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B27">
         <v>11</v>
@@ -9740,10 +9978,10 @@
         <v>0.2</v>
       </c>
       <c r="D27" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F27">
         <v>2.63</v>
@@ -9771,10 +10009,10 @@
         <v>0.57108224557249276</v>
       </c>
       <c r="N27" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O27" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -9788,10 +10026,10 @@
         <v>0.2</v>
       </c>
       <c r="D28" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E28" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F28">
         <v>2.98</v>
@@ -9819,10 +10057,10 @@
         <v>0.71890446779471484</v>
       </c>
       <c r="N28" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O28" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -9836,10 +10074,10 @@
         <v>0.4</v>
       </c>
       <c r="D29" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F29">
         <v>3.12</v>
@@ -9867,21 +10105,21 @@
         <v>1.1600578527617449</v>
       </c>
       <c r="N29" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O29" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P29" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q29" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B30" s="1">
         <v>75</v>
@@ -9890,10 +10128,10 @@
         <v>0.75</v>
       </c>
       <c r="D30" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E30" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F30">
         <v>3.33</v>
@@ -9921,15 +10159,15 @@
         <v>1.1393781921628598</v>
       </c>
       <c r="N30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B31">
         <v>75</v>
@@ -9938,10 +10176,10 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E31" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F31">
         <v>3.72</v>
@@ -9957,10 +10195,10 @@
         <v>1.666222222222222</v>
       </c>
       <c r="N31" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O31" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -9974,10 +10212,10 @@
         <v>0.75</v>
       </c>
       <c r="D32" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E32" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F32">
         <v>5.55</v>
@@ -10005,10 +10243,10 @@
         <v>1.6056004143850826</v>
       </c>
       <c r="N32" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O32" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -10022,10 +10260,10 @@
         <v>1.2</v>
       </c>
       <c r="D33" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E33" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F33">
         <v>1.6</v>
@@ -10053,15 +10291,15 @@
         <v>0.36268403630802609</v>
       </c>
       <c r="N33" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O33" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B34">
         <v>23</v>
@@ -10070,10 +10308,10 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E34" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F34">
         <v>1.05</v>
@@ -10101,15 +10339,15 @@
         <v>0.81805332330258329</v>
       </c>
       <c r="N34" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O34" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B35">
         <v>98</v>
@@ -10118,10 +10356,10 @@
         <v>1.5</v>
       </c>
       <c r="D35" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E35" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F35">
         <v>1.4</v>
@@ -10149,10 +10387,10 @@
         <v>0.82946104862447179</v>
       </c>
       <c r="N35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -10166,10 +10404,10 @@
         <v>0.7</v>
       </c>
       <c r="D36" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E36" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F36">
         <v>1.93</v>
@@ -10197,10 +10435,10 @@
         <v>0.99486896469504882</v>
       </c>
       <c r="N36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -10214,10 +10452,10 @@
         <v>0.3</v>
       </c>
       <c r="D37" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E37" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F37">
         <v>1.4</v>
@@ -10245,10 +10483,10 @@
         <v>0.65480070050811501</v>
       </c>
       <c r="N37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -10262,10 +10500,10 @@
         <v>1.2</v>
       </c>
       <c r="D38" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E38" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F38">
         <v>1.4</v>
@@ -10293,15 +10531,15 @@
         <v>1.1618167949287159</v>
       </c>
       <c r="N38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B39">
         <v>188</v>
@@ -10310,10 +10548,10 @@
         <v>1.66</v>
       </c>
       <c r="D39" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E39" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F39">
         <v>2.1</v>
@@ -10341,15 +10579,15 @@
         <v>1.3852772431881337</v>
       </c>
       <c r="N39" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O39" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B40" s="1">
         <v>300</v>
@@ -10358,10 +10596,10 @@
         <v>1.3</v>
       </c>
       <c r="D40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E40" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F40">
         <v>2.1</v>
@@ -10389,15 +10627,15 @@
         <v>1.6678463609754492</v>
       </c>
       <c r="N40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B41">
         <v>263</v>
@@ -10406,10 +10644,10 @@
         <v>1.84</v>
       </c>
       <c r="D41" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E41" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F41">
         <v>2.4500000000000002</v>
@@ -10437,34 +10675,34 @@
         <v>1.8866815731833657</v>
       </c>
       <c r="N41" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O41" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C42">
         <v>1.9</v>
       </c>
       <c r="D42" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M42" s="9">
         <f t="shared" si="1"/>
         <v>0.38626609442060084</v>
       </c>
       <c r="N42" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O42" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -10478,10 +10716,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D43" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E43" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F43">
         <v>3.89</v>
@@ -10509,10 +10747,10 @@
         <v>1.9216150066597606</v>
       </c>
       <c r="N43" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O43" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -10526,10 +10764,10 @@
         <v>0.8</v>
       </c>
       <c r="D44" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E44" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F44">
         <v>2.4500000000000002</v>
@@ -10557,10 +10795,10 @@
         <v>1.388365197408449</v>
       </c>
       <c r="N44" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O44" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -10574,10 +10812,10 @@
         <v>1.4</v>
       </c>
       <c r="D45" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E45" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F45">
         <v>2.4700000000000002</v>
@@ -10605,15 +10843,15 @@
         <v>2.0589870381332935</v>
       </c>
       <c r="N45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B46">
         <v>675</v>
@@ -10622,10 +10860,10 @@
         <v>0.81</v>
       </c>
       <c r="D46" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E46" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F46">
         <v>2.8</v>
@@ -10653,10 +10891,10 @@
         <v>1.8398792651242333</v>
       </c>
       <c r="N46" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O46" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -10670,10 +10908,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E47" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F47">
         <v>1.75</v>
@@ -10701,10 +10939,10 @@
         <v>2.038676117770871</v>
       </c>
       <c r="N47" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O47" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -10718,10 +10956,10 @@
         <v>2.1</v>
       </c>
       <c r="D48" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E48" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F48">
         <v>2.8</v>
@@ -10749,15 +10987,15 @@
         <v>3.1749037705753707</v>
       </c>
       <c r="N48" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O48" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B49" s="1">
         <v>188</v>
@@ -10766,10 +11004,10 @@
         <v>0.5</v>
       </c>
       <c r="D49" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E49" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F49">
         <v>3.68</v>
@@ -10797,15 +11035,15 @@
         <v>2.0549431659349158</v>
       </c>
       <c r="N49" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O49" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B50">
         <v>450</v>
@@ -10814,10 +11052,10 @@
         <v>1.6</v>
       </c>
       <c r="D50" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E50" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F50">
         <v>2.8</v>
@@ -10833,15 +11071,15 @@
         <v>2.3597329518359564</v>
       </c>
       <c r="N50" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O50" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B51">
         <v>675</v>
@@ -10850,10 +11088,10 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E51" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F51">
         <v>4.9000000000000004</v>
@@ -10881,10 +11119,10 @@
         <v>2.4995354406130263</v>
       </c>
       <c r="N51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -10898,10 +11136,10 @@
         <v>0.7</v>
       </c>
       <c r="D52" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E52" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F52">
         <v>3.5</v>
@@ -10929,10 +11167,10 @@
         <v>2.291446742472826</v>
       </c>
       <c r="N52" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O52" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -10946,10 +11184,10 @@
         <v>1.75</v>
       </c>
       <c r="D53" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E53" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F53">
         <v>3.85</v>
@@ -10977,15 +11215,15 @@
         <v>3.7409037376876655</v>
       </c>
       <c r="N53" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O53" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B54">
         <v>617</v>
@@ -10994,10 +11232,10 @@
         <v>1.6</v>
       </c>
       <c r="D54" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E54" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F54">
         <v>3.85</v>
@@ -11013,15 +11251,15 @@
         <v>2.9662662851692896</v>
       </c>
       <c r="N54" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O54" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B55" s="1">
         <v>750</v>
@@ -11030,10 +11268,10 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E55" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F55">
         <v>2.98</v>
@@ -11061,10 +11299,10 @@
         <v>3.5532378726588068</v>
       </c>
       <c r="N55" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O55" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -11078,10 +11316,10 @@
         <v>0.5</v>
       </c>
       <c r="D56" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E56" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F56">
         <v>3.26</v>
@@ -11109,15 +11347,15 @@
         <v>2.166054277046026</v>
       </c>
       <c r="N56" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O56" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B57">
         <v>742</v>
@@ -11126,10 +11364,10 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E57" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F57">
         <v>3.5</v>
@@ -11157,15 +11395,15 @@
         <v>4.9953058803216415</v>
       </c>
       <c r="N57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B58">
         <v>650</v>
@@ -11174,10 +11412,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D58" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E58" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F58">
         <v>3.15</v>
@@ -11205,10 +11443,10 @@
         <v>3.9841199907914429</v>
       </c>
       <c r="N58" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O58" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -11222,10 +11460,10 @@
         <v>0.7</v>
       </c>
       <c r="D59" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E59" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F59">
         <v>1.05</v>
@@ -11253,15 +11491,15 @@
         <v>0.13389118691727095</v>
       </c>
       <c r="N59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B60">
         <v>188</v>
@@ -11270,10 +11508,10 @@
         <v>0.8</v>
       </c>
       <c r="D60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E60" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F60">
         <v>1.58</v>
@@ -11301,15 +11539,15 @@
         <v>0.5960985307417821</v>
       </c>
       <c r="N60" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O60" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B61">
         <v>225</v>
@@ -11318,10 +11556,10 @@
         <v>0.9</v>
       </c>
       <c r="D61" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E61" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F61">
         <v>1.93</v>
@@ -11349,10 +11587,10 @@
         <v>0.8292836523440712</v>
       </c>
       <c r="N61" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O61" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -11366,10 +11604,10 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E62" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F62">
         <v>2.4500000000000002</v>
@@ -11397,21 +11635,21 @@
         <v>1.2822021072796934</v>
       </c>
       <c r="N62" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O62" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
@@ -11423,13 +11661,13 @@
         <v>-0.42918454935622319</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O63" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P63" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -11443,10 +11681,10 @@
         <v>0.35</v>
       </c>
       <c r="D64" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E64" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F64">
         <v>3.15</v>
@@ -11474,10 +11712,10 @@
         <v>0.95874881686481517</v>
       </c>
       <c r="N64" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O64" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -11491,10 +11729,10 @@
         <v>0.4</v>
       </c>
       <c r="D65" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E65" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F65">
         <v>2.8</v>
@@ -11522,10 +11760,10 @@
         <v>1.0341135998881816</v>
       </c>
       <c r="N65" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O65" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -11539,10 +11777,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D66" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E66" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F66">
         <v>2.52</v>
@@ -11570,15 +11808,15 @@
         <v>3.1515621330965415</v>
       </c>
       <c r="N66" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O66" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B67">
         <v>450</v>
@@ -11587,10 +11825,10 @@
         <v>1.2</v>
       </c>
       <c r="D67" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E67" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F67">
         <v>3.08</v>
@@ -11618,15 +11856,15 @@
         <v>2.0138167949287156</v>
       </c>
       <c r="N67" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O67" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B68">
         <v>608</v>
@@ -11635,10 +11873,10 @@
         <v>1.3</v>
       </c>
       <c r="D68" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E68" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F68">
         <v>2.8</v>
@@ -11666,10 +11904,10 @@
         <v>2.313135249864338</v>
       </c>
       <c r="N68" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O68" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -11683,10 +11921,10 @@
         <v>1.5</v>
       </c>
       <c r="D69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E69" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F69">
         <v>3.15</v>
@@ -11714,15 +11952,15 @@
         <v>2.7281277152911381</v>
       </c>
       <c r="N69" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O69" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B70">
         <v>450</v>
@@ -11731,10 +11969,10 @@
         <v>0.7</v>
       </c>
       <c r="D70" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E70" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F70">
         <v>4.9000000000000004</v>
@@ -11762,10 +12000,10 @@
         <v>2.19678007580616</v>
       </c>
       <c r="N70" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O70" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -11779,10 +12017,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D71" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E71" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F71">
         <v>3.5</v>
@@ -11810,10 +12048,10 @@
         <v>4.1027642436650051</v>
       </c>
       <c r="N71" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O71" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -11827,10 +12065,10 @@
         <v>2.5</v>
       </c>
       <c r="D72" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E72" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F72">
         <v>4.2</v>
@@ -11858,15 +12096,15 @@
         <v>4.5586455979806937</v>
       </c>
       <c r="N72" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O72" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B73">
         <v>1500</v>
@@ -11875,10 +12113,10 @@
         <v>3.33</v>
       </c>
       <c r="D73" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E73" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F73">
         <v>5.25</v>
@@ -11906,15 +12144,15 @@
         <v>5.7706465517241377</v>
       </c>
       <c r="N73" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O73" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B74">
         <v>86</v>
@@ -11923,10 +12161,10 @@
         <v>1.7</v>
       </c>
       <c r="D74" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E74" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F74">
         <v>1.8</v>
@@ -11954,15 +12192,15 @@
         <v>0.66317297765280458</v>
       </c>
       <c r="N74" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O74" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B75">
         <v>98</v>
@@ -11971,10 +12209,10 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
+        <v>224</v>
+      </c>
+      <c r="E75" t="s">
         <v>227</v>
-      </c>
-      <c r="E75" t="s">
-        <v>230</v>
       </c>
       <c r="F75">
         <v>4.2</v>
@@ -11996,15 +12234,15 @@
         <v>2.1009316757930052</v>
       </c>
       <c r="N75" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O75" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B76">
         <v>750</v>
@@ -12013,10 +12251,10 @@
         <v>1.3</v>
       </c>
       <c r="D76" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E76" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F76">
         <v>2.8</v>
@@ -12044,15 +12282,15 @@
         <v>2.2249574720865604</v>
       </c>
       <c r="N76" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O76" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B77">
         <v>1350</v>
@@ -12061,10 +12299,10 @@
         <v>2.75</v>
       </c>
       <c r="D77" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E77" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F77">
         <v>4.5999999999999996</v>
@@ -12092,10 +12330,10 @@
         <v>4.6977195130975273</v>
       </c>
       <c r="N77" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O77" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -12109,10 +12347,10 @@
         <v>0.7</v>
       </c>
       <c r="D78" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F78">
         <v>1.75</v>
@@ -12140,10 +12378,10 @@
         <v>0.96844731718547028</v>
       </c>
       <c r="N78" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O78" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -12157,10 +12395,10 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E79" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F79">
         <v>3.5</v>
@@ -12188,10 +12426,10 @@
         <v>1.897269348659004</v>
       </c>
       <c r="N79" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O79" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -12205,10 +12443,10 @@
         <v>0.8</v>
       </c>
       <c r="D80" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E80" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F80">
         <v>3.5</v>
@@ -12236,10 +12474,10 @@
         <v>1.5186324387877592</v>
       </c>
       <c r="N80" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O80" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -12253,10 +12491,10 @@
         <v>0.6</v>
       </c>
       <c r="D81" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E81" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F81">
         <v>1.4</v>
@@ -12284,15 +12522,15 @@
         <v>0.73932886224984784</v>
       </c>
       <c r="N81" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O81" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B82">
         <v>1125</v>
@@ -12301,10 +12539,10 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E82" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F82">
         <v>3.5</v>
@@ -12332,15 +12570,15 @@
         <v>1.730602681992337</v>
       </c>
       <c r="N82" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O82" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B83">
         <v>73</v>
@@ -12349,10 +12587,10 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E83" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F83">
         <v>0.53</v>
@@ -12380,15 +12618,15 @@
         <v>0.55138582375478928</v>
       </c>
       <c r="N83" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O83" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B84">
         <v>75</v>
@@ -12397,10 +12635,10 @@
         <v>0.6</v>
       </c>
       <c r="D84" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E84" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F84">
         <v>2.4500000000000002</v>
@@ -12428,15 +12666,15 @@
         <v>1.02885108447207</v>
       </c>
       <c r="N84" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O84" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B85" s="5">
         <v>5625</v>
@@ -12445,10 +12683,10 @@
         <v>1.75</v>
       </c>
       <c r="D85" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E85" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F85">
         <v>2.8</v>
@@ -12476,15 +12714,15 @@
         <v>5.6403964579941794</v>
       </c>
       <c r="N85" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O85" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B86">
         <v>2200</v>
@@ -12493,10 +12731,10 @@
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E86" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F86">
         <v>4.3</v>
@@ -12524,15 +12762,15 @@
         <v>4.7396745876703994</v>
       </c>
       <c r="N86" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O86" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B87">
         <v>1561</v>
@@ -12541,10 +12779,10 @@
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E87" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F87">
         <v>4.5999999999999996</v>
@@ -12572,15 +12810,15 @@
         <v>1.6110522322529721</v>
       </c>
       <c r="N87" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O87" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B88">
         <v>1800</v>
@@ -12589,10 +12827,10 @@
         <v>2.5</v>
       </c>
       <c r="D88" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E88" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F88">
         <v>3.15</v>
@@ -12620,15 +12858,15 @@
         <v>5.6747346784404646</v>
       </c>
       <c r="N88" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B89" s="5">
         <v>9999</v>
@@ -12637,10 +12875,10 @@
         <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E89" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F89" s="5">
         <v>99999.99</v>
@@ -12668,39 +12906,39 @@
         <v>20059.390354430794</v>
       </c>
       <c r="N89" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O89" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P89" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D90" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E90" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M90" s="9">
         <f t="shared" si="2"/>
         <v>-0.42918454935622319</v>
       </c>
       <c r="N90" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O90" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B91">
         <v>1392</v>
@@ -12709,10 +12947,10 @@
         <v>0.7</v>
       </c>
       <c r="D91" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E91" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F91">
         <v>1.75</v>
@@ -12740,118 +12978,118 @@
         <v>1.4128917616299144</v>
       </c>
       <c r="N91" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O91" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E92" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M92" s="9">
         <f t="shared" si="2"/>
         <v>-0.42918454935622319</v>
       </c>
       <c r="N92" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O92" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E93" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M93" s="9">
         <f t="shared" si="2"/>
         <v>-0.42918454935622319</v>
       </c>
       <c r="N93" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O93" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E94" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M94" s="9">
         <f>C94*B94/2250+(C94-1)/2.33+0+0+F94/5+G94/9+H94/3-I94/200+J94/5.8-K94/50-L94/1000</f>
         <v>-0.42918454935622319</v>
       </c>
       <c r="N94" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E95" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M95" s="9">
         <f t="shared" si="2"/>
         <v>-0.42918454935622319</v>
       </c>
       <c r="N95" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O95" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>430</v>
+      </c>
+      <c r="E96" t="s">
         <v>434</v>
-      </c>
-      <c r="E96" t="s">
-        <v>438</v>
       </c>
       <c r="M96" s="9">
         <f t="shared" si="2"/>
         <v>-0.42918454935622319</v>
       </c>
       <c r="N96" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O96" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E97" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M97" s="9">
         <f t="shared" si="2"/>
         <v>-0.42918454935622319</v>
       </c>
       <c r="N97" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O97" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -12865,10 +13103,10 @@
         <v>1.3</v>
       </c>
       <c r="D101" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E101" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F101">
         <v>1.75</v>
@@ -12884,10 +13122,10 @@
         <v>1.0098664759179781</v>
       </c>
       <c r="N101" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O101" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
@@ -12901,10 +13139,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D102" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E102" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F102">
         <v>2.8</v>
@@ -12920,10 +13158,10 @@
         <v>1.250385121602289</v>
       </c>
       <c r="N102" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O102" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
@@ -12931,20 +13169,20 @@
         <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E103" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M103" s="9">
         <f t="shared" si="4"/>
         <v>-0.42918454935622319</v>
       </c>
       <c r="N103" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O103" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
@@ -12958,7 +13196,7 @@
         <v>-0.2</v>
       </c>
       <c r="D104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F104">
         <v>4</v>
@@ -12971,10 +13209,10 @@
         <v>0.95155631855030998</v>
       </c>
       <c r="N104" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O104" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -12988,10 +13226,10 @@
         <v>0.1</v>
       </c>
       <c r="D105" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E105" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F105">
         <v>0.7</v>
@@ -13007,10 +13245,10 @@
         <v>-0.24622164997615639</v>
       </c>
       <c r="N105" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O105" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -13024,10 +13262,10 @@
         <v>1.2</v>
       </c>
       <c r="D106" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E106" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F106">
         <v>1.4</v>
@@ -13043,10 +13281,10 @@
         <v>0.69161468764902223</v>
       </c>
       <c r="N106" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O106" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -13060,10 +13298,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D107" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E107" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F107">
         <v>2.0999999999999996</v>
@@ -13079,10 +13317,10 @@
         <v>1.1103851216022889</v>
       </c>
       <c r="N107" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O107" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
@@ -13090,20 +13328,20 @@
         <v>13</v>
       </c>
       <c r="D108" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E108" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M108" s="9">
         <f t="shared" si="4"/>
         <v>-0.42918454935622319</v>
       </c>
       <c r="N108" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O108" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
@@ -13111,17 +13349,17 @@
         <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M109" s="9">
         <f t="shared" si="4"/>
         <v>-0.42918454935622319</v>
       </c>
       <c r="N109" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O109" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -13129,17 +13367,17 @@
         <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M110" s="9">
         <f t="shared" si="4"/>
         <v>-0.42918454935622319</v>
       </c>
       <c r="N110" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O110" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
@@ -13147,17 +13385,17 @@
         <v>20</v>
       </c>
       <c r="D111" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M111" s="9">
         <f t="shared" si="4"/>
         <v>-0.42918454935622319</v>
       </c>
       <c r="N111" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O111" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -13165,20 +13403,20 @@
         <v>21</v>
       </c>
       <c r="D112" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E112" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M112" s="9">
         <f t="shared" si="4"/>
         <v>-0.42918454935622319</v>
       </c>
       <c r="N112" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O112" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -13190,10 +13428,10 @@
         <v>-0.42918454935622319</v>
       </c>
       <c r="N113" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O113" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -13207,10 +13445,10 @@
         <v>0.7</v>
       </c>
       <c r="D114" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E114" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F114">
         <v>1.75</v>
@@ -13226,10 +13464,10 @@
         <v>0.82813352408202179</v>
       </c>
       <c r="N114" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O114" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -13241,10 +13479,10 @@
         <v>-0.42918454935622319</v>
       </c>
       <c r="N115" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O115" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -13252,17 +13490,17 @@
         <v>25</v>
       </c>
       <c r="D116" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M116" s="9">
         <f t="shared" si="4"/>
         <v>-0.42918454935622319</v>
       </c>
       <c r="N116" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O116" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -13270,17 +13508,17 @@
         <v>26</v>
       </c>
       <c r="E117" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M117" s="9">
         <f t="shared" si="4"/>
         <v>-0.42918454935622319</v>
       </c>
       <c r="N117" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O117" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
@@ -13294,10 +13532,10 @@
         <v>1.7</v>
       </c>
       <c r="D118" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E118" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F118">
         <v>0.17499999999999999</v>
@@ -13313,10 +13551,10 @@
         <v>1.1776514067715784</v>
       </c>
       <c r="N118" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O118" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
@@ -13324,10 +13562,10 @@
         <v>31</v>
       </c>
       <c r="D119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H119" s="2">
         <v>3</v>
@@ -13337,10 +13575,10 @@
         <v>0.57081545064377681</v>
       </c>
       <c r="N119" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O119" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -13354,10 +13592,10 @@
         <v>0.1</v>
       </c>
       <c r="D120" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F120">
         <v>0.7</v>
@@ -13373,10 +13611,10 @@
         <v>-0.24622164997615639</v>
       </c>
       <c r="N120" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O120" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
@@ -13384,17 +13622,17 @@
         <v>33</v>
       </c>
       <c r="D121" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M121" s="9">
         <f t="shared" si="4"/>
         <v>-0.42918454935622319</v>
       </c>
       <c r="N121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
@@ -13402,20 +13640,20 @@
         <v>34</v>
       </c>
       <c r="D122" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M122" s="9">
         <f t="shared" si="4"/>
         <v>-0.42918454935622319</v>
       </c>
       <c r="N122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
@@ -13423,20 +13661,20 @@
         <v>36</v>
       </c>
       <c r="D123" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E123" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M123" s="9">
         <f t="shared" si="4"/>
         <v>-0.42918454935622319</v>
       </c>
       <c r="N123" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O123" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
@@ -13444,20 +13682,20 @@
         <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E124" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M124" s="9">
         <f t="shared" ref="M124:M125" si="5">C124*B124/2250+(C124-1)/2.33+0+0+F124/5+G124/9+H124/3-I124/200+J124/5.8-K124/50-L124/1000</f>
         <v>-0.42918454935622319</v>
       </c>
       <c r="N124" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O124" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
@@ -13465,20 +13703,20 @@
         <v>28</v>
       </c>
       <c r="D125" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E125" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M125" s="9">
         <f t="shared" si="5"/>
         <v>-0.42918454935622319</v>
       </c>
       <c r="N125" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O125" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -13553,32 +13791,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N126:N1048576 N1:N123">
-    <cfRule type="cellIs" dxfId="57" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="96" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="97" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:P7 O8 Q8 O126:P1048576 O9:P123">
-    <cfRule type="cellIs" dxfId="55" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="94" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="95" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126:E1048576 E1:E123">
-    <cfRule type="cellIs" dxfId="53" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="89" operator="equal">
       <formula>"part builder, part cast"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="90" operator="equal">
       <formula>"dire crafting table"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="91" operator="equal">
       <formula>"part builder"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="92" operator="equal">
       <formula>"part cast"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13595,7 +13833,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="84" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="84" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13614,17 +13852,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J126:J1048576 J1:J123">
-    <cfRule type="cellIs" dxfId="48" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="80" operator="equal">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L126:L1048576 L1:L123">
-    <cfRule type="cellIs" dxfId="47" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="79" operator="equal">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126:I1048576 I1:I84 I86:I123">
-    <cfRule type="cellIs" dxfId="46" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="276" operator="equal">
       <formula>40</formula>
     </cfRule>
     <cfRule type="dataBar" priority="277">
@@ -13751,32 +13989,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N124">
-    <cfRule type="cellIs" dxfId="45" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O124:P124">
-    <cfRule type="cellIs" dxfId="43" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="62" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="41" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="58" operator="equal">
       <formula>"part builder, part cast"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="59" operator="equal">
       <formula>"dire crafting table"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
       <formula>"part builder"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="61" operator="equal">
       <formula>"part cast"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13793,7 +14031,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="53" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13812,17 +14050,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124">
-    <cfRule type="cellIs" dxfId="36" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="50" operator="equal">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L124">
-    <cfRule type="cellIs" dxfId="35" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="49" operator="equal">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="34" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="71" operator="equal">
       <formula>40</formula>
     </cfRule>
     <cfRule type="dataBar" priority="72">
@@ -13949,32 +14187,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N125">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="34" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="35" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O125:P125">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="32" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="33" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="28" operator="equal">
       <formula>"part builder, part cast"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="29" operator="equal">
       <formula>"dire crafting table"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="30" operator="equal">
       <formula>"part builder"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
       <formula>"part cast"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13991,7 +14229,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="23" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14010,17 +14248,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125">
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="20" operator="equal">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L125">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="19" operator="equal">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="22" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
       <formula>40</formula>
     </cfRule>
     <cfRule type="dataBar" priority="42">
@@ -14077,72 +14315,72 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="wither">
+    <cfRule type="containsText" dxfId="41" priority="2" operator="containsText" text="wither">
       <formula>NOT(ISERROR(SEARCH("wither",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="slowness">
+    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="slowness">
       <formula>NOT(ISERROR(SEARCH("slowness",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="life steal">
+    <cfRule type="containsText" dxfId="39" priority="4" operator="containsText" text="life steal">
       <formula>NOT(ISERROR(SEARCH("life steal",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="serrated">
+    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="serrated">
       <formula>NOT(ISERROR(SEARCH("serrated",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="ignite">
+    <cfRule type="containsText" dxfId="37" priority="6" operator="containsText" text="ignite">
       <formula>NOT(ISERROR(SEARCH("ignite",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="poison">
+    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="poison">
       <formula>NOT(ISERROR(SEARCH("poison",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="writable">
+    <cfRule type="containsText" dxfId="35" priority="8" operator="containsText" text="writable">
       <formula>NOT(ISERROR(SEARCH("writable",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="slimy">
+    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="slimy">
       <formula>NOT(ISERROR(SEARCH("slimy",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="spearminty">
+    <cfRule type="containsText" dxfId="33" priority="10" operator="containsText" text="spearminty">
       <formula>NOT(ISERROR(SEARCH("spearminty",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="pepperminty">
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="pepperminty">
       <formula>NOT(ISERROR(SEARCH("pepperminty",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="jagged">
+    <cfRule type="containsText" dxfId="31" priority="12" operator="containsText" text="jagged">
       <formula>NOT(ISERROR(SEARCH("jagged",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="taggable">
+    <cfRule type="containsText" dxfId="30" priority="13" operator="containsText" text="taggable">
       <formula>NOT(ISERROR(SEARCH("taggable",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="modifiable">
+    <cfRule type="containsText" dxfId="29" priority="14" operator="containsText" text="modifiable">
       <formula>NOT(ISERROR(SEARCH("modifiable",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="heavy">
+    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="heavy">
       <formula>NOT(ISERROR(SEARCH("heavy",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="16" operator="containsText" text="dire">
+    <cfRule type="containsText" dxfId="27" priority="16" operator="containsText" text="dire">
       <formula>NOT(ISERROR(SEARCH("dire",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="17" operator="containsText" text="skullfire">
+    <cfRule type="containsText" dxfId="26" priority="17" operator="containsText" text="skullfire">
       <formula>NOT(ISERROR(SEARCH("skullfire",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="18" operator="containsText" text="cosmic">
+    <cfRule type="containsText" dxfId="25" priority="18" operator="containsText" text="cosmic">
       <formula>NOT(ISERROR(SEARCH("cosmic",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="24" operator="containsText" text="supermassive">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="supermassive">
       <formula>NOT(ISERROR(SEARCH("supermassive",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="25" operator="containsText" text="reinforced">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="reinforced">
       <formula>NOT(ISERROR(SEARCH("reinforced",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="26" operator="containsText" text="none">
+    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="none">
       <formula>NOT(ISERROR(SEARCH("none",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="27" operator="containsText" text="stonebound">
+    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="stonebound">
       <formula>NOT(ISERROR(SEARCH("stonebound",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"metalworking table"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14531,78 +14769,78 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B13" t="s">
         <v>103</v>
@@ -14633,10 +14871,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -14644,7 +14882,7 @@
         <v>-1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -14652,7 +14890,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -14660,7 +14898,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -14668,7 +14906,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -14676,7 +14914,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -14684,7 +14922,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -14692,7 +14930,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -14700,7 +14938,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -14708,257 +14946,257 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>77</v>
@@ -14966,21 +15204,21 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>81</v>
@@ -14988,10 +15226,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>3</v>
@@ -14999,10 +15237,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>4</v>
@@ -15010,10 +15248,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>5</v>
@@ -15021,10 +15259,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>10</v>
@@ -15032,10 +15270,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>12</v>
@@ -15043,10 +15281,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>407</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>411</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>16</v>
@@ -15054,10 +15292,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>20</v>
@@ -15070,10 +15308,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>23</v>
@@ -15081,7 +15319,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>104</v>
@@ -15089,10 +15327,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>409</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>413</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>25</v>
@@ -15105,10 +15343,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>27</v>
@@ -15116,10 +15354,10 @@
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>31</v>
@@ -15127,10 +15365,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>33</v>
@@ -15138,10 +15376,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="B53" s="15" t="s">
         <v>410</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>414</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>36</v>
@@ -15149,10 +15387,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>15</v>
@@ -15160,10 +15398,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>28</v>
@@ -15171,101 +15409,101 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D59" s="15">
         <v>1</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D60" s="15">
         <v>1</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D61" s="15">
         <v>1</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D62" s="15">
         <v>1</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D63" s="15">
         <v>50</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -15273,7 +15511,7 @@
         <v>85</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>85</v>
@@ -15282,7 +15520,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -15290,7 +15528,7 @@
         <v>86</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>86</v>
@@ -15299,49 +15537,49 @@
         <v>1</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D66" s="16">
         <v>1</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D67" s="15">
         <v>1</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>51</v>
@@ -15350,125 +15588,125 @@
         <v>450</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D69" s="15">
         <v>72</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D70" s="15">
         <v>25</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D71" s="15">
         <v>1</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D72" s="15">
         <v>1</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D73" s="15">
         <v>1</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D74" s="15">
         <v>10</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D75" s="15">
         <v>1</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D76" s="15">
         <v>4</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -15476,64 +15714,64 @@
         <v>23</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D77" s="15">
         <v>36</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D78" s="15">
         <v>1</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D79" s="15">
         <v>1</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D80" s="15">
         <v>1</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/The Lemon Taco spreadsheet edition.xlsx
+++ b/The Lemon Taco spreadsheet edition.xlsx
@@ -1500,7 +1500,47 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="94">
+  <dxfs count="96">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2222,26 +2262,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFB59B79"/>
@@ -2334,7 +2354,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Simple" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Simple" pivot="0" count="1">
-      <tableStyleElement type="secondRowStripe" dxfId="93"/>
+      <tableStyleElement type="secondRowStripe" dxfId="95"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2649,10 +2669,10 @@
   <dimension ref="A1:T105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M65" sqref="M65"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K10:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2998,7 +3018,7 @@
         <v>238</v>
       </c>
       <c r="N6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
@@ -3053,7 +3073,7 @@
         <v>238</v>
       </c>
       <c r="N7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
@@ -3114,7 +3134,7 @@
         <v>238</v>
       </c>
       <c r="N8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q8">
         <f t="shared" si="2"/>
@@ -3236,7 +3256,7 @@
         <v>238</v>
       </c>
       <c r="N10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q10">
         <f t="shared" si="2"/>
@@ -3297,7 +3317,7 @@
         <v>238</v>
       </c>
       <c r="N11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q11">
         <f t="shared" si="2"/>
@@ -3508,7 +3528,7 @@
         <v>15</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
@@ -3520,7 +3540,7 @@
         <v>102</v>
       </c>
       <c r="M15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N15" t="s">
         <v>238</v>
@@ -3584,7 +3604,7 @@
         <v>238</v>
       </c>
       <c r="N16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q16">
         <f t="shared" si="2"/>
@@ -3642,7 +3662,7 @@
         <v>238</v>
       </c>
       <c r="N17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q17">
         <f t="shared" si="2"/>
@@ -3746,7 +3766,7 @@
         <v>237</v>
       </c>
       <c r="N19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q19" t="e">
         <f t="shared" ref="Q19" si="8">E19/5000</f>
@@ -4048,7 +4068,7 @@
         <v>238</v>
       </c>
       <c r="N24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q24">
         <f t="shared" si="12"/>
@@ -4103,10 +4123,10 @@
         <v>115</v>
       </c>
       <c r="M25" t="s">
+        <v>238</v>
+      </c>
+      <c r="N25" t="s">
         <v>237</v>
-      </c>
-      <c r="N25" t="s">
-        <v>238</v>
       </c>
       <c r="Q25">
         <f t="shared" ref="Q25" si="13">E25/5000</f>
@@ -4164,7 +4184,7 @@
         <v>238</v>
       </c>
       <c r="N26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q26">
         <f t="shared" si="12"/>
@@ -4222,7 +4242,7 @@
         <v>238</v>
       </c>
       <c r="N27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q27">
         <f t="shared" si="12"/>
@@ -4280,7 +4300,7 @@
         <v>238</v>
       </c>
       <c r="N28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O28" t="s">
         <v>456</v>
@@ -4341,7 +4361,7 @@
         <v>238</v>
       </c>
       <c r="N29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q29">
         <f t="shared" si="12"/>
@@ -5962,7 +5982,7 @@
         <v>238</v>
       </c>
       <c r="N57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q57">
         <f t="shared" si="12"/>
@@ -6020,7 +6040,7 @@
         <v>238</v>
       </c>
       <c r="N58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q58">
         <f t="shared" si="12"/>
@@ -6078,7 +6098,7 @@
         <v>238</v>
       </c>
       <c r="N59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q59">
         <f t="shared" si="12"/>
@@ -6121,7 +6141,7 @@
         <v>237</v>
       </c>
       <c r="N60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q60" t="e">
         <f t="shared" ref="Q60" si="16">E60/5000</f>
@@ -8449,55 +8469,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O71:P102">
-    <cfRule type="cellIs" dxfId="92" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="25" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="26" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="90" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="16" operator="equal">
       <formula>"rock"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="17" operator="equal">
       <formula>"gem"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="18" operator="equal">
       <formula>"metal, fantasy"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="19" operator="equal">
       <formula>"metal, nether"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="20" operator="equal">
       <formula>"metal, ender"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="21" operator="equal">
       <formula>"metal, precious"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="22" operator="equal">
       <formula>"metal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="23" operator="equal">
       <formula>"fruit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="24" operator="equal">
       <formula>"utility"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O2 O51 O22:P23 M1:N1048576">
-    <cfRule type="cellIs" dxfId="81" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:P15">
-    <cfRule type="cellIs" dxfId="79" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="11" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="12" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8558,26 +8578,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13791,32 +13811,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N126:N1048576 N1:N123">
-    <cfRule type="cellIs" dxfId="77" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="96" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="97" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:P7 O8 Q8 O126:P1048576 O9:P123">
-    <cfRule type="cellIs" dxfId="75" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="94" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="95" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126:E1048576 E1:E123">
-    <cfRule type="cellIs" dxfId="73" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="89" operator="equal">
       <formula>"part builder, part cast"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="90" operator="equal">
       <formula>"dire crafting table"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="91" operator="equal">
       <formula>"part builder"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="92" operator="equal">
       <formula>"part cast"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13833,7 +13853,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="84" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="84" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13852,17 +13872,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J126:J1048576 J1:J123">
-    <cfRule type="cellIs" dxfId="68" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="80" operator="equal">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L126:L1048576 L1:L123">
-    <cfRule type="cellIs" dxfId="67" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="79" operator="equal">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126:I1048576 I1:I84 I86:I123">
-    <cfRule type="cellIs" dxfId="66" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="276" operator="equal">
       <formula>40</formula>
     </cfRule>
     <cfRule type="dataBar" priority="277">
@@ -13989,32 +14009,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N124">
-    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="64" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="65" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O124:P124">
-    <cfRule type="cellIs" dxfId="63" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="62" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="63" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="61" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="58" operator="equal">
       <formula>"part builder, part cast"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="59" operator="equal">
       <formula>"dire crafting table"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="60" operator="equal">
       <formula>"part builder"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>"part cast"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14031,7 +14051,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="53" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14050,17 +14070,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124">
-    <cfRule type="cellIs" dxfId="56" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="50" operator="equal">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L124">
-    <cfRule type="cellIs" dxfId="55" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="49" operator="equal">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="54" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="71" operator="equal">
       <formula>40</formula>
     </cfRule>
     <cfRule type="dataBar" priority="72">
@@ -14187,32 +14207,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N125">
-    <cfRule type="cellIs" dxfId="53" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="34" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="35" operator="equal">
       <formula>"no"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O125:P125">
-    <cfRule type="cellIs" dxfId="51" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="32" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="33" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="49" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="28" operator="equal">
       <formula>"part builder, part cast"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="29" operator="equal">
       <formula>"dire crafting table"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="30" operator="equal">
       <formula>"part builder"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="31" operator="equal">
       <formula>"part cast"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14229,7 +14249,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="23" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14248,17 +14268,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125">
-    <cfRule type="cellIs" dxfId="44" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="20" operator="equal">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L125">
-    <cfRule type="cellIs" dxfId="43" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="19" operator="equal">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="41" operator="equal">
       <formula>40</formula>
     </cfRule>
     <cfRule type="dataBar" priority="42">
@@ -14315,72 +14335,72 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="41" priority="2" operator="containsText" text="wither">
+    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="wither">
       <formula>NOT(ISERROR(SEARCH("wither",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="slowness">
+    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="slowness">
       <formula>NOT(ISERROR(SEARCH("slowness",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="4" operator="containsText" text="life steal">
+    <cfRule type="containsText" dxfId="43" priority="4" operator="containsText" text="life steal">
       <formula>NOT(ISERROR(SEARCH("life steal",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="serrated">
+    <cfRule type="containsText" dxfId="42" priority="5" operator="containsText" text="serrated">
       <formula>NOT(ISERROR(SEARCH("serrated",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="6" operator="containsText" text="ignite">
+    <cfRule type="containsText" dxfId="41" priority="6" operator="containsText" text="ignite">
       <formula>NOT(ISERROR(SEARCH("ignite",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="poison">
+    <cfRule type="containsText" dxfId="40" priority="7" operator="containsText" text="poison">
       <formula>NOT(ISERROR(SEARCH("poison",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="8" operator="containsText" text="writable">
+    <cfRule type="containsText" dxfId="39" priority="8" operator="containsText" text="writable">
       <formula>NOT(ISERROR(SEARCH("writable",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="slimy">
+    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="slimy">
       <formula>NOT(ISERROR(SEARCH("slimy",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="10" operator="containsText" text="spearminty">
+    <cfRule type="containsText" dxfId="37" priority="10" operator="containsText" text="spearminty">
       <formula>NOT(ISERROR(SEARCH("spearminty",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="pepperminty">
+    <cfRule type="containsText" dxfId="36" priority="11" operator="containsText" text="pepperminty">
       <formula>NOT(ISERROR(SEARCH("pepperminty",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="12" operator="containsText" text="jagged">
+    <cfRule type="containsText" dxfId="35" priority="12" operator="containsText" text="jagged">
       <formula>NOT(ISERROR(SEARCH("jagged",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="13" operator="containsText" text="taggable">
+    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="taggable">
       <formula>NOT(ISERROR(SEARCH("taggable",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="14" operator="containsText" text="modifiable">
+    <cfRule type="containsText" dxfId="33" priority="14" operator="containsText" text="modifiable">
       <formula>NOT(ISERROR(SEARCH("modifiable",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="heavy">
+    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="heavy">
       <formula>NOT(ISERROR(SEARCH("heavy",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="16" operator="containsText" text="dire">
+    <cfRule type="containsText" dxfId="31" priority="16" operator="containsText" text="dire">
       <formula>NOT(ISERROR(SEARCH("dire",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="17" operator="containsText" text="skullfire">
+    <cfRule type="containsText" dxfId="30" priority="17" operator="containsText" text="skullfire">
       <formula>NOT(ISERROR(SEARCH("skullfire",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="18" operator="containsText" text="cosmic">
+    <cfRule type="containsText" dxfId="29" priority="18" operator="containsText" text="cosmic">
       <formula>NOT(ISERROR(SEARCH("cosmic",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="supermassive">
+    <cfRule type="containsText" dxfId="28" priority="24" operator="containsText" text="supermassive">
       <formula>NOT(ISERROR(SEARCH("supermassive",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="reinforced">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="reinforced">
       <formula>NOT(ISERROR(SEARCH("reinforced",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="none">
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="none">
       <formula>NOT(ISERROR(SEARCH("none",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="27" operator="containsText" text="stonebound">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="stonebound">
       <formula>NOT(ISERROR(SEARCH("stonebound",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"metalworking table"</formula>
     </cfRule>
   </conditionalFormatting>
